--- a/Test Cases/Test Cases.xlsx
+++ b/Test Cases/Test Cases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72A5C43-A7F6-47C1-A748-48C414F72679}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B46FA-4F40-4D2D-854F-60C7AAEA2128}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Table output" sheetId="6" r:id="rId5"/>
     <sheet name="Data visualisation" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="114">
   <si>
     <t>S/N</t>
   </si>
@@ -648,9 +649,51 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -661,65 +704,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -738,6 +736,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,40 +1041,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1088,408 +1089,344 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="21.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="28"/>
+      <c r="H5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="29.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="28"/>
+      <c r="H7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" ht="12.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="12" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="27"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="12" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="27"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="11">
+      <c r="A13" s="8">
         <v>4</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="28"/>
+      <c r="H13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="11">
+      <c r="A15" s="8">
         <v>5</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="28"/>
+      <c r="H15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="11">
+      <c r="A17" s="8">
         <v>6</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="28"/>
+      <c r="H17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -1500,7 +1437,71 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1537,40 +1538,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1585,218 +1586,218 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="27"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="27"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="16" t="s">
+      <c r="H7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="27"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="16" t="s">
+      <c r="H9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="27"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>5</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="12" t="s">
         <v>86</v>
       </c>
       <c r="K11" t="s">
@@ -1804,230 +1805,208 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="27"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="11">
+      <c r="A13" s="8">
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="16" t="s">
+      <c r="H13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="27"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="11">
+      <c r="A15" s="8">
         <v>7</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="11">
+      <c r="A17" s="8">
         <v>8</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="11">
+      <c r="A19" s="8">
         <v>9</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="12"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A11:A12"/>
@@ -2041,33 +2020,55 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2077,7 +2078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F238631-EBC5-4720-B916-747C7C12E944}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:AF12"/>
     </sheetView>
   </sheetViews>
@@ -2090,40 +2091,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2138,242 +2139,239 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="21"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="21"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="21"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="16" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="21"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>5</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="16" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="48.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="21"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2389,26 +2387,29 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2418,8 +2419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4D32B1-12A1-4899-85DD-DD11E428B596}">
   <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P4"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2430,84 +2431,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="6" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6" t="s">
+      <c r="R1" s="21"/>
+      <c r="S1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6" t="s">
+      <c r="T1" s="21"/>
+      <c r="U1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6" t="s">
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6" t="s">
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6" t="s">
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6" t="s">
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="6"/>
+      <c r="AF1" s="21"/>
     </row>
     <row r="2" spans="1:32" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2588,439 +2589,538 @@
       </c>
     </row>
     <row r="3" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="16" t="s">
+      <c r="L3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="16" t="s">
+      <c r="N3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="18"/>
+      <c r="R3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="29"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="16" t="s">
+      <c r="L5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="16" t="s">
+      <c r="N5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="R5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="18"/>
+      <c r="R5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="29"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
     </row>
     <row r="7" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="16" t="s">
+      <c r="H7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="16" t="s">
+      <c r="L7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="16" t="s">
+      <c r="N7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="R7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="16"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="18"/>
+      <c r="R7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="29"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
     </row>
     <row r="9" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="16" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="16" t="s">
+      <c r="L9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" s="16" t="s">
+      <c r="N9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="P9" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="Q9" s="16" t="s">
+      <c r="Q9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="R9" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="18"/>
+      <c r="R9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="29"/>
     </row>
     <row r="10" spans="1:32" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
     <mergeCell ref="AF5:AF6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3045,109 +3145,26 @@
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3157,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5958A5D-193E-40FD-A829-53ED413F4D4A}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L4"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3171,80 +3188,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="39.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6" t="s">
+      <c r="R1" s="21"/>
+      <c r="S1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6" t="s">
+      <c r="T1" s="21"/>
+      <c r="U1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6" t="s">
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6" t="s">
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6" t="s">
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="6"/>
+      <c r="AD1" s="21"/>
     </row>
     <row r="2" spans="1:30" ht="39.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3319,295 +3336,391 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="16" t="s">
+      <c r="J3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="16" t="s">
+      <c r="L3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="16" t="s">
+      <c r="N3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="P3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="18"/>
+      <c r="P3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="29"/>
     </row>
     <row r="4" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
     </row>
     <row r="5" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="16" t="s">
+      <c r="J5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="16" t="s">
+      <c r="L5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="16" t="s">
+      <c r="N5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="P5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="18"/>
+      <c r="P5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="29"/>
     </row>
     <row r="6" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
     </row>
     <row r="7" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="16" t="s">
+      <c r="H7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="16" t="s">
+      <c r="J7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="16" t="s">
+      <c r="L7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="16" t="s">
+      <c r="N7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="18"/>
+      <c r="P7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="29"/>
     </row>
     <row r="8" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="AC1:AD1"/>
@@ -3632,90 +3745,6 @@
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3725,8 +3754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A32C82-4E28-47DA-B010-C23DCFFA9445}">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3737,76 +3766,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6" t="s">
+      <c r="R1" s="21"/>
+      <c r="S1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6" t="s">
+      <c r="T1" s="21"/>
+      <c r="U1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6" t="s">
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6" t="s">
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="6"/>
+      <c r="AB1" s="21"/>
     </row>
     <row r="2" spans="1:28" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3875,7 +3904,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" s="3" customFormat="1" ht="45.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="39">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -3884,93 +3913,112 @@
       <c r="C3" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
+      <c r="O3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
     </row>
     <row r="4" spans="1:28" s="3" customFormat="1" ht="45.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -3987,28 +4035,13 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Cases/Test Cases.xlsx
+++ b/Test Cases/Test Cases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B46FA-4F40-4D2D-854F-60C7AAEA2128}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF81FC7-99B7-4259-B563-549D5C6B6178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="128">
   <si>
     <t>S/N</t>
   </si>
@@ -425,29 +424,125 @@
  form of scatterplot diagram</t>
   </si>
   <si>
-    <t>inventory_data_sample_masked &amp;
-movement_data_sample_masked  database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login.
-2. Choose inventory_data_sample_masked &amp; movement_data_sample_masked databse from correlation's chart view
-3. Choose Inventory and OrderQuantity to be shown in chart
+    <t>Chart shown with min/max value</t>
+  </si>
+  <si>
+    <t>Upload failed without error message</t>
+  </si>
+  <si>
+    <t>Export failed</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Chart is not shown upon request</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> weather_data_2017_3_months &amp;
+movement_data_sample_masked  data set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login and select correlation tab
+2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose Inventory as X variable and OrderQuantity as Y variable to be shown in chart
+5. Select filter by geographicallocation and value Singapore
 </t>
   </si>
   <si>
-    <t>Chart shown with min/max value</t>
-  </si>
-  <si>
-    <t>Upload failed without error message</t>
-  </si>
-  <si>
-    <t>Export failed</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Chart is not shown upon request</t>
+    <t>Visualise two types of data in the
+ form of scatterplot diagram (validations in data sets)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login and select correlation tab
+2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose Inventory as X variable and OrderQuantity as Y variable to be shown in chart
+5. Dont select filter
+6. Generate Scatterplot
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login and select correlation tab
+2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose Inventory as X variable and OrderQuantity as Y variable to be shown in chart
+5. Select filter by date or activitydate and range between 01/01/2017 to 01/02/2017
+6. Generate Scatterplot
+</t>
+  </si>
+  <si>
+    <t>1. Login and select correlation tab
+2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose Inventory as X variable and OrderQuantity as Y variable to be shown in chart
+5. Select filter by company and value DHL
+6. Generate Scatterplot</t>
+  </si>
+  <si>
+    <t>1. Login and select correlation tab
+2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose Inventory as X variable and OrderQuantity as Y variable to be shown in chart
+5. Select filter by depot and value 34
+6. Generate Scatterplot</t>
+  </si>
+  <si>
+    <t>Error Validations shown</t>
+  </si>
+  <si>
+    <t>1. Login and select correlation tab
+2. Choose don’t select data set 2
+3. Generate Scatterplot</t>
+  </si>
+  <si>
+    <t>1. Login and select correlation tab
+2. Choose don’t select data set 1
+3. Generate Scatterplot</t>
+  </si>
+  <si>
+    <t>1. Login and select correlation tab
+2. Choose don’t select variable X
+3. Generate Scatterplot</t>
+  </si>
+  <si>
+    <t>1. Login and select correlation tab
+2. Choose don’t select variable Y
+3. Generate Scatterplot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login and select correlation tab
+2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose Inventory as X variable and OrderQuantity as Y variable to be shown in chart
+5. Select filter by date or activitydate and don't select range 
+6. Generate Scatterplot
+</t>
+  </si>
+  <si>
+    <t>1. Login and select correlation tab
+2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose Inventory as X variable and OrderQuantity as Y variable to be shown in chart
+5. Select filter by company and don't select company value
+6. Generate Scatterplot</t>
+  </si>
+  <si>
+    <t>1. Login and select correlation tab
+2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose Inventory as X variable and OrderQuantity as Y variable to be shown in chart
+5. Select filter by depot and don't select depot value
+6. Generate Scatterplot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login and select correlation tab
+2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose Inventory as X variable and OrderQuantity as Y variable to be shown in chart
+5. Select filter by geographicallocation and don't select geographicallocation value
+</t>
   </si>
 </sst>
 </file>
@@ -653,6 +748,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -663,10 +762,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -675,34 +780,24 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -710,20 +805,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -735,10 +830,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1030,33 +1125,33 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.47265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.05078125" customWidth="1"/>
-    <col min="5" max="5" width="50.83984375" customWidth="1"/>
-    <col min="6" max="6" width="40.83984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.47265625" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="50.88671875" customWidth="1"/>
+    <col min="6" max="6" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
@@ -1068,13 +1163,13 @@
       </c>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1088,20 +1183,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8">
+    <row r="3" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1110,40 +1205,40 @@
       <c r="G3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="18"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" ht="21.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8">
+      <c r="H4" s="17"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="21.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1152,14 +1247,14 @@
       <c r="G5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9"/>
+      <c r="H5" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="1" t="s">
@@ -1168,24 +1263,24 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="29.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8">
+      <c r="H6" s="25"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="29.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>59</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1194,14 +1289,14 @@
       <c r="G7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9"/>
+      <c r="H7" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="1" t="s">
@@ -1210,24 +1305,24 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8">
+      <c r="H8" s="25"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>60</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1236,14 +1331,14 @@
       <c r="G9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="1" t="s">
@@ -1252,24 +1347,24 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8">
+    <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -1278,14 +1373,14 @@
       <c r="G11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="1" t="s">
@@ -1294,24 +1389,24 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8">
+    <row r="13" spans="1:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>4</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="13" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1320,14 +1415,14 @@
       <c r="G13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="9"/>
+      <c r="H13" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
@@ -1336,24 +1431,24 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8">
+      <c r="H14" s="25"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>5</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="13" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -1362,14 +1457,14 @@
       <c r="G15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="9"/>
+      <c r="H15" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="1" t="s">
@@ -1378,24 +1473,24 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="8">
+      <c r="H16" s="25"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>6</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="13" t="s">
         <v>63</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -1404,14 +1499,14 @@
       <c r="G17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="9"/>
+      <c r="H17" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="1" t="s">
@@ -1420,12 +1515,72 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="17"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A9:A10"/>
@@ -1442,66 +1597,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1515,45 +1610,45 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.83984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.3671875" customWidth="1"/>
-    <col min="5" max="5" width="62.05078125" customWidth="1"/>
-    <col min="6" max="6" width="39.47265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.9453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.47265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.9453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.47265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.9453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.47265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.9453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.47265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.9453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.47265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.9453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="62" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
@@ -1565,13 +1660,13 @@
       </c>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+    <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1585,20 +1680,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8">
+    <row r="3" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1607,18 +1702,18 @@
       <c r="G3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9"/>
+      <c r="J3" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="1" t="s">
@@ -1627,24 +1722,24 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8">
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1653,18 +1748,18 @@
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9"/>
+      <c r="J5" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="1" t="s">
@@ -1673,24 +1768,24 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8">
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1699,18 +1794,18 @@
       <c r="G7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9"/>
+      <c r="J7" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="1" t="s">
@@ -1719,24 +1814,24 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8">
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1745,44 +1840,44 @@
       <c r="G9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="9"/>
+      <c r="J9" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="13"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8">
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -1791,21 +1886,21 @@
       <c r="G11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="1" t="s">
@@ -1814,24 +1909,24 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8">
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>6</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1840,18 +1935,18 @@
       <c r="G13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="9"/>
+      <c r="J13" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
@@ -1860,24 +1955,24 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8">
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>7</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="12" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="13" t="s">
         <v>69</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -1888,8 +1983,8 @@
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="1" t="s">
@@ -1902,32 +1997,32 @@
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
     </row>
-    <row r="17" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="8">
+    <row r="17" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>8</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="9"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="1" t="s">
@@ -1935,25 +2030,25 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="8">
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>9</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="13" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -1964,8 +2059,8 @@
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="1" t="s">
@@ -1980,15 +2075,70 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
@@ -2005,70 +2155,15 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2078,35 +2173,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F238631-EBC5-4720-B916-747C7C12E944}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.41796875" customWidth="1"/>
-    <col min="3" max="3" width="20.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.3671875" customWidth="1"/>
-    <col min="5" max="5" width="32.89453125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
@@ -2118,13 +2213,13 @@
       </c>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2138,20 +2233,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>75</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -2160,42 +2255,42 @@
       <c r="G3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="16" t="s">
         <v>89</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="30"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8">
+      <c r="G4" s="11"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>75</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -2204,42 +2299,42 @@
       <c r="G5" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="16" t="s">
         <v>89</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="30"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8">
+      <c r="G6" s="11"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>75</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -2248,130 +2343,132 @@
       <c r="G7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="16" t="s">
         <v>89</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="30"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8">
+      <c r="G8" s="11"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>75</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="32"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="30"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8">
+      <c r="G10" s="19"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="13" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="32"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="48.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:10" ht="48.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="30"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="20"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2388,28 +2485,26 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2420,33 +2515,33 @@
   <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:T10"/>
+      <selection activeCell="J3" sqref="J3:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="32.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.3671875" customWidth="1"/>
-    <col min="5" max="5" width="40.68359375" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
@@ -2502,13 +2597,13 @@
       </c>
       <c r="AF1" s="21"/>
     </row>
-    <row r="2" spans="1:32" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+    <row r="2" spans="1:32" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2588,20 +2683,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8">
+    <row r="3" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>82</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -2610,106 +2705,106 @@
       <c r="G3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>89</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="24" t="s">
         <v>86</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="24" t="s">
         <v>86</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="P3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" s="16" t="s">
         <v>89</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="24" t="s">
         <v>86</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="24" t="s">
         <v>86</v>
       </c>
       <c r="U3" s="6"/>
-      <c r="V3" s="29"/>
+      <c r="V3" s="32"/>
       <c r="W3" s="6"/>
-      <c r="X3" s="29"/>
+      <c r="X3" s="32"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="29"/>
+      <c r="Z3" s="32"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" s="29"/>
+      <c r="AB3" s="32"/>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="29"/>
+      <c r="AD3" s="32"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="29"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9"/>
+      <c r="AF3" s="32"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="30"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="9"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="34"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="13"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="9"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="11"/>
       <c r="P4" s="34"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="13"/>
+      <c r="R4" s="25"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-    </row>
-    <row r="5" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8">
+      <c r="T4" s="25"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+    </row>
+    <row r="5" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>83</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -2718,106 +2813,106 @@
       <c r="G5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>89</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="24" t="s">
         <v>86</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="24" t="s">
         <v>86</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="P5" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P5" s="16" t="s">
         <v>89</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="24" t="s">
         <v>86</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="24" t="s">
         <v>86</v>
       </c>
       <c r="U5" s="6"/>
-      <c r="V5" s="29"/>
+      <c r="V5" s="32"/>
       <c r="W5" s="6"/>
-      <c r="X5" s="29"/>
+      <c r="X5" s="32"/>
       <c r="Y5" s="6"/>
-      <c r="Z5" s="29"/>
+      <c r="Z5" s="32"/>
       <c r="AA5" s="6"/>
-      <c r="AB5" s="29"/>
+      <c r="AB5" s="32"/>
       <c r="AC5" s="6"/>
-      <c r="AD5" s="29"/>
+      <c r="AD5" s="32"/>
       <c r="AE5" s="6"/>
-      <c r="AF5" s="29"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9"/>
+      <c r="AF5" s="32"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="30"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="34"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="13"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="9"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="11"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="13"/>
+      <c r="R6" s="25"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-    </row>
-    <row r="7" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8">
+      <c r="T6" s="25"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+    </row>
+    <row r="7" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -2826,230 +2921,289 @@
       <c r="G7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>89</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="24" t="s">
         <v>86</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="24" t="s">
         <v>86</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="P7" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="16" t="s">
         <v>89</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="24" t="s">
         <v>86</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="T7" s="24" t="s">
         <v>86</v>
       </c>
       <c r="U7" s="6"/>
-      <c r="V7" s="29"/>
+      <c r="V7" s="32"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="29"/>
+      <c r="X7" s="32"/>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="29"/>
+      <c r="Z7" s="32"/>
       <c r="AA7" s="6"/>
-      <c r="AB7" s="29"/>
+      <c r="AB7" s="32"/>
       <c r="AC7" s="6"/>
-      <c r="AD7" s="29"/>
+      <c r="AD7" s="32"/>
       <c r="AE7" s="6"/>
-      <c r="AF7" s="29"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9"/>
+      <c r="AF7" s="32"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="30"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="34"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="13"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="9"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="11"/>
       <c r="P8" s="34"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="13"/>
+      <c r="R8" s="25"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-    </row>
-    <row r="9" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8">
+      <c r="T8" s="25"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+    </row>
+    <row r="9" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>84</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="36"/>
       <c r="I9" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>89</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="24" t="s">
         <v>86</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="24" t="s">
         <v>86</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="P9" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" s="16" t="s">
         <v>89</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="24" t="s">
         <v>86</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="T9" s="24" t="s">
         <v>86</v>
       </c>
       <c r="U9" s="6"/>
-      <c r="V9" s="29"/>
+      <c r="V9" s="32"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="29"/>
+      <c r="X9" s="32"/>
       <c r="Y9" s="6"/>
-      <c r="Z9" s="29"/>
+      <c r="Z9" s="32"/>
       <c r="AA9" s="6"/>
-      <c r="AB9" s="29"/>
+      <c r="AB9" s="32"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="29"/>
+      <c r="AD9" s="32"/>
       <c r="AE9" s="6"/>
-      <c r="AF9" s="29"/>
-    </row>
-    <row r="10" spans="1:32" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="9"/>
+      <c r="AF9" s="32"/>
+    </row>
+    <row r="10" spans="1:32" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="30"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="35"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="34"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="13"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="9"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="11"/>
       <c r="P10" s="34"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="13"/>
+      <c r="R10" s="25"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="O1:P1"/>
@@ -3074,97 +3228,38 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3178,32 +3273,32 @@
       <selection activeCell="Q3" sqref="Q3:R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.47265625" customWidth="1"/>
-    <col min="3" max="3" width="32.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.3671875" customWidth="1"/>
-    <col min="5" max="5" width="40.68359375" customWidth="1"/>
-    <col min="6" max="6" width="10.734375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="39.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:30" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
@@ -3255,13 +3350,13 @@
       </c>
       <c r="AD1" s="21"/>
     </row>
-    <row r="2" spans="1:30" ht="39.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+    <row r="2" spans="1:30" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3335,20 +3430,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8">
+    <row r="3" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>103</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -3357,98 +3452,98 @@
       <c r="G3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="24" t="s">
         <v>86</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="24" t="s">
         <v>86</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="24" t="s">
         <v>86</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="24" t="s">
         <v>86</v>
       </c>
       <c r="S3" s="6"/>
-      <c r="T3" s="29"/>
+      <c r="T3" s="32"/>
       <c r="U3" s="6"/>
-      <c r="V3" s="29"/>
+      <c r="V3" s="32"/>
       <c r="W3" s="6"/>
-      <c r="X3" s="29"/>
+      <c r="X3" s="32"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="29"/>
+      <c r="Z3" s="32"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" s="29"/>
+      <c r="AB3" s="32"/>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="29"/>
-    </row>
-    <row r="4" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9"/>
+      <c r="AD3" s="32"/>
+    </row>
+    <row r="4" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="13"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="13"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="13"/>
+      <c r="N4" s="25"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="13"/>
+      <c r="P4" s="25"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-    </row>
-    <row r="5" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8">
+      <c r="R4" s="25"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+    </row>
+    <row r="5" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>103</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -3457,98 +3552,98 @@
       <c r="G5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="24" t="s">
         <v>86</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="24" t="s">
         <v>86</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="24" t="s">
         <v>86</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="24" t="s">
         <v>86</v>
       </c>
       <c r="S5" s="6"/>
-      <c r="T5" s="29"/>
+      <c r="T5" s="32"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="29"/>
+      <c r="V5" s="32"/>
       <c r="W5" s="6"/>
-      <c r="X5" s="29"/>
+      <c r="X5" s="32"/>
       <c r="Y5" s="6"/>
-      <c r="Z5" s="29"/>
+      <c r="Z5" s="32"/>
       <c r="AA5" s="6"/>
-      <c r="AB5" s="29"/>
+      <c r="AB5" s="32"/>
       <c r="AC5" s="6"/>
-      <c r="AD5" s="29"/>
-    </row>
-    <row r="6" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9"/>
+      <c r="AD5" s="32"/>
+    </row>
+    <row r="6" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="13"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="13"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="13"/>
+      <c r="N6" s="25"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="13"/>
+      <c r="P6" s="25"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-    </row>
-    <row r="7" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8">
+      <c r="R6" s="25"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+    </row>
+    <row r="7" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>103</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -3557,112 +3652,144 @@
       <c r="G7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="24" t="s">
         <v>86</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="24" t="s">
         <v>86</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="24" t="s">
         <v>86</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="24" t="s">
         <v>86</v>
       </c>
       <c r="S7" s="6"/>
-      <c r="T7" s="29"/>
+      <c r="T7" s="32"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="29"/>
+      <c r="V7" s="32"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="29"/>
+      <c r="X7" s="32"/>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="29"/>
+      <c r="Z7" s="32"/>
       <c r="AA7" s="6"/>
-      <c r="AB7" s="29"/>
+      <c r="AB7" s="32"/>
       <c r="AC7" s="6"/>
-      <c r="AD7" s="29"/>
-    </row>
-    <row r="8" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9"/>
+      <c r="AD7" s="32"/>
+    </row>
+    <row r="8" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="13"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="13"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="13"/>
+      <c r="N8" s="25"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="13"/>
+      <c r="P8" s="25"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
@@ -3687,64 +3814,32 @@
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3752,36 +3847,36 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A32C82-4E28-47DA-B010-C23DCFFA9445}">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="32.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.3671875" customWidth="1"/>
-    <col min="5" max="5" width="40.68359375" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
@@ -3829,13 +3924,13 @@
       </c>
       <c r="AB1" s="21"/>
     </row>
-    <row r="2" spans="1:28" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+    <row r="2" spans="1:28" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3903,8 +3998,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="3" customFormat="1" ht="45.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="38">
+    <row r="3" spans="1:28" s="3" customFormat="1" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -3914,42 +4009,42 @@
         <v>106</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J3" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>89</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="16" t="s">
         <v>89</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>89</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="P3" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="P3" s="16" t="s">
         <v>89</v>
       </c>
       <c r="Q3" s="6"/>
@@ -3965,60 +4060,487 @@
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
     </row>
-    <row r="4" spans="1:28" s="3" customFormat="1" ht="45.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="39"/>
+    <row r="4" spans="1:28" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="34"/>
-      <c r="K4" s="39"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="34"/>
-      <c r="M4" s="39"/>
+      <c r="M4" s="38"/>
       <c r="N4" s="34"/>
-      <c r="O4" s="39"/>
+      <c r="O4" s="38"/>
       <c r="P4" s="34"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+    </row>
+    <row r="5" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39">
+        <v>2</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+    </row>
+    <row r="7" spans="1:28" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39">
+        <v>3</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+    </row>
+    <row r="9" spans="1:28" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39">
+        <v>4</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+    </row>
+    <row r="11" spans="1:28" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39">
+        <v>5</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="39">
+        <v>6</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+    </row>
+    <row r="15" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39">
+        <v>7</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="39">
+        <v>8</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="39">
+        <v>9</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="39">
+        <v>10</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39">
+        <v>11</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+    </row>
+    <row r="25" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="39">
+        <v>12</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39">
+        <v>13</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+    </row>
+    <row r="29" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="39">
+        <v>14</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
+  <mergeCells count="123">
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -4035,13 +4557,28 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Cases/Test Cases.xlsx
+++ b/Test Cases/Test Cases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF81FC7-99B7-4259-B563-549D5C6B6178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{AAF81FC7-99B7-4259-B563-549D5C6B6178}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FEF09AD7-F6B6-4E8C-A412-DB908D08E04D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="133">
   <si>
     <t>S/N</t>
   </si>
@@ -544,12 +544,30 @@
 5. Select filter by geographicallocation and don't select geographicallocation value
 </t>
   </si>
+  <si>
+    <t>View Datasets</t>
+  </si>
+  <si>
+    <t>Save the combined table from two tables using a common variable</t>
+  </si>
+  <si>
+    <t>inventory_data_sample_masked &amp; skudetails_data_sample_masked</t>
+  </si>
+  <si>
+    <t>1. Login and select View Datasets tab
+2. Choose inventory_data_sample_masked &amp; skudetails_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on Depot
+4. Click button to combine datasets &amp; save</t>
+  </si>
+  <si>
+    <t>A combined table is shown</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,6 +621,18 @@
       <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -727,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -744,50 +774,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,7 +789,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -805,20 +835,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -838,6 +868,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,33 +1166,33 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="50.88671875" customWidth="1"/>
-    <col min="6" max="6" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.86328125" customWidth="1"/>
+    <col min="6" max="6" width="40.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
@@ -1163,13 +1204,13 @@
       </c>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+    <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1183,78 +1224,78 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+    <row r="3" spans="1:10" ht="29.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="17"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="23"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" ht="21.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="H4" s="20"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" ht="21.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="26"/>
-    </row>
-    <row r="6" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="H5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="1" t="s">
@@ -1263,40 +1304,40 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" ht="29.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="H6" s="11"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="16">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="26"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="H7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="17"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="1" t="s">
@@ -1305,40 +1346,40 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="H8" s="11"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="16">
         <v>3</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="10" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="1" t="s">
@@ -1347,40 +1388,40 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="25"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+    <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="10" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="17"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="1" t="s">
@@ -1389,40 +1430,40 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+    <row r="13" spans="1:10" ht="34.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="16">
         <v>4</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="26"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="H13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="17"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
@@ -1431,40 +1472,40 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="H14" s="11"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="16">
         <v>5</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="H15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="17"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="1" t="s">
@@ -1473,40 +1514,40 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="H16" s="11"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="16">
         <v>6</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="H17" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="17"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="1" t="s">
@@ -1515,24 +1556,60 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
@@ -1549,54 +1626,18 @@
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1610,45 +1651,45 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" customWidth="1"/>
     <col min="5" max="5" width="62" customWidth="1"/>
-    <col min="6" max="6" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.46484375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.46484375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.46484375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.46484375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.46484375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
@@ -1660,13 +1701,13 @@
       </c>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1680,40 +1721,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+    <row r="3" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="J3" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="17"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="1" t="s">
@@ -1722,44 +1763,44 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="25"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="J5" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="1" t="s">
@@ -1768,44 +1809,44 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="25"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="16">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="J7" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="17"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="1" t="s">
@@ -1814,93 +1855,93 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="25"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="J9" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="25"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="25"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="16">
         <v>5</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="10" t="s">
         <v>86</v>
       </c>
       <c r="K11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="17"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="1" t="s">
@@ -1909,44 +1950,44 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="16">
         <v>6</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="H13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="J13" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="17"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
@@ -1955,27 +1996,27 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="25"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="16">
         <v>7</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="27"/>
@@ -1983,8 +2024,8 @@
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="17"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="1" t="s">
@@ -1997,32 +2038,32 @@
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
     </row>
-    <row r="17" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+    <row r="17" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="16">
         <v>8</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="17"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="1" t="s">
@@ -2030,28 +2071,28 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="16">
         <v>9</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="9" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="27"/>
@@ -2059,8 +2100,8 @@
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+    <row r="20" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="17"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="1" t="s">
@@ -2075,54 +2116,31 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G13:G14"/>
@@ -2139,31 +2157,54 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2177,31 +2218,31 @@
       <selection activeCell="K1" sqref="K1:AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.46484375" customWidth="1"/>
+    <col min="3" max="3" width="20.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.88671875" customWidth="1"/>
+    <col min="5" max="5" width="32.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
@@ -2213,13 +2254,13 @@
       </c>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+    <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2233,242 +2274,240 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="17"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="33"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="G4" s="17"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="33"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="G6" s="17"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="16">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="17"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="33"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="G8" s="17"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="6" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="17"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="33"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="G10" s="13"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="16">
         <v>5</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="6" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="48.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:10" ht="48.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="17"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="33"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="17"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2485,26 +2524,28 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2518,30 +2559,30 @@
       <selection activeCell="J3" sqref="J3:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" customWidth="1"/>
     <col min="5" max="5" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
@@ -2597,13 +2638,13 @@
       </c>
       <c r="AF1" s="21"/>
     </row>
-    <row r="2" spans="1:32" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+    <row r="2" spans="1:32" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2683,456 +2724,539 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+    <row r="3" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="L3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="N3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="6" t="s">
+      <c r="R3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="32"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="T3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="9"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="29"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A4" s="17"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="33"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="34"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="25"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="34"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="25"/>
+      <c r="R4" s="11"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-    </row>
-    <row r="5" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="T4" s="11"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+    </row>
+    <row r="5" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="L5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="6" t="s">
+      <c r="N5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="R5" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="6" t="s">
+      <c r="R5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="32"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="T5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="9"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="29"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="33"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="34"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="25"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="17"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="25"/>
+      <c r="R6" s="11"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-    </row>
-    <row r="7" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="T6" s="11"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="16">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="6" t="s">
+      <c r="L7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="6" t="s">
+      <c r="N7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="R7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="6" t="s">
+      <c r="R7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="T7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" s="6"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="32"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="T7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="9"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="29"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A8" s="17"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="33"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="34"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="25"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="17"/>
       <c r="P8" s="34"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="25"/>
+      <c r="R8" s="11"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-    </row>
-    <row r="9" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="T8" s="11"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="36"/>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="6" t="s">
+      <c r="L9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" s="6" t="s">
+      <c r="N9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="P9" s="16" t="s">
+      <c r="P9" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="R9" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" s="6" t="s">
+      <c r="R9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="T9" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="U9" s="6"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="32"/>
-    </row>
-    <row r="10" spans="1:32" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="T9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="9"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="29"/>
+    </row>
+    <row r="10" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="33"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="35"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="34"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="25"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="34"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="25"/>
+      <c r="R10" s="11"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
     <mergeCell ref="AF5:AF6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3157,109 +3281,26 @@
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3273,32 +3314,32 @@
       <selection activeCell="Q3" sqref="Q3:R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.46484375" customWidth="1"/>
+    <col min="3" max="3" width="32.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" customWidth="1"/>
     <col min="5" max="5" width="40.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
@@ -3350,13 +3391,13 @@
       </c>
       <c r="AD1" s="21"/>
     </row>
-    <row r="2" spans="1:30" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+    <row r="2" spans="1:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3430,308 +3471,392 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+    <row r="3" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="L3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="N3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="P3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" s="6" t="s">
+      <c r="P3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="32"/>
-    </row>
-    <row r="4" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="R3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="9"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="29"/>
+    </row>
+    <row r="4" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="17"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="25"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="25"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="25"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="25"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="25"/>
+      <c r="P4" s="11"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-    </row>
-    <row r="5" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="R4" s="11"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+    </row>
+    <row r="5" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="J5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="L5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="6" t="s">
+      <c r="N5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="P5" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="6" t="s">
+      <c r="P5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="R5" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="32"/>
-    </row>
-    <row r="6" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="R5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="29"/>
+    </row>
+    <row r="6" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="17"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="25"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="25"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="25"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="25"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="25"/>
+      <c r="P6" s="11"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-    </row>
-    <row r="7" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="R6" s="11"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+    </row>
+    <row r="7" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="16">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="J7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="6" t="s">
+      <c r="L7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="N7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="6" t="s">
+      <c r="N7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q7" s="6" t="s">
+      <c r="P7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="R7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="32"/>
-    </row>
-    <row r="8" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="R7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="9"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="29"/>
+    </row>
+    <row r="8" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="17"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="25"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="25"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="25"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="25"/>
+      <c r="N8" s="11"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="25"/>
+      <c r="P8" s="11"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="AC1:AD1"/>
@@ -3756,90 +3881,6 @@
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3847,36 +3888,36 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A32C82-4E28-47DA-B010-C23DCFFA9445}">
-  <dimension ref="A1:AB30"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" customWidth="1"/>
     <col min="5" max="5" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
@@ -3924,13 +3965,13 @@
       </c>
       <c r="AB1" s="21"/>
     </row>
-    <row r="2" spans="1:28" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+    <row r="2" spans="1:28" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3998,7 +4039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="3" customFormat="1" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" s="3" customFormat="1" ht="76.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="39">
         <v>1</v>
       </c>
@@ -4008,67 +4049,67 @@
       <c r="C3" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-    </row>
-    <row r="4" spans="1:28" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+    </row>
+    <row r="4" spans="1:28" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
-      <c r="D4" s="23"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
-      <c r="H4" s="25"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="38"/>
       <c r="J4" s="34"/>
       <c r="K4" s="38"/>
@@ -4090,7 +4131,7 @@
       <c r="AA4" s="38"/>
       <c r="AB4" s="38"/>
     </row>
-    <row r="5" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="39">
         <v>2</v>
       </c>
@@ -4100,25 +4141,25 @@
       <c r="C5" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="79.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
-      <c r="D6" s="23"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
     </row>
-    <row r="7" spans="1:28" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="39">
         <v>3</v>
       </c>
@@ -4128,25 +4169,25 @@
       <c r="C7" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="102.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="23"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
     </row>
-    <row r="9" spans="1:28" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="71.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="39">
         <v>4</v>
       </c>
@@ -4156,25 +4197,25 @@
       <c r="C9" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="52.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
-      <c r="D10" s="23"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
     </row>
-    <row r="11" spans="1:28" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="39">
         <v>5</v>
       </c>
@@ -4184,25 +4225,25 @@
       <c r="C11" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="91.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
-      <c r="D12" s="23"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" s="39">
         <v>6</v>
       </c>
@@ -4212,25 +4253,25 @@
       <c r="C13" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="88.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
-      <c r="D14" s="23"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
     </row>
-    <row r="15" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="39">
         <v>7</v>
       </c>
@@ -4240,25 +4281,25 @@
       <c r="C15" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="58.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
-      <c r="D16" s="23"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="39">
         <v>8</v>
       </c>
@@ -4268,25 +4309,25 @@
       <c r="C17" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
-      <c r="D18" s="23"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="39">
         <v>9</v>
       </c>
@@ -4296,25 +4337,25 @@
       <c r="C19" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
-      <c r="D20" s="23"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="39">
         <v>10</v>
       </c>
@@ -4324,25 +4365,25 @@
       <c r="C21" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
-      <c r="D22" s="23"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="39">
         <v>11</v>
       </c>
@@ -4352,25 +4393,25 @@
       <c r="C23" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="99.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
-      <c r="D24" s="23"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="39">
         <v>12</v>
       </c>
@@ -4380,25 +4421,25 @@
       <c r="C25" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="108.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
-      <c r="D26" s="23"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="58.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="39">
         <v>13</v>
       </c>
@@ -4408,25 +4449,25 @@
       <c r="C27" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="104.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
-      <c r="D28" s="23"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="39">
         <v>14</v>
       </c>
@@ -4436,104 +4477,67 @@
       <c r="C29" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
+    <row r="30" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+    </row>
+    <row r="31" spans="1:6" ht="77.25" x14ac:dyDescent="0.45">
+      <c r="A31" s="43">
+        <v>15</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4558,28 +4562,86 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Cases/Test Cases.xlsx
+++ b/Test Cases/Test Cases.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{AAF81FC7-99B7-4259-B563-549D5C6B6178}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FEF09AD7-F6B6-4E8C-A412-DB908D08E04D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5877D17-9E66-48AD-8D1B-4823AE330CDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="3" r:id="rId1"/>
     <sheet name="Login" sheetId="1" r:id="rId2"/>
     <sheet name="Upload" sheetId="2" r:id="rId3"/>
     <sheet name="Export" sheetId="4" r:id="rId4"/>
-    <sheet name="Table output" sheetId="6" r:id="rId5"/>
-    <sheet name="Data visualisation" sheetId="8" r:id="rId6"/>
+    <sheet name="View Dataset" sheetId="6" r:id="rId5"/>
+    <sheet name="Correlation" sheetId="8" r:id="rId6"/>
+    <sheet name="Web Crawling" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="141">
   <si>
     <t>S/N</t>
   </si>
@@ -561,6 +562,42 @@
   </si>
   <si>
     <t>A combined table is shown</t>
+  </si>
+  <si>
+    <t>Something is wrong with displayTable method</t>
+  </si>
+  <si>
+    <t>Web Crawling</t>
+  </si>
+  <si>
+    <t>Crawl weather data through HTTP request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login and select web crawling tab
+2. Select a city/country name
+3. Select a date range with same start and end date
+</t>
+  </si>
+  <si>
+    <t>Weather data saved into a csv file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login and select web crawling tab
+2. Select a city/country name
+3. Select a date range with different start and end date within the same month
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login and select web crawling tab
+2. Select a city/country name
+3. Select a date range with different start and end date within the same year but different month
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login and select web crawling tab
+2. Select a city/country name
+3. Select a date range with different start and end date that is of different year
+</t>
   </si>
 </sst>
 </file>
@@ -667,7 +704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -753,11 +790,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -774,12 +844,55 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -789,45 +902,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -835,20 +910,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -875,10 +950,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1162,55 +1255,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCA99E9-5927-430E-9257-00D8845FEFB1}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.47265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="50.86328125" customWidth="1"/>
-    <col min="6" max="6" width="40.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.46484375" customWidth="1"/>
+    <col min="5" max="5" width="50.83984375" customWidth="1"/>
+    <col min="6" max="6" width="40.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1224,20 +1317,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="29.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="16">
+    <row r="3" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -1249,37 +1342,37 @@
       <c r="H3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="14"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="7"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="20"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" ht="21.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="16">
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" ht="21.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -1288,40 +1381,40 @@
       <c r="G5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="H5" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="14"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="16">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="29.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="13">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="16" t="s">
         <v>59</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -1330,40 +1423,40 @@
       <c r="G7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="17"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="H7" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="16">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="13">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="16" t="s">
         <v>60</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -1372,40 +1465,40 @@
       <c r="G9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="27" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="17"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+    <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="14"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="16">
+    <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="13">
         <v>3</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="15" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="16" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -1414,40 +1507,40 @@
       <c r="G11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="27" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="17"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="14"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="34.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="16">
+    <row r="13" spans="1:10" ht="34.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="13">
         <v>4</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="16" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -1456,40 +1549,40 @@
       <c r="G13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="17"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="H13" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="16">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="13">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="16" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -1498,40 +1591,40 @@
       <c r="G15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="17"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="H15" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="14"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="16">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="13">
         <v>6</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="16" t="s">
         <v>63</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -1540,28 +1633,88 @@
       <c r="G17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="17"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="H17" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="14"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="15"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A9:A10"/>
@@ -1578,66 +1731,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1651,63 +1744,63 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.3125" customWidth="1"/>
     <col min="5" max="5" width="62" customWidth="1"/>
-    <col min="6" max="6" width="39.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.47265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7890625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.47265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.47265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.47265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.46484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.47265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.47265625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1721,20 +1814,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="16">
+    <row r="3" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -1743,44 +1836,44 @@
       <c r="G3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="27" t="s">
         <v>86</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="J3" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="14"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="16">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -1789,44 +1882,44 @@
       <c r="G5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="27" t="s">
         <v>86</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="J5" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="14"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="16">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="13">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -1835,44 +1928,44 @@
       <c r="G7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="27" t="s">
         <v>86</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="17"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="J7" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="16">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="13">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -1881,44 +1974,44 @@
       <c r="G9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="27" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="17"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="J9" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="14"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="16">
+      <c r="E10" s="10"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="13">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -1927,47 +2020,47 @@
       <c r="G11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="27" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="27" t="s">
         <v>86</v>
       </c>
       <c r="K11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="17"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+    <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="14"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="16">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="13">
         <v>6</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -1976,155 +2069,210 @@
       <c r="G13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="27" t="s">
         <v>86</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="17"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="J13" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="16">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="13">
         <v>7</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="15" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-    </row>
-    <row r="16" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="17"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="14"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="16">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="13">
         <v>8</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="17"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="14"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="16">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="13">
         <v>9</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="17"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="14"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
@@ -2141,70 +2289,15 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2214,53 +2307,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F238631-EBC5-4720-B916-747C7C12E944}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="13.46484375" customWidth="1"/>
-    <col min="3" max="3" width="20.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.86328125" customWidth="1"/>
+    <col min="2" max="2" width="13.47265625" customWidth="1"/>
+    <col min="3" max="3" width="20.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.3125" customWidth="1"/>
+    <col min="5" max="5" width="32.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2274,20 +2367,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="16">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -2306,32 +2399,32 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="17"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="17"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="14"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="20"/>
-      <c r="I4" s="17"/>
+      <c r="I4" s="14"/>
       <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="16">
+    <row r="5" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -2350,32 +2443,32 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="17"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="14"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="17"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="16">
+    <row r="7" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="13">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -2394,38 +2487,38 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="17"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="17"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="16">
+    <row r="9" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="13">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="32"/>
       <c r="I9" s="9" t="s">
         <v>90</v>
@@ -2434,38 +2527,38 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="17"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="13"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="14"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="33"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="16">
+    <row r="11" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="13">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="32"/>
       <c r="I11" s="9" t="s">
         <v>108</v>
@@ -2474,40 +2567,42 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="48.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="17"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="13"/>
+    <row r="12" spans="1:10" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="14"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="33"/>
-      <c r="I12" s="17"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2524,28 +2619,26 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2555,96 +2648,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4D32B1-12A1-4899-85DD-DD11E428B596}">
   <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J4"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3:AF10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="32.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.1015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.3125" customWidth="1"/>
+    <col min="5" max="5" width="40.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="21" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21" t="s">
+      <c r="R1" s="24"/>
+      <c r="S1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21" t="s">
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21" t="s">
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21" t="s">
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21" t="s">
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="21"/>
-    </row>
-    <row r="2" spans="1:32" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="AF1" s="24"/>
+    </row>
+    <row r="2" spans="1:32" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2724,20 +2817,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="16">
+    <row r="3" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="16" t="s">
         <v>82</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -2746,7 +2839,7 @@
       <c r="G3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="27" t="s">
         <v>86</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -2758,13 +2851,13 @@
       <c r="K3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="27" t="s">
         <v>86</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="27" t="s">
         <v>86</v>
       </c>
       <c r="O3" s="9" t="s">
@@ -2776,76 +2869,76 @@
       <c r="Q3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="27" t="s">
         <v>86</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="9"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="29"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A4" s="17"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-    </row>
-    <row r="5" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="16">
+      <c r="T3" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="46"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="14"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+    </row>
+    <row r="5" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -2854,7 +2947,7 @@
       <c r="G5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="27" t="s">
         <v>86</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -2866,13 +2959,13 @@
       <c r="K5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="27" t="s">
         <v>86</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="27" t="s">
         <v>86</v>
       </c>
       <c r="O5" s="9" t="s">
@@ -2884,76 +2977,76 @@
       <c r="Q5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="27" t="s">
         <v>86</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="29"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-    </row>
-    <row r="7" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="16">
+      <c r="T5" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="21"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="46"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="14"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+    </row>
+    <row r="7" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="13">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="16" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -2962,7 +3055,7 @@
       <c r="G7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="27" t="s">
         <v>86</v>
       </c>
       <c r="I7" s="9" t="s">
@@ -2974,13 +3067,13 @@
       <c r="K7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="27" t="s">
         <v>86</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="27" t="s">
         <v>86</v>
       </c>
       <c r="O7" s="9" t="s">
@@ -2992,83 +3085,83 @@
       <c r="Q7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="27" t="s">
         <v>86</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="T7" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" s="9"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="29"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A8" s="17"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-    </row>
-    <row r="9" spans="1:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="16">
+      <c r="T7" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="21"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="46"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+    </row>
+    <row r="9" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="13">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="16" t="s">
         <v>84</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="36"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="9" t="s">
         <v>109</v>
       </c>
@@ -3078,13 +3171,13 @@
       <c r="K9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="27" t="s">
         <v>86</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="27" t="s">
         <v>86</v>
       </c>
       <c r="O9" s="9" t="s">
@@ -3096,96 +3189,155 @@
       <c r="Q9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="R9" s="27" t="s">
         <v>86</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="T9" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="U9" s="9"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="29"/>
-    </row>
-    <row r="10" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="17"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
+      <c r="T9" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="21"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="46"/>
+    </row>
+    <row r="10" spans="1:32" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="14"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="O1:P1"/>
@@ -3210,97 +3362,38 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3308,96 +3401,96 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5958A5D-193E-40FD-A829-53ED413F4D4A}">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:R8"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="15.46484375" customWidth="1"/>
-    <col min="3" max="3" width="32.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" customWidth="1"/>
+    <col min="2" max="2" width="15.47265625" customWidth="1"/>
+    <col min="3" max="3" width="32.1015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.3125" customWidth="1"/>
+    <col min="5" max="5" width="40.68359375" customWidth="1"/>
+    <col min="6" max="6" width="10.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21" t="s">
+      <c r="R1" s="24"/>
+      <c r="S1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21" t="s">
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21" t="s">
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21" t="s">
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="21"/>
-    </row>
-    <row r="2" spans="1:30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="AD1" s="24"/>
+    </row>
+    <row r="2" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3471,20 +3564,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="16">
+    <row r="3" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="16" t="s">
         <v>103</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -3493,98 +3586,102 @@
       <c r="G3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="27" t="s">
         <v>86</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="27" t="s">
         <v>86</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="27" t="s">
         <v>86</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="27" t="s">
         <v>86</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="27" t="s">
         <v>86</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="29"/>
+      <c r="R3" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>86</v>
+      </c>
       <c r="U3" s="9"/>
-      <c r="V3" s="29"/>
+      <c r="V3" s="35"/>
       <c r="W3" s="9"/>
-      <c r="X3" s="29"/>
+      <c r="X3" s="35"/>
       <c r="Y3" s="9"/>
-      <c r="Z3" s="29"/>
+      <c r="Z3" s="35"/>
       <c r="AA3" s="9"/>
-      <c r="AB3" s="29"/>
+      <c r="AB3" s="35"/>
       <c r="AC3" s="9"/>
-      <c r="AD3" s="29"/>
-    </row>
-    <row r="4" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-    </row>
-    <row r="5" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="16">
+      <c r="AD3" s="35"/>
+    </row>
+    <row r="4" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="14"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+    </row>
+    <row r="5" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="16" t="s">
         <v>103</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -3593,98 +3690,102 @@
       <c r="G5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="27" t="s">
         <v>86</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="27" t="s">
         <v>86</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="27" t="s">
         <v>86</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="27" t="s">
         <v>86</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="27" t="s">
         <v>86</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="R5" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="29"/>
+      <c r="R5" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="U5" s="9"/>
-      <c r="V5" s="29"/>
+      <c r="V5" s="35"/>
       <c r="W5" s="9"/>
-      <c r="X5" s="29"/>
+      <c r="X5" s="35"/>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="29"/>
+      <c r="Z5" s="35"/>
       <c r="AA5" s="9"/>
-      <c r="AB5" s="29"/>
+      <c r="AB5" s="35"/>
       <c r="AC5" s="9"/>
-      <c r="AD5" s="29"/>
-    </row>
-    <row r="6" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-    </row>
-    <row r="7" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="16">
+      <c r="AD5" s="35"/>
+    </row>
+    <row r="6" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="14"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+    </row>
+    <row r="7" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="13">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="16" t="s">
         <v>103</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -3693,112 +3794,184 @@
       <c r="G7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="27" t="s">
         <v>86</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="27" t="s">
         <v>86</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="27" t="s">
         <v>86</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="27" t="s">
         <v>86</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="27" t="s">
         <v>86</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="R7" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="9"/>
-      <c r="T7" s="29"/>
+      <c r="R7" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>86</v>
+      </c>
       <c r="U7" s="9"/>
-      <c r="V7" s="29"/>
+      <c r="V7" s="35"/>
       <c r="W7" s="9"/>
-      <c r="X7" s="29"/>
+      <c r="X7" s="35"/>
       <c r="Y7" s="9"/>
-      <c r="Z7" s="29"/>
+      <c r="Z7" s="35"/>
       <c r="AA7" s="9"/>
-      <c r="AB7" s="29"/>
+      <c r="AB7" s="35"/>
       <c r="AC7" s="9"/>
-      <c r="AD7" s="29"/>
-    </row>
-    <row r="8" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="17"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
+      <c r="AD7" s="35"/>
+    </row>
+    <row r="8" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+    </row>
+    <row r="9" spans="1:30" ht="74.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="6">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="T9" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
@@ -3823,64 +3996,32 @@
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3888,90 +4029,90 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A32C82-4E28-47DA-B010-C23DCFFA9445}">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:E30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="32.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.1015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.3125" customWidth="1"/>
+    <col min="5" max="5" width="40.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21" t="s">
+      <c r="R1" s="24"/>
+      <c r="S1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21" t="s">
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21" t="s">
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="21"/>
-    </row>
-    <row r="2" spans="1:28" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="AB1" s="24"/>
+    </row>
+    <row r="2" spans="1:28" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -4039,14 +4180,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="3" customFormat="1" ht="76.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="39">
+    <row r="3" spans="1:28" s="3" customFormat="1" ht="76.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>106</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -4061,7 +4202,7 @@
       <c r="G3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="27" t="s">
         <v>86</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -4088,8 +4229,12 @@
       <c r="P3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
+      <c r="Q3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>86</v>
+      </c>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
@@ -4101,44 +4246,44 @@
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
     </row>
-    <row r="4" spans="1:28" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-    </row>
-    <row r="5" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="39">
+    <row r="4" spans="1:28" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+    </row>
+    <row r="5" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="42">
         <v>2</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="43" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -4150,23 +4295,51 @@
       <c r="F5" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" ht="79.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-    </row>
-    <row r="7" spans="1:28" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="39">
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="79.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="51"/>
+    </row>
+    <row r="7" spans="1:28" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="42">
         <v>3</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="43" t="s">
         <v>106</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -4178,23 +4351,51 @@
       <c r="F7" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" ht="102.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-    </row>
-    <row r="9" spans="1:28" ht="71.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="39">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="102.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="51"/>
+    </row>
+    <row r="9" spans="1:28" ht="71.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="42">
         <v>4</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="43" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -4206,23 +4407,51 @@
       <c r="F9" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" ht="52.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-    </row>
-    <row r="11" spans="1:28" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="39">
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="52.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="51"/>
+    </row>
+    <row r="11" spans="1:28" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="42">
         <v>5</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="43" t="s">
         <v>106</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -4234,23 +4463,51 @@
       <c r="F11" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" ht="91.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A13" s="39">
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="91.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="51"/>
+    </row>
+    <row r="13" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="42">
         <v>6</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="43" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -4262,23 +4519,51 @@
       <c r="F13" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" ht="88.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-    </row>
-    <row r="15" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="39">
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="R13" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="88.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="51"/>
+    </row>
+    <row r="15" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="42">
         <v>7</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="43" t="s">
         <v>114</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -4290,23 +4575,51 @@
       <c r="F15" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" ht="58.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="39">
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="58.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="51"/>
+    </row>
+    <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="42">
         <v>8</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="43" t="s">
         <v>106</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -4318,23 +4631,51 @@
       <c r="F17" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="39">
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="R17" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="51"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="42">
         <v>9</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="43" t="s">
         <v>106</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -4346,23 +4687,51 @@
       <c r="F19" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="39">
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="51"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="42">
         <v>10</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="43" t="s">
         <v>106</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -4374,23 +4743,51 @@
       <c r="F21" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-    </row>
-    <row r="23" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="39">
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="51"/>
+    </row>
+    <row r="23" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="42">
         <v>11</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="43" t="s">
         <v>106</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -4402,23 +4799,51 @@
       <c r="F23" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="99.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-    </row>
-    <row r="25" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="39">
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="R23" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="99.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="51"/>
+    </row>
+    <row r="25" spans="1:18" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="42">
         <v>12</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="43" t="s">
         <v>106</v>
       </c>
       <c r="D25" s="9" t="s">
@@ -4430,23 +4855,51 @@
       <c r="F25" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="108.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-    </row>
-    <row r="27" spans="1:6" ht="58.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="39">
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="R25" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="108.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="51"/>
+    </row>
+    <row r="27" spans="1:18" ht="58.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="42">
         <v>13</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="43" t="s">
         <v>106</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -4458,23 +4911,51 @@
       <c r="F27" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="104.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-    </row>
-    <row r="29" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="39">
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="R27" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="104.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="51"/>
+    </row>
+    <row r="29" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="42">
         <v>14</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="43" t="s">
         <v>106</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -4486,58 +4967,149 @@
       <c r="F29" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-    </row>
-    <row r="31" spans="1:6" ht="77.25" x14ac:dyDescent="0.45">
-      <c r="A31" s="43">
-        <v>15</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="45" t="s">
-        <v>132</v>
-      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="R29" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="88.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="123">
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+  <mergeCells count="149">
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4562,86 +5134,245 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57356F81-C035-4AAA-8EFA-FCD653420C4E}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="12.734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.9453125" customWidth="1"/>
+    <col min="4" max="4" width="31.5234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="42">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="42">
+        <v>2</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="42">
+        <v>3</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="42">
+        <v>4</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="1:7" ht="53.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Cases/Test Cases.xlsx
+++ b/Test Cases/Test Cases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5877D17-9E66-48AD-8D1B-4823AE330CDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C391E5A-1559-4D0A-A759-CB0C0E266851}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="147">
   <si>
     <t>S/N</t>
   </si>
@@ -598,6 +598,33 @@
 2. Select a city/country name
 3. Select a date range with different start and end date that is of different year
 </t>
+  </si>
+  <si>
+    <t>inventory_data_sample_masked_4 &amp; movement_data_sample_masked_4</t>
+  </si>
+  <si>
+    <t>1. Login and select View Datasets tab
+2. Choose inventory_data_sample_masked_4 &amp; movement_data_sample_masked_4 as data set 1 and data set 2 respectively
+3. Choose to combine based on Activity Date
+4. Click button to combine datasets &amp; save</t>
+  </si>
+  <si>
+    <t>1. Login and select View Datasets tab
+2. Choose inventory_data_sample_masked_4 &amp; movement_data_sample_masked_4 as data set 1 and data set 2 respectively
+3. Choose to combine based on Company
+4. Click button to combine datasets &amp; save</t>
+  </si>
+  <si>
+    <t>Radio button 'Company' is not selectable</t>
+  </si>
+  <si>
+    <t>weather_singapore_2018-10-01_2018-12-31_4 &amp; movement_data_sample_masked_4</t>
+  </si>
+  <si>
+    <t>1. Login and select View Datasets tab
+2. Choose movement_data_sample_masked_4 &amp; weather_singapore_2018-10-01_2018-12-31_4 as data set 1 and data set 2 respectively
+3. Choose to combine based on Activity Date
+4. Click button to combine datasets &amp; save</t>
   </si>
 </sst>
 </file>
@@ -849,50 +876,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -902,7 +895,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -910,19 +942,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,25 +970,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -966,9 +982,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1259,51 +1286,51 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.7890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="50.83984375" customWidth="1"/>
-    <col min="6" max="6" width="40.83984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.47265625" customWidth="1"/>
+    <col min="5" max="5" width="50.86328125" customWidth="1"/>
+    <col min="6" max="6" width="40.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1317,355 +1344,393 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13">
+    <row r="3" spans="1:10" ht="29.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="14"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="22"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="1:10" ht="21.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13">
+      <c r="E4" s="13"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="21.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="14"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="H5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="22"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" ht="29.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="13">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="29.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="23" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="H7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="22"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="13">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="21">
         <v>3</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="23" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+    <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="22"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="28"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="13">
+    <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="21">
         <v>3</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="23" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="22"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="28"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="34.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="13">
+    <row r="13" spans="1:10" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="21">
         <v>4</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="23" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="H13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="22"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="13">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="21">
         <v>5</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="23" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="14"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="H15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="22"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="13">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="21">
         <v>6</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="14"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="H17" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="22"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
@@ -1682,55 +1747,17 @@
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1744,63 +1771,63 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.83984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.3125" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
     <col min="5" max="5" width="62" customWidth="1"/>
-    <col min="6" max="6" width="39.47265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.47265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.46484375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.47265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.46484375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.47265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.46484375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.47265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.46484375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.47265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.46484375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1814,449 +1841,426 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13">
+    <row r="3" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="14"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="J3" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="22"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="28"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="H5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="14"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="J5" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="22"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="28"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="13">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="H7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="J7" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="22"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="13">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="21">
         <v>4</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="H9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="J9" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="22"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="13">
+      <c r="E10" s="13"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="21">
         <v>5</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="H11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="15" t="s">
         <v>86</v>
       </c>
       <c r="K11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+    <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="22"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="13">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="21">
         <v>6</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="9" t="s">
+      <c r="H13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="J13" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="22"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="13">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="21">
         <v>7</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="23" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-    </row>
-    <row r="16" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="14"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="22"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="13">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="21">
         <v>8</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="23" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="14"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="22"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="13">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="21">
         <v>9</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="23" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="14"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="22"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G13:G14"/>
@@ -2273,31 +2277,54 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2311,49 +2338,49 @@
       <selection activeCell="K1" sqref="K1:AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.47265625" customWidth="1"/>
-    <col min="3" max="3" width="20.47265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.3125" customWidth="1"/>
-    <col min="5" max="5" width="32.83984375" customWidth="1"/>
+    <col min="2" max="2" width="13.46484375" customWidth="1"/>
+    <col min="3" max="3" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2367,242 +2394,240 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="23" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="14"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="22"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="36"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="23" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="14"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="22"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="36"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="13">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="23" t="s">
         <v>72</v>
       </c>
       <c r="D7" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="22"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="36"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="13">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="21">
         <v>4</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="37" t="s">
         <v>91</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="9" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="22"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="36"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="13">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="21">
         <v>5</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="37" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="9" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+    <row r="12" spans="1:10" ht="49.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="22"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="36"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="20"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2619,26 +2644,28 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2652,92 +2679,92 @@
       <selection activeCell="U3" sqref="U3:AF10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="32.1015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.3125" customWidth="1"/>
-    <col min="5" max="5" width="40.68359375" customWidth="1"/>
+    <col min="3" max="3" width="32.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="24" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24" t="s">
+      <c r="R1" s="27"/>
+      <c r="S1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24" t="s">
+      <c r="T1" s="27"/>
+      <c r="U1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24" t="s">
+      <c r="V1" s="27"/>
+      <c r="W1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24" t="s">
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24" t="s">
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24" t="s">
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24" t="s">
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="24"/>
-    </row>
-    <row r="2" spans="1:32" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="AF1" s="27"/>
+    </row>
+    <row r="2" spans="1:32" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2817,456 +2844,539 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13">
+    <row r="3" spans="1:32" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="23" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="9" t="s">
+      <c r="L3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="N3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="46"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="14"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="T3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="17"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="40"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A4" s="22"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="36"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-    </row>
-    <row r="5" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+    </row>
+    <row r="5" spans="1:32" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="23" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="H5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="9" t="s">
+      <c r="L5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="9" t="s">
+      <c r="N5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="R5" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="9" t="s">
+      <c r="R5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5" s="21"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="46"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="14"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="T5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="17"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="40"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A6" s="22"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="36"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-    </row>
-    <row r="7" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="13">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+    </row>
+    <row r="7" spans="1:32" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="23" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="H7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="9" t="s">
+      <c r="L7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="9" t="s">
+      <c r="N7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="R7" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="9" t="s">
+      <c r="R7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="T7" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" s="21"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="46"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="T7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="17"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="40"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A8" s="22"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="36"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-    </row>
-    <row r="9" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="13">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+    </row>
+    <row r="9" spans="1:32" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="21">
         <v>4</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="37" t="s">
         <v>95</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="9" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="9" t="s">
+      <c r="L9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" s="9" t="s">
+      <c r="N9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="R9" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" s="9" t="s">
+      <c r="R9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="S9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="T9" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="U9" s="21"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="46"/>
-    </row>
-    <row r="10" spans="1:32" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="T9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="17"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="40"/>
+    </row>
+    <row r="10" spans="1:32" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="22"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="36"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
     <mergeCell ref="AF5:AF6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3291,109 +3401,26 @@
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3401,96 +3428,96 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5958A5D-193E-40FD-A829-53ED413F4D4A}">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.47265625" customWidth="1"/>
-    <col min="3" max="3" width="32.1015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.3125" customWidth="1"/>
-    <col min="5" max="5" width="40.68359375" customWidth="1"/>
-    <col min="6" max="6" width="10.7890625" customWidth="1"/>
+    <col min="2" max="2" width="15.46484375" customWidth="1"/>
+    <col min="3" max="3" width="32.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:30" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="24" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24" t="s">
+      <c r="R1" s="27"/>
+      <c r="S1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24" t="s">
+      <c r="T1" s="27"/>
+      <c r="U1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24" t="s">
+      <c r="V1" s="27"/>
+      <c r="W1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24" t="s">
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24" t="s">
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24" t="s">
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="24"/>
-    </row>
-    <row r="2" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="AD1" s="27"/>
+    </row>
+    <row r="2" spans="1:30" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3564,11 +3591,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13">
+    <row r="3" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="23" t="s">
         <v>96</v>
       </c>
       <c r="C3" s="35" t="s">
@@ -3577,102 +3604,102 @@
       <c r="D3" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="9" t="s">
+      <c r="L3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="N3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="P3" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" s="9" t="s">
+      <c r="P3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="T3" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="9"/>
+      <c r="T3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="14"/>
       <c r="V3" s="35"/>
-      <c r="W3" s="9"/>
+      <c r="W3" s="14"/>
       <c r="X3" s="35"/>
-      <c r="Y3" s="9"/>
+      <c r="Y3" s="14"/>
       <c r="Z3" s="35"/>
-      <c r="AA3" s="9"/>
+      <c r="AA3" s="14"/>
       <c r="AB3" s="35"/>
-      <c r="AC3" s="9"/>
+      <c r="AC3" s="14"/>
       <c r="AD3" s="35"/>
     </row>
-    <row r="4" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="14"/>
-      <c r="B4" s="10"/>
+    <row r="4" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="22"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-    </row>
-    <row r="5" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+    </row>
+    <row r="5" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="23" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -3681,102 +3708,102 @@
       <c r="D5" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="H5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="9" t="s">
+      <c r="L5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="9" t="s">
+      <c r="N5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="P5" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="9" t="s">
+      <c r="P5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="R5" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="9" t="s">
+      <c r="R5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="T5" s="19" t="s">
+      <c r="T5" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="U5" s="9"/>
+      <c r="U5" s="14"/>
       <c r="V5" s="35"/>
-      <c r="W5" s="9"/>
+      <c r="W5" s="14"/>
       <c r="X5" s="35"/>
-      <c r="Y5" s="9"/>
+      <c r="Y5" s="14"/>
       <c r="Z5" s="35"/>
-      <c r="AA5" s="9"/>
+      <c r="AA5" s="14"/>
       <c r="AB5" s="35"/>
-      <c r="AC5" s="9"/>
+      <c r="AC5" s="14"/>
       <c r="AD5" s="35"/>
     </row>
-    <row r="6" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="14"/>
-      <c r="B6" s="10"/>
+    <row r="6" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="22"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-    </row>
-    <row r="7" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="13">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+    </row>
+    <row r="7" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="23" t="s">
         <v>96</v>
       </c>
       <c r="C7" s="35" t="s">
@@ -3785,98 +3812,98 @@
       <c r="D7" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="H7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="9" t="s">
+      <c r="J7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="9" t="s">
+      <c r="L7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="N7" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="9" t="s">
+      <c r="N7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q7" s="9" t="s">
+      <c r="P7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="R7" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="9" t="s">
+      <c r="R7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="T7" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" s="9"/>
+      <c r="T7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="14"/>
       <c r="V7" s="35"/>
-      <c r="W7" s="9"/>
+      <c r="W7" s="14"/>
       <c r="X7" s="35"/>
-      <c r="Y7" s="9"/>
+      <c r="Y7" s="14"/>
       <c r="Z7" s="35"/>
-      <c r="AA7" s="9"/>
+      <c r="AA7" s="14"/>
       <c r="AB7" s="35"/>
-      <c r="AC7" s="9"/>
+      <c r="AC7" s="14"/>
       <c r="AD7" s="35"/>
     </row>
-    <row r="8" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10"/>
+    <row r="8" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="22"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-    </row>
-    <row r="9" spans="1:30" ht="74.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+    </row>
+    <row r="9" spans="1:30" ht="77.25" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>15</v>
       </c>
@@ -3895,25 +3922,160 @@
       <c r="F9" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="53" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="T9" s="52"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="1:30" ht="77.25" x14ac:dyDescent="0.45">
+      <c r="B10" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="77.25" x14ac:dyDescent="0.45">
+      <c r="B11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="77.25" x14ac:dyDescent="0.45">
+      <c r="B12" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="AC1:AD1"/>
@@ -3938,90 +4100,6 @@
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4031,88 +4109,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A32C82-4E28-47DA-B010-C23DCFFA9445}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="32.1015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.3125" customWidth="1"/>
-    <col min="5" max="5" width="40.68359375" customWidth="1"/>
+    <col min="3" max="3" width="32.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24" t="s">
+      <c r="R1" s="27"/>
+      <c r="S1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24" t="s">
+      <c r="T1" s="27"/>
+      <c r="U1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24" t="s">
+      <c r="V1" s="27"/>
+      <c r="W1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24" t="s">
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24" t="s">
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="24"/>
-    </row>
-    <row r="2" spans="1:28" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="AB1" s="27"/>
+    </row>
+    <row r="2" spans="1:28" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -4180,832 +4258,957 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="3" customFormat="1" ht="76.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="42">
+    <row r="3" spans="1:28" s="3" customFormat="1" ht="76.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="R3" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-    </row>
-    <row r="4" spans="1:28" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-    </row>
-    <row r="5" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="42">
+      <c r="R3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+    </row>
+    <row r="4" spans="1:28" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+    </row>
+    <row r="5" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="51">
         <v>2</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="48" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="R5" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="79.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="51"/>
-    </row>
-    <row r="7" spans="1:28" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="42">
+      <c r="R5" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="48"/>
+    </row>
+    <row r="7" spans="1:28" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="51">
         <v>3</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="48" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="102.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="51"/>
-    </row>
-    <row r="9" spans="1:28" ht="71.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="42">
+      <c r="R7" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="102.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="48"/>
+    </row>
+    <row r="9" spans="1:28" ht="71.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="51">
         <v>4</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="48" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="R9" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="52.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="51"/>
-    </row>
-    <row r="11" spans="1:28" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="42">
+      <c r="R9" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="52.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="48"/>
+    </row>
+    <row r="11" spans="1:28" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="51">
         <v>5</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="48" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="R11" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="91.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="51"/>
-    </row>
-    <row r="13" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="42">
+      <c r="R11" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="91.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="48"/>
+    </row>
+    <row r="13" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="51">
         <v>6</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="48" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="R13" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="88.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="51"/>
-    </row>
-    <row r="15" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="42">
+      <c r="R13" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="88.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="48"/>
+    </row>
+    <row r="15" spans="1:28" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="51">
         <v>7</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="48" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="R15" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="58.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="51"/>
-    </row>
-    <row r="17" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="42">
+      <c r="R15" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="58.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="48"/>
+    </row>
+    <row r="17" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="51">
         <v>8</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="48" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="R17" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="51"/>
-    </row>
-    <row r="19" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="42">
+      <c r="R17" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="48"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="51">
         <v>9</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="48" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="R19" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="51"/>
-    </row>
-    <row r="21" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="42">
+      <c r="R19" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="48"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="51">
         <v>10</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="48" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="R21" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="51"/>
-    </row>
-    <row r="23" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="42">
+      <c r="R21" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="48"/>
+    </row>
+    <row r="23" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="51">
         <v>11</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="48" t="s">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="R23" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="99.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="51"/>
-    </row>
-    <row r="25" spans="1:18" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="42">
+      <c r="R23" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="99.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="48"/>
+    </row>
+    <row r="25" spans="1:18" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="51">
         <v>12</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="48" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="R25" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="108.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="51"/>
-    </row>
-    <row r="27" spans="1:18" ht="58.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="42">
+      <c r="R25" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="108.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="48"/>
+    </row>
+    <row r="27" spans="1:18" ht="58.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="51">
         <v>13</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="48" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="R27" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="104.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="51"/>
-    </row>
-    <row r="29" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="42">
+      <c r="R27" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="104.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="48"/>
+    </row>
+    <row r="29" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="51">
         <v>14</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="48" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="R29" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="88.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="51"/>
+      <c r="R29" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="88.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="149">
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="Q23:Q24"/>
     <mergeCell ref="Q25:Q26"/>
     <mergeCell ref="Q27:Q28"/>
@@ -5030,131 +5233,6 @@
     <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5165,44 +5243,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57356F81-C035-4AAA-8EFA-FCD653420C4E}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.9453125" customWidth="1"/>
-    <col min="4" max="4" width="31.5234375" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.9296875" customWidth="1"/>
+    <col min="4" max="4" width="31.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="24"/>
-    </row>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
@@ -5210,148 +5288,138 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="42">
+    <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="51"/>
-    </row>
-    <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="42">
+      <c r="G3" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45.3" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="51">
         <v>2</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="51"/>
-    </row>
-    <row r="7" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="42">
+      <c r="G5" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="51">
         <v>3</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="51"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="42">
+      <c r="G7" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="48"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="51">
         <v>4</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="39"/>
-    </row>
-    <row r="10" spans="1:7" ht="53.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="G9" s="43"/>
+    </row>
+    <row r="10" spans="1:7" ht="53.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
@@ -5368,10 +5436,20 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Cases/Test Cases.xlsx
+++ b/Test Cases/Test Cases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C391E5A-1559-4D0A-A759-CB0C0E266851}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86A2BB5-912B-4071-B221-2629B6E379E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="147">
   <si>
     <t>S/N</t>
   </si>
@@ -444,50 +444,8 @@
 movement_data_sample_masked  data set</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Login and select correlation tab
-2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
-3. Choose to combine based on activity date
-4. Choose Inventory as X variable and OrderQuantity as Y variable to be shown in chart
-5. Select filter by geographicallocation and value Singapore
-</t>
-  </si>
-  <si>
     <t>Visualise two types of data in the
  form of scatterplot diagram (validations in data sets)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login and select correlation tab
-2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
-3. Choose to combine based on activity date
-4. Choose Inventory as X variable and OrderQuantity as Y variable to be shown in chart
-5. Dont select filter
-6. Generate Scatterplot
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login and select correlation tab
-2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
-3. Choose to combine based on activity date
-4. Choose Inventory as X variable and OrderQuantity as Y variable to be shown in chart
-5. Select filter by date or activitydate and range between 01/01/2017 to 01/02/2017
-6. Generate Scatterplot
-</t>
-  </si>
-  <si>
-    <t>1. Login and select correlation tab
-2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
-3. Choose to combine based on activity date
-4. Choose Inventory as X variable and OrderQuantity as Y variable to be shown in chart
-5. Select filter by company and value DHL
-6. Generate Scatterplot</t>
-  </si>
-  <si>
-    <t>1. Login and select correlation tab
-2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
-3. Choose to combine based on activity date
-4. Choose Inventory as X variable and OrderQuantity as Y variable to be shown in chart
-5. Select filter by depot and value 34
-6. Generate Scatterplot</t>
   </si>
   <si>
     <t>Error Validations shown</t>
@@ -511,39 +469,6 @@
     <t>1. Login and select correlation tab
 2. Choose don’t select variable Y
 3. Generate Scatterplot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login and select correlation tab
-2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
-3. Choose to combine based on activity date
-4. Choose Inventory as X variable and OrderQuantity as Y variable to be shown in chart
-5. Select filter by date or activitydate and don't select range 
-6. Generate Scatterplot
-</t>
-  </si>
-  <si>
-    <t>1. Login and select correlation tab
-2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
-3. Choose to combine based on activity date
-4. Choose Inventory as X variable and OrderQuantity as Y variable to be shown in chart
-5. Select filter by company and don't select company value
-6. Generate Scatterplot</t>
-  </si>
-  <si>
-    <t>1. Login and select correlation tab
-2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
-3. Choose to combine based on activity date
-4. Choose Inventory as X variable and OrderQuantity as Y variable to be shown in chart
-5. Select filter by depot and don't select depot value
-6. Generate Scatterplot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login and select correlation tab
-2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
-3. Choose to combine based on activity date
-4. Choose Inventory as X variable and OrderQuantity as Y variable to be shown in chart
-5. Select filter by geographicallocation and don't select geographicallocation value
-</t>
   </si>
   <si>
     <t>View Datasets</t>
@@ -625,6 +550,81 @@
 2. Choose movement_data_sample_masked_4 &amp; weather_singapore_2018-10-01_2018-12-31_4 as data set 1 and data set 2 respectively
 3. Choose to combine based on Activity Date
 4. Click button to combine datasets &amp; save</t>
+  </si>
+  <si>
+    <t>1. Login and select correlation tab
+2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose temperature as X variable and OrderQuantity as Y variable to be shown in chart
+5. Select filter by company and value DHL
+6. Generate Scatterplot</t>
+  </si>
+  <si>
+    <t>1. Login and select correlation tab
+2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose temperature as X variable and OrderQuantity as Y variable to be shown in chart
+5. Select filter by depot and value 34
+6. Generate Scatterplot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login and select correlation tab
+2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose temperature as X variable and OrderQuantity as Y variable to be shown in chart
+5. Select filter by geographicallocation and value Singapore
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login and select correlation tab
+2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose temperature as X variable and OrderQuantity as Y variable to be shown in chart
+5. Select filter by date or activitydate and range between 01/01/2017 to 01/02/2017
+6. Generate Scatterplot
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login and select correlation tab
+2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose temperature as X variable and OrderQuantity as Y variable to be shown in chart
+5. Dont select filter
+6. Generate Scatterplot
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login and select correlation tab
+2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose temperature as X variable and OrderQuantity as Y variable to be shown in chart
+5. Select filter by date or activitydate and don't select range 
+6. Generate Scatterplot
+</t>
+  </si>
+  <si>
+    <t>1. Login and select correlation tab
+2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose temperature as X variable and OrderQuantity as Y variable to be shown in chart
+5. Select filter by company and don't select company value
+6. Generate Scatterplot</t>
+  </si>
+  <si>
+    <t>1. Login and select correlation tab
+2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose temperature as X variable and OrderQuantity as Y variable to be shown in chart
+5. Select filter by depot and don't select depot value
+6. Generate Scatterplot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login and select correlation tab
+2. Choose weather_data_2017_3_months &amp; movement_data_sample_masked as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose temperature as X variable and OrderQuantity as Y variable to be shown in chart
+5. Select filter by geographicallocation and don't select geographicallocation value
+</t>
   </si>
 </sst>
 </file>
@@ -839,12 +839,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -854,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -878,14 +878,50 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -895,46 +931,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -942,20 +939,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -970,6 +967,24 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -979,27 +994,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1286,51 +1304,51 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.47265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="50.86328125" customWidth="1"/>
-    <col min="6" max="6" width="40.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.46484375" customWidth="1"/>
+    <col min="5" max="5" width="50.83984375" customWidth="1"/>
+    <col min="6" max="6" width="40.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="27" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="27"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1344,344 +1362,404 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="29.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="21">
+    <row r="3" spans="1:10" ht="29.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="22"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="16"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" ht="21.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="21">
+      <c r="E4" s="12"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" ht="21.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="17" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="22"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="H5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" ht="29.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="21">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="29.85" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="22"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="H7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="16"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="21">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="15">
         <v>3</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="29" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="22"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+    <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="16"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="16"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="21">
+    <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="29" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="22"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="16"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="16"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="21">
+    <row r="13" spans="1:10" ht="34.35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="15">
         <v>4</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="17" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="22"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="H13" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="16"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="21">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="15">
         <v>5</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="22"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="H15" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="16"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="21">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="15">
         <v>6</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="22"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="H17" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="16"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="20"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A9:A10"/>
@@ -1698,66 +1776,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1771,63 +1789,63 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.3125" customWidth="1"/>
     <col min="5" max="5" width="62" customWidth="1"/>
-    <col min="6" max="6" width="39.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.47265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7890625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.47265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.47265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.47265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.46484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.47265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.47265625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="27" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="27"/>
-    </row>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1841,410 +1859,465 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="21">
+    <row r="3" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="22"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="J3" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="16"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="21">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="30"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="22"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="J5" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="21">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="22"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="J7" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="16"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="21">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="15">
         <v>4</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="14" t="s">
+      <c r="H9" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="22"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="J9" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="16"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="21">
+      <c r="E10" s="12"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="15">
         <v>5</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="14" t="s">
+      <c r="H11" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="29" t="s">
         <v>86</v>
       </c>
       <c r="K11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="22"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+    <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="16"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="21">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="15">
         <v>6</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="14" t="s">
+      <c r="H13" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="22"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="J13" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="16"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="21">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="15">
         <v>7</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="22"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="16"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="21">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="15">
         <v>8</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="17" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="22"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="16"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="21">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="15">
         <v>9</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="22"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="16"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
@@ -2261,70 +2334,15 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2338,49 +2356,49 @@
       <selection activeCell="K1" sqref="K1:AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="13.46484375" customWidth="1"/>
-    <col min="3" max="3" width="20.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.86328125" customWidth="1"/>
+    <col min="2" max="2" width="13.47265625" customWidth="1"/>
+    <col min="3" max="3" width="20.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.3125" customWidth="1"/>
+    <col min="5" max="5" width="32.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="27" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="27"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2394,240 +2412,242 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="21">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="22"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="26"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="21">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="16"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="22"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="21">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="22"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="21">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="16"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="15">
         <v>4</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="14" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="22"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="21">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="16"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="15">
         <v>5</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="14" t="s">
+      <c r="G11" s="23"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="49.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="22"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="26"/>
+    <row r="12" spans="1:10" ht="49.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="16"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2644,28 +2664,26 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2679,92 +2697,92 @@
       <selection activeCell="U3" sqref="U3:AF10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="32.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.05078125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.3125" customWidth="1"/>
+    <col min="5" max="5" width="40.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="27" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="27" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27" t="s">
+      <c r="N1" s="26"/>
+      <c r="O1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27" t="s">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27" t="s">
+      <c r="R1" s="26"/>
+      <c r="S1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27" t="s">
+      <c r="T1" s="26"/>
+      <c r="U1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27" t="s">
+      <c r="V1" s="26"/>
+      <c r="W1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27" t="s">
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27" t="s">
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27" t="s">
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="27"/>
-    </row>
-    <row r="2" spans="1:32" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="AF1" s="26"/>
+    </row>
+    <row r="2" spans="1:32" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2844,468 +2862,527 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="21">
+    <row r="3" spans="1:32" ht="14.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="14" t="s">
+      <c r="L3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="14" t="s">
+      <c r="N3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="17"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="40"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A4" s="22"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-    </row>
-    <row r="5" spans="1:32" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="21">
+      <c r="T3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="23"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="39"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="16"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+    </row>
+    <row r="5" spans="1:32" ht="14.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="14" t="s">
+      <c r="L5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="14" t="s">
+      <c r="N5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="R5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="14" t="s">
+      <c r="R5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5" s="17"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="40"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A6" s="22"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-    </row>
-    <row r="7" spans="1:32" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="21">
+      <c r="T5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="23"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="39"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+    </row>
+    <row r="7" spans="1:32" ht="14.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="14" t="s">
+      <c r="L7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="14" t="s">
+      <c r="N7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="P7" s="25" t="s">
+      <c r="P7" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="R7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="14" t="s">
+      <c r="R7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="T7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" s="17"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="40"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A8" s="22"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-    </row>
-    <row r="9" spans="1:32" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="21">
+      <c r="T7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="23"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="39"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="16"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+    </row>
+    <row r="9" spans="1:32" ht="14.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="15">
         <v>4</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="14" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="14" t="s">
+      <c r="L9" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" s="14" t="s">
+      <c r="N9" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="P9" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Q9" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="R9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" s="14" t="s">
+      <c r="R9" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S9" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="T9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="U9" s="17"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="40"/>
-    </row>
-    <row r="10" spans="1:32" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="22"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
+      <c r="T9" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="23"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="39"/>
+    </row>
+    <row r="10" spans="1:32" ht="22.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="16"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="O1:P1"/>
@@ -3330,97 +3407,38 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3430,94 +3448,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5958A5D-193E-40FD-A829-53ED413F4D4A}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="15.46484375" customWidth="1"/>
-    <col min="3" max="3" width="32.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" customWidth="1"/>
+    <col min="2" max="2" width="15.47265625" customWidth="1"/>
+    <col min="3" max="3" width="32.05078125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.3125" customWidth="1"/>
+    <col min="5" max="5" width="40.68359375" customWidth="1"/>
+    <col min="6" max="6" width="10.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:30" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="27" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27" t="s">
+      <c r="N1" s="26"/>
+      <c r="O1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27" t="s">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27" t="s">
+      <c r="R1" s="26"/>
+      <c r="S1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27" t="s">
+      <c r="T1" s="26"/>
+      <c r="U1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27" t="s">
+      <c r="V1" s="26"/>
+      <c r="W1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27" t="s">
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27" t="s">
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27" t="s">
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="27"/>
-    </row>
-    <row r="2" spans="1:30" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="AD1" s="26"/>
+    </row>
+    <row r="2" spans="1:30" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3591,433 +3609,549 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="21">
+    <row r="3" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="14" t="s">
+      <c r="L3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="14" t="s">
+      <c r="N3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="P3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" s="14" t="s">
+      <c r="P3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="T3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="14"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="35"/>
-    </row>
-    <row r="4" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="22"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-    </row>
-    <row r="5" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="21">
+      <c r="T3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="11"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="37"/>
+    </row>
+    <row r="4" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="16"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+    </row>
+    <row r="5" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="14" t="s">
+      <c r="J5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="14" t="s">
+      <c r="L5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="14" t="s">
+      <c r="N5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="P5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="14" t="s">
+      <c r="P5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="R5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="T5" s="25" t="s">
+      <c r="R5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="T5" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="U5" s="14"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="35"/>
-    </row>
-    <row r="6" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="22"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-    </row>
-    <row r="7" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="21">
+      <c r="U5" s="11"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="37"/>
+    </row>
+    <row r="6" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+    </row>
+    <row r="7" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="14" t="s">
+      <c r="J7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="14" t="s">
+      <c r="L7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="N7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="14" t="s">
+      <c r="N7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q7" s="14" t="s">
+      <c r="P7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="R7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="14" t="s">
+      <c r="R7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="T7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" s="14"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="35"/>
-    </row>
-    <row r="8" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="22"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-    </row>
-    <row r="9" spans="1:30" ht="77.25" x14ac:dyDescent="0.45">
+      <c r="T7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="11"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="37"/>
+    </row>
+    <row r="8" spans="1:30" ht="56.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="16"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+    </row>
+    <row r="9" spans="1:30" ht="74.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6">
         <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="T9" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+    </row>
+    <row r="10" spans="1:30" ht="74.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="11" t="s">
+      <c r="E10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+    </row>
+    <row r="11" spans="1:30" ht="74.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="T9" s="10"/>
-    </row>
-    <row r="10" spans="1:30" ht="77.25" x14ac:dyDescent="0.45">
-      <c r="B10" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="77.25" x14ac:dyDescent="0.45">
-      <c r="B11" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="E11" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="77.25" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+    </row>
+    <row r="12" spans="1:30" ht="74.7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
@@ -4042,64 +4176,32 @@
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4109,88 +4211,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A32C82-4E28-47DA-B010-C23DCFFA9445}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:AB30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="32.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.05078125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.3125" customWidth="1"/>
+    <col min="5" max="5" width="40.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="27" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27" t="s">
+      <c r="N1" s="26"/>
+      <c r="O1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27" t="s">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27" t="s">
+      <c r="R1" s="26"/>
+      <c r="S1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27" t="s">
+      <c r="T1" s="26"/>
+      <c r="U1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27" t="s">
+      <c r="V1" s="26"/>
+      <c r="W1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27" t="s">
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27" t="s">
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="27"/>
-    </row>
-    <row r="2" spans="1:28" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="AB1" s="26"/>
+    </row>
+    <row r="2" spans="1:28" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -4258,119 +4360,119 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="3" customFormat="1" ht="76.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="51">
+    <row r="3" spans="1:28" s="3" customFormat="1" ht="76.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="R3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-    </row>
-    <row r="4" spans="1:28" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-    </row>
-    <row r="5" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="51">
+      <c r="R3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+    </row>
+    <row r="4" spans="1:28" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+    </row>
+    <row r="5" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="46">
         <v>2</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>107</v>
       </c>
       <c r="G5" s="9"/>
@@ -4383,20 +4485,30 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="45" t="s">
+      <c r="Q5" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="R5" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="R5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+    </row>
+    <row r="6" spans="1:28" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -4407,26 +4519,36 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="48"/>
-    </row>
-    <row r="7" spans="1:28" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="51">
+      <c r="Q6" s="51"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+    </row>
+    <row r="7" spans="1:28" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="46">
         <v>3</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>107</v>
       </c>
       <c r="G7" s="9"/>
@@ -4439,20 +4561,30 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="45" t="s">
+      <c r="Q7" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="102.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+      <c r="R7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" ht="102.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -4463,26 +4595,36 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="48"/>
-    </row>
-    <row r="9" spans="1:28" ht="71.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="51">
+      <c r="Q8" s="51"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+    </row>
+    <row r="9" spans="1:28" ht="71.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="46">
         <v>4</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>107</v>
       </c>
       <c r="G9" s="9"/>
@@ -4495,20 +4637,30 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="45" t="s">
+      <c r="Q9" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="R9" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="52.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
+      <c r="R9" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+    </row>
+    <row r="10" spans="1:28" ht="52.35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -4519,26 +4671,36 @@
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="48"/>
-    </row>
-    <row r="11" spans="1:28" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="51">
+      <c r="Q10" s="51"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+    </row>
+    <row r="11" spans="1:28" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="46">
         <v>5</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>107</v>
       </c>
       <c r="G11" s="9"/>
@@ -4551,20 +4713,30 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="45" t="s">
+      <c r="Q11" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="R11" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="91.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+      <c r="R11" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+    </row>
+    <row r="12" spans="1:28" ht="91.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -4575,27 +4747,37 @@
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="48"/>
-    </row>
-    <row r="13" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="51">
+      <c r="Q12" s="51"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+    </row>
+    <row r="13" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="46">
         <v>6</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -4607,20 +4789,30 @@
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
-      <c r="Q13" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="R13" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="88.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="Q13" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+    </row>
+    <row r="14" spans="1:28" ht="88.35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -4631,27 +4823,37 @@
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="48"/>
-    </row>
-    <row r="15" spans="1:28" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="51">
+      <c r="Q14" s="51"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+    </row>
+    <row r="15" spans="1:28" ht="14.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="46">
         <v>7</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -4663,20 +4865,30 @@
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
-      <c r="Q15" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="R15" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="58.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
+      <c r="Q15" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+    </row>
+    <row r="16" spans="1:28" ht="58.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -4687,27 +4899,37 @@
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="48"/>
-    </row>
-    <row r="17" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="51">
+      <c r="Q16" s="51"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+    </row>
+    <row r="17" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="46">
         <v>8</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>119</v>
+      <c r="E17" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -4719,20 +4941,30 @@
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="R17" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="Q17" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+    </row>
+    <row r="18" spans="1:28" ht="43.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -4743,27 +4975,37 @@
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="48"/>
-    </row>
-    <row r="19" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="51">
+      <c r="Q18" s="51"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+    </row>
+    <row r="19" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="46">
         <v>9</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>119</v>
+      <c r="E19" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -4775,20 +5017,30 @@
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="R19" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="Q19" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="R19" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+    </row>
+    <row r="20" spans="1:28" ht="43.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -4799,27 +5051,37 @@
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="48"/>
-    </row>
-    <row r="21" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="51">
+      <c r="Q20" s="51"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+    </row>
+    <row r="21" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="46">
         <v>10</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>119</v>
+      <c r="E21" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -4831,20 +5093,30 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
-      <c r="Q21" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="R21" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
+      <c r="Q21" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="R21" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+    </row>
+    <row r="22" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -4855,27 +5127,37 @@
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="48"/>
-    </row>
-    <row r="23" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="51">
+      <c r="Q22" s="51"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+    </row>
+    <row r="23" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="46">
         <v>11</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>119</v>
+      <c r="E23" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -4887,20 +5169,30 @@
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
-      <c r="Q23" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="R23" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="99.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
+      <c r="Q23" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="R23" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+    </row>
+    <row r="24" spans="1:28" ht="99.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -4911,27 +5203,37 @@
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="48"/>
-    </row>
-    <row r="25" spans="1:18" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="51">
+      <c r="Q24" s="51"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+    </row>
+    <row r="25" spans="1:28" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="46">
         <v>12</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>119</v>
+      <c r="E25" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -4943,20 +5245,30 @@
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="R25" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="108.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
+      <c r="Q25" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+    </row>
+    <row r="26" spans="1:28" ht="108.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -4967,27 +5279,37 @@
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="48"/>
-    </row>
-    <row r="27" spans="1:18" ht="58.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="51">
+      <c r="Q26" s="51"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+    </row>
+    <row r="27" spans="1:28" ht="58.35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="46">
         <v>13</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>119</v>
+      <c r="E27" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -4999,20 +5321,30 @@
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
-      <c r="Q27" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="R27" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="104.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="Q27" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+    </row>
+    <row r="28" spans="1:28" ht="104.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -5023,27 +5355,37 @@
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="48"/>
-    </row>
-    <row r="29" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="51">
+      <c r="Q28" s="51"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+    </row>
+    <row r="29" spans="1:28" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="46">
         <v>14</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>119</v>
+      <c r="E29" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -5055,20 +5397,30 @@
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
-      <c r="Q29" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="R29" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="88.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
+      <c r="Q29" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="R29" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+    </row>
+    <row r="30" spans="1:28" ht="88.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5079,32 +5431,255 @@
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="48"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="149">
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+  <mergeCells count="279">
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -5129,110 +5704,27 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5241,200 +5733,321 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57356F81-C035-4AAA-8EFA-FCD653420C4E}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.9296875" customWidth="1"/>
-    <col min="4" max="4" width="31.53125" customWidth="1"/>
+    <col min="2" max="2" width="12.734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.9453125" customWidth="1"/>
+    <col min="4" max="4" width="31.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="26"/>
+    </row>
+    <row r="2" spans="1:15" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="51">
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45.3" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="48"/>
-    </row>
-    <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="51">
+      <c r="B3" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" ht="45.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
+    </row>
+    <row r="5" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="46">
         <v>2</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="48"/>
-    </row>
-    <row r="7" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="51">
+      <c r="B5" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="29"/>
+    </row>
+    <row r="6" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="45"/>
+    </row>
+    <row r="7" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="46">
         <v>3</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="48"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="51">
+      <c r="B7" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="29"/>
+    </row>
+    <row r="8" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="46">
         <v>4</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="43"/>
-    </row>
-    <row r="10" spans="1:7" ht="53.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="54"/>
+      <c r="B9" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="29"/>
+    </row>
+    <row r="10" spans="1:15" ht="53.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+  <mergeCells count="70">
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A9:A10"/>
@@ -5450,6 +6063,25 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Cases/Test Cases.xlsx
+++ b/Test Cases/Test Cases.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B10F6A-78BD-774C-BFF2-4FFAD9C3DEED}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8CC50F-B462-488E-8847-BC865E3A68E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="149">
   <si>
     <t>S/N</t>
   </si>
@@ -630,7 +630,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -924,11 +924,77 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -938,46 +1004,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -985,20 +1012,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1013,135 +1040,108 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1430,51 +1430,51 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.47265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="50.83203125" customWidth="1"/>
-    <col min="6" max="6" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="50.83984375" customWidth="1"/>
+    <col min="6" max="6" width="40.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="26" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" ht="29">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1488,344 +1488,404 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="29.5" customHeight="1">
-      <c r="A3" s="20">
+    <row r="3" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" ht="25" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="25"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:10" ht="21.25" customHeight="1">
-      <c r="A5" s="20">
+      <c r="E4" s="21"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
+    </row>
+    <row r="5" spans="1:10" ht="21.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" ht="22" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="H5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="40"/>
+    </row>
+    <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="25"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" ht="29.75" customHeight="1">
-      <c r="A7" s="20">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="1:10" ht="29.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="26" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" ht="13" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="H7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="25"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
-      <c r="A9" s="20">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24">
         <v>3</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="26" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="38" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+    <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="25"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="15"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A11" s="20">
+    <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24">
         <v>3</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="26" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="38" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="25"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="15"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="34.25" customHeight="1">
-      <c r="A13" s="20">
+    <row r="13" spans="1:10" ht="34.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24">
         <v>4</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="26" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.5" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="H13" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="25"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" ht="39" customHeight="1">
-      <c r="A15" s="20">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24">
         <v>5</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="26" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="21"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="H15" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="40"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="25"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:10" ht="40.5" customHeight="1">
-      <c r="A17" s="20">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24">
         <v>6</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="21"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="H17" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="32"/>
+      <c r="J17" s="40"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="25"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="19"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A9:A10"/>
@@ -1842,66 +1902,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1915,63 +1915,63 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.3125" customWidth="1"/>
     <col min="5" max="5" width="62" customWidth="1"/>
-    <col min="6" max="6" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.47265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.83984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.47265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.47265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.47265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.47265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.47265625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="26" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:11" ht="29">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1985,410 +1985,465 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.5" customHeight="1">
-      <c r="A3" s="20">
+    <row r="3" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18.5" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="J3" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="25"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.5" customHeight="1">
-      <c r="A5" s="20">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="H5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18.5" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="J5" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="25"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.5" customHeight="1">
-      <c r="A7" s="20">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="39"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="26" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="H7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18.5" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="J7" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="25"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.5" customHeight="1">
-      <c r="A9" s="20">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24">
         <v>4</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="13" t="s">
+      <c r="H9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18.5" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="J9" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="25"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.5" customHeight="1">
-      <c r="A11" s="20">
+      <c r="E10" s="21"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24">
         <v>5</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="H11" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="38" t="s">
         <v>86</v>
       </c>
       <c r="K11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.5" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+    <row r="12" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="25"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.5" customHeight="1">
-      <c r="A13" s="20">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24">
         <v>6</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="26" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="13" t="s">
+      <c r="H13" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18.5" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="J13" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="25"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.5" customHeight="1">
-      <c r="A15" s="20">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24">
         <v>7</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" spans="1:11" ht="18.5" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="25"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.5" customHeight="1">
-      <c r="A17" s="20">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24">
         <v>8</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="26" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.5" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="25"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.5" customHeight="1">
-      <c r="A19" s="20">
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24">
         <v>9</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="26" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.5" customHeight="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="25"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
@@ -2405,70 +2460,15 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2482,49 +2482,49 @@
       <selection activeCell="K1" sqref="K1:AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.47265625" customWidth="1"/>
+    <col min="3" max="3" width="20.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.3125" customWidth="1"/>
+    <col min="5" max="5" width="32.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="26" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" ht="29">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2538,240 +2538,242 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="20">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="21"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A5" s="20">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="25"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="21"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A7" s="20">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="25"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="21"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A9" s="20">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="25"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24">
         <v>4</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="13" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="21"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="25"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A11" s="20">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="25"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24">
         <v>5</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="13" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="49" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="25"/>
+    <row r="12" spans="1:10" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="25"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2788,28 +2790,26 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2823,92 +2823,92 @@
       <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.3125" customWidth="1"/>
+    <col min="5" max="5" width="40.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="26" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="26" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26" t="s">
+      <c r="R1" s="35"/>
+      <c r="S1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26" t="s">
+      <c r="T1" s="35"/>
+      <c r="U1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26" t="s">
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26" t="s">
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26" t="s">
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="26"/>
-    </row>
-    <row r="2" spans="1:32" ht="29">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="AF1" s="35"/>
+    </row>
+    <row r="2" spans="1:32" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2988,468 +2988,527 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A3" s="20">
+    <row r="3" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="13" t="s">
+      <c r="L3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="13" t="s">
+      <c r="N3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="13" t="s">
+      <c r="R3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="16"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="39"/>
-    </row>
-    <row r="4" spans="1:32">
-      <c r="A4" s="21"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-    </row>
-    <row r="5" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A5" s="20">
+      <c r="T3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="32"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="48"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="25"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+    </row>
+    <row r="5" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="H5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="13" t="s">
+      <c r="L5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="13" t="s">
+      <c r="N5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="R5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="13" t="s">
+      <c r="R5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5" s="16"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="39"/>
-    </row>
-    <row r="6" spans="1:32">
-      <c r="A6" s="21"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-    </row>
-    <row r="7" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A7" s="20">
+      <c r="T5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="32"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="48"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="25"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+    </row>
+    <row r="7" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="H7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="13" t="s">
+      <c r="L7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="13" t="s">
+      <c r="N7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="P7" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="R7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="13" t="s">
+      <c r="R7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="T7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="39"/>
-    </row>
-    <row r="8" spans="1:32">
-      <c r="A8" s="21"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-    </row>
-    <row r="9" spans="1:32" ht="14.5" customHeight="1">
-      <c r="A9" s="20">
+      <c r="T7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="32"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="48"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="25"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+    </row>
+    <row r="9" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24">
         <v>4</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="13" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="13" t="s">
+      <c r="L9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" s="13" t="s">
+      <c r="N9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="R9" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" s="13" t="s">
+      <c r="R9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S9" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="T9" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="39"/>
-    </row>
-    <row r="10" spans="1:32" ht="22" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
+      <c r="T9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="32"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="48"/>
+    </row>
+    <row r="10" spans="1:32" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="25"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="O1:P1"/>
@@ -3474,97 +3533,38 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3574,99 +3574,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5958A5D-193E-40FD-A829-53ED413F4D4A}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3:X12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="15.47265625" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="63" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.3125" customWidth="1"/>
+    <col min="5" max="5" width="40.68359375" customWidth="1"/>
+    <col min="6" max="6" width="10.83984375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.68359375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="40" customHeight="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="26" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26" t="s">
+      <c r="R1" s="35"/>
+      <c r="S1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26" t="s">
+      <c r="T1" s="35"/>
+      <c r="U1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26" t="s">
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26" t="s">
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="26"/>
-    </row>
-    <row r="2" spans="1:30" ht="40" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="72"/>
+      <c r="AD1" s="35"/>
+    </row>
+    <row r="2" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="67"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3740,347 +3740,359 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="56" customHeight="1">
-      <c r="A3" s="69">
+    <row r="3" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="56">
         <v>1</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="J3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="13" t="s">
+      <c r="L3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="13" t="s">
+      <c r="N3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="P3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" s="13" t="s">
+      <c r="P3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="13" t="s">
+      <c r="R3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="13" t="s">
+      <c r="T3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="V3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="W3" s="13"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="34"/>
-    </row>
-    <row r="4" spans="1:30" ht="56" customHeight="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="V3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="X3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="46"/>
+    </row>
+    <row r="4" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="57"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="61"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="15"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="39"/>
       <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-    </row>
-    <row r="5" spans="1:30" ht="56" customHeight="1">
-      <c r="A5" s="69">
+      <c r="X4" s="39"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+    </row>
+    <row r="5" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="56">
         <v>2</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="H5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="13" t="s">
+      <c r="J5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="13" t="s">
+      <c r="L5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="13" t="s">
+      <c r="N5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="13" t="s">
+      <c r="P5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="13" t="s">
+      <c r="R5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="T5" s="24" t="s">
+      <c r="T5" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="V5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="W5" s="13"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="34"/>
-    </row>
-    <row r="6" spans="1:30" ht="56" customHeight="1">
-      <c r="A6" s="70"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="V5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="X5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="46"/>
+    </row>
+    <row r="6" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="61"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="15"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="39"/>
       <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-    </row>
-    <row r="7" spans="1:30" ht="56" customHeight="1">
-      <c r="A7" s="69">
+      <c r="X6" s="39"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+    </row>
+    <row r="7" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="56">
         <v>3</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="H7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="13" t="s">
+      <c r="J7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="13" t="s">
+      <c r="L7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="13" t="s">
+      <c r="N7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="P7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q7" s="13" t="s">
+      <c r="P7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="13" t="s">
+      <c r="R7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="T7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" s="13" t="s">
+      <c r="T7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="V7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="W7" s="13"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="34"/>
-    </row>
-    <row r="8" spans="1:30" ht="56" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="V7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W7" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="46"/>
+    </row>
+    <row r="8" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="57"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="61"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-    </row>
-    <row r="9" spans="1:30" ht="70">
-      <c r="A9" s="64">
+      <c r="F8" s="62"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+    </row>
+    <row r="9" spans="1:30" ht="61.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="11" t="s">
         <v>113</v>
       </c>
       <c r="G9" s="8"/>
@@ -4095,20 +4107,24 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
-      <c r="S9" s="75" t="s">
+      <c r="S9" s="18" t="s">
         <v>113</v>
       </c>
       <c r="T9" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="U9" s="75" t="s">
+      <c r="U9" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="V9" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
+      <c r="V9" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="W9" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -4116,23 +4132,23 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
     </row>
-    <row r="10" spans="1:30" ht="70">
-      <c r="A10" s="71">
+    <row r="10" spans="1:30" ht="61.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="16">
         <v>5</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="11" t="s">
         <v>113</v>
       </c>
       <c r="G10" s="8"/>
@@ -4149,14 +4165,18 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="75" t="s">
+      <c r="U10" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="V10" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
+      <c r="V10" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="W10" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -4164,23 +4184,23 @@
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
     </row>
-    <row r="11" spans="1:30" ht="80">
-      <c r="A11" s="71">
+    <row r="11" spans="1:30" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="16">
         <v>6</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="17" t="s">
         <v>118</v>
       </c>
       <c r="G11" s="8"/>
@@ -4197,14 +4217,18 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
-      <c r="U11" s="75" t="s">
+      <c r="U11" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="V11" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
+      <c r="V11" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="W11" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="X11" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -4212,23 +4236,23 @@
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
     </row>
-    <row r="12" spans="1:30" ht="70">
-      <c r="A12" s="71">
+    <row r="12" spans="1:30" ht="61.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="16">
         <v>7</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="11" t="s">
         <v>113</v>
       </c>
       <c r="G12" s="8"/>
@@ -4245,14 +4269,18 @@
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="V12" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
+      <c r="V12" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="W12" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
@@ -4262,32 +4290,64 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
@@ -4312,64 +4372,32 @@
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4379,88 +4407,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A32C82-4E28-47DA-B010-C23DCFFA9445}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E24"/>
+    <sheetView topLeftCell="F1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3:V30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.3125" customWidth="1"/>
+    <col min="5" max="5" width="40.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="26" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26" t="s">
+      <c r="R1" s="35"/>
+      <c r="S1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26" t="s">
+      <c r="T1" s="35"/>
+      <c r="U1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26" t="s">
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="26"/>
-    </row>
-    <row r="2" spans="1:28" ht="29">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="AB1" s="35"/>
+    </row>
+    <row r="2" spans="1:28" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -4528,123 +4556,127 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="3" customFormat="1" ht="76.75" customHeight="1">
-      <c r="A3" s="52">
+    <row r="3" spans="1:28" s="3" customFormat="1" ht="76.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="69">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="R3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="13" t="s">
+      <c r="R3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="T3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-    </row>
-    <row r="4" spans="1:28" s="3" customFormat="1" ht="63.5" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-    </row>
-    <row r="5" spans="1:28" ht="57" customHeight="1">
-      <c r="A5" s="52">
+      <c r="T3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="V3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+    </row>
+    <row r="4" spans="1:28" s="3" customFormat="1" ht="63.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+    </row>
+    <row r="5" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="69">
         <v>2</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="20" t="s">
         <v>100</v>
       </c>
       <c r="G5" s="6"/>
@@ -4657,34 +4689,38 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="48" t="s">
+      <c r="Q5" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="R5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="48" t="s">
+      <c r="R5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="T5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-    </row>
-    <row r="6" spans="1:28" ht="79.25" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="T5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="V5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+    </row>
+    <row r="6" spans="1:28" ht="79.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -4695,36 +4731,36 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-    </row>
-    <row r="7" spans="1:28" ht="38.5" customHeight="1">
-      <c r="A7" s="52">
+      <c r="Q6" s="76"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+    </row>
+    <row r="7" spans="1:28" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="69">
         <v>3</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="20" t="s">
         <v>100</v>
       </c>
       <c r="G7" s="6"/>
@@ -4737,34 +4773,38 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="48" t="s">
+      <c r="Q7" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="48" t="s">
+      <c r="R7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="T7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-    </row>
-    <row r="8" spans="1:28" ht="102.5" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="T7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="V7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+    </row>
+    <row r="8" spans="1:28" ht="102.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -4775,36 +4815,36 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-    </row>
-    <row r="9" spans="1:28" ht="71.5" customHeight="1">
-      <c r="A9" s="52">
+      <c r="Q8" s="76"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+    </row>
+    <row r="9" spans="1:28" ht="71.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="69">
         <v>4</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="20" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="6"/>
@@ -4817,34 +4857,38 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="48" t="s">
+      <c r="Q9" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="R9" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" s="48" t="s">
+      <c r="R9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S9" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="T9" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-    </row>
-    <row r="10" spans="1:28" ht="52.25" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
+      <c r="T9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="V9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+    </row>
+    <row r="10" spans="1:28" ht="52.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -4855,36 +4899,36 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-    </row>
-    <row r="11" spans="1:28" ht="42.5" customHeight="1">
-      <c r="A11" s="52">
+      <c r="Q10" s="76"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+    </row>
+    <row r="11" spans="1:28" ht="42.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="69">
         <v>5</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="20" t="s">
         <v>100</v>
       </c>
       <c r="G11" s="6"/>
@@ -4897,34 +4941,38 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="48" t="s">
+      <c r="Q11" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S11" s="48" t="s">
+      <c r="R11" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S11" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="T11" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-    </row>
-    <row r="12" spans="1:28" ht="91.75" customHeight="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="T11" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U11" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="V11" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+    </row>
+    <row r="12" spans="1:28" ht="91.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -4935,36 +4983,36 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-    </row>
-    <row r="13" spans="1:28" ht="14.5" customHeight="1">
-      <c r="A13" s="52">
+      <c r="Q12" s="76"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+    </row>
+    <row r="13" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="69">
         <v>6</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="20" t="s">
         <v>106</v>
       </c>
       <c r="G13" s="6"/>
@@ -4977,34 +5025,38 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="48" t="s">
+      <c r="Q13" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R13" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S13" s="48" t="s">
+      <c r="R13" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T13" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-    </row>
-    <row r="14" spans="1:28" ht="88.25" customHeight="1">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
+      <c r="T13" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U13" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="V13" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+    </row>
+    <row r="14" spans="1:28" ht="88.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -5015,36 +5067,36 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-    </row>
-    <row r="15" spans="1:28" ht="14.5" customHeight="1">
-      <c r="A15" s="52">
+      <c r="Q14" s="76"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+    </row>
+    <row r="15" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="69">
         <v>7</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="20" t="s">
         <v>106</v>
       </c>
       <c r="G15" s="6"/>
@@ -5057,34 +5109,38 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="48" t="s">
+      <c r="Q15" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R15" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S15" s="48" t="s">
+      <c r="R15" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S15" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T15" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-    </row>
-    <row r="16" spans="1:28" ht="58.75" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="T15" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U15" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="V15" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+    </row>
+    <row r="16" spans="1:28" ht="58.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -5095,36 +5151,36 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
-    </row>
-    <row r="17" spans="1:28" ht="14.5" customHeight="1">
-      <c r="A17" s="52">
+      <c r="Q16" s="76"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+    </row>
+    <row r="17" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="69">
         <v>8</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="20" t="s">
         <v>106</v>
       </c>
       <c r="G17" s="6"/>
@@ -5137,34 +5193,38 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="48" t="s">
+      <c r="Q17" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S17" s="48" t="s">
+      <c r="R17" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S17" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-    </row>
-    <row r="18" spans="1:28" ht="43.75" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="T17" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U17" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="V17" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+    </row>
+    <row r="18" spans="1:28" ht="43.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -5175,36 +5235,36 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-    </row>
-    <row r="19" spans="1:28" ht="14.5" customHeight="1">
-      <c r="A19" s="52">
+      <c r="Q18" s="76"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+    </row>
+    <row r="19" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="69">
         <v>9</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="20" t="s">
         <v>106</v>
       </c>
       <c r="G19" s="6"/>
@@ -5217,34 +5277,38 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="48" t="s">
+      <c r="Q19" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R19" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S19" s="48" t="s">
+      <c r="R19" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S19" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T19" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-    </row>
-    <row r="20" spans="1:28" ht="43.75" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="T19" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U19" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="V19" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+    </row>
+    <row r="20" spans="1:28" ht="43.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -5255,36 +5319,36 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-    </row>
-    <row r="21" spans="1:28" ht="14.5" customHeight="1">
-      <c r="A21" s="52">
+      <c r="Q20" s="76"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+    </row>
+    <row r="21" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="69">
         <v>10</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="20" t="s">
         <v>106</v>
       </c>
       <c r="G21" s="6"/>
@@ -5297,34 +5361,38 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="48" t="s">
+      <c r="Q21" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R21" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S21" s="48" t="s">
+      <c r="R21" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S21" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T21" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-    </row>
-    <row r="22" spans="1:28" ht="57" customHeight="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
+      <c r="T21" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U21" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="V21" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+    </row>
+    <row r="22" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -5335,36 +5403,36 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-    </row>
-    <row r="23" spans="1:28" ht="45" customHeight="1">
-      <c r="A23" s="52">
+      <c r="Q22" s="76"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="76"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="68"/>
+      <c r="Y22" s="68"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="68"/>
+    </row>
+    <row r="23" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="69">
         <v>11</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="20" t="s">
         <v>106</v>
       </c>
       <c r="G23" s="6"/>
@@ -5377,34 +5445,38 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="48" t="s">
+      <c r="Q23" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R23" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S23" s="48" t="s">
+      <c r="R23" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S23" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T23" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-    </row>
-    <row r="24" spans="1:28" ht="99.5" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
+      <c r="T23" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U23" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="V23" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+    </row>
+    <row r="24" spans="1:28" ht="99.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5415,36 +5487,36 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="47"/>
-      <c r="AB24" s="47"/>
-    </row>
-    <row r="25" spans="1:28" ht="36.5" customHeight="1">
-      <c r="A25" s="52">
+      <c r="Q24" s="76"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="68"/>
+    </row>
+    <row r="25" spans="1:28" ht="36.549999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="69">
         <v>12</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="20" t="s">
         <v>106</v>
       </c>
       <c r="G25" s="6"/>
@@ -5457,34 +5529,38 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="48" t="s">
+      <c r="Q25" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R25" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S25" s="48" t="s">
+      <c r="R25" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S25" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T25" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-    </row>
-    <row r="26" spans="1:28" ht="108.5" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
+      <c r="T25" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U25" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="V25" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+    </row>
+    <row r="26" spans="1:28" ht="108.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -5495,36 +5571,36 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="47"/>
-    </row>
-    <row r="27" spans="1:28" ht="58.25" customHeight="1">
-      <c r="A27" s="52">
+      <c r="Q26" s="76"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
+    </row>
+    <row r="27" spans="1:28" ht="58.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="69">
         <v>13</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="20" t="s">
         <v>106</v>
       </c>
       <c r="G27" s="6"/>
@@ -5537,34 +5613,38 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-      <c r="Q27" s="48" t="s">
+      <c r="Q27" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R27" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S27" s="81" t="s">
+      <c r="R27" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S27" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="T27" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-    </row>
-    <row r="28" spans="1:28" ht="104.5" customHeight="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
+      <c r="T27" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U27" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="V27" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+    </row>
+    <row r="28" spans="1:28" ht="104.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -5575,36 +5655,36 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-    </row>
-    <row r="29" spans="1:28" ht="54" customHeight="1">
-      <c r="A29" s="69">
+      <c r="Q28" s="77"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="81"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="74"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="74"/>
+      <c r="Z28" s="74"/>
+      <c r="AA28" s="74"/>
+      <c r="AB28" s="74"/>
+    </row>
+    <row r="29" spans="1:28" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="56">
         <v>14</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="78" t="s">
+      <c r="D29" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="78" t="s">
+      <c r="E29" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="78" t="s">
+      <c r="F29" s="73" t="s">
         <v>106</v>
       </c>
       <c r="G29" s="6"/>
@@ -5617,34 +5697,38 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="78" t="s">
+      <c r="Q29" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="R29" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="S29" s="78" t="s">
+      <c r="R29" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="S29" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="T29" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="U29" s="78"/>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="78"/>
-    </row>
-    <row r="30" spans="1:28" ht="88.75" customHeight="1">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
+      <c r="T29" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="U29" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="V29" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="W29" s="73"/>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="73"/>
+      <c r="AA29" s="73"/>
+      <c r="AB29" s="73"/>
+    </row>
+    <row r="30" spans="1:28" ht="88.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -5655,43 +5739,254 @@
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="80"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="70"/>
-      <c r="Z30" s="70"/>
-      <c r="AA30" s="70"/>
-      <c r="AB30" s="70"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="279">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:A2"/>
@@ -5716,239 +6011,28 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5959,60 +6043,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57356F81-C035-4AAA-8EFA-FCD653420C4E}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="31.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="26"/>
-    </row>
-    <row r="2" spans="1:15" ht="29">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="O1" s="35"/>
+    </row>
+    <row r="2" spans="1:15" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
@@ -6044,232 +6128,266 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A3" s="85">
+    <row r="3" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="83">
         <v>1</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
-    </row>
-    <row r="4" spans="1:15" ht="56" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="83"/>
-    </row>
-    <row r="5" spans="1:15" ht="49.5" customHeight="1">
-      <c r="A5" s="85">
+      <c r="I3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="38"/>
+    </row>
+    <row r="4" spans="1:15" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="82"/>
+    </row>
+    <row r="5" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="83">
         <v>2</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="G5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
-    </row>
-    <row r="6" spans="1:15" ht="49.5" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="83"/>
-    </row>
-    <row r="7" spans="1:15" ht="49.5" customHeight="1">
-      <c r="A7" s="85">
+      <c r="I5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="82"/>
+    </row>
+    <row r="7" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="83">
         <v>3</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="13" t="s">
+      <c r="G7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-    </row>
-    <row r="8" spans="1:15" ht="49.5" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="83"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="85">
+      <c r="I7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="82"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="83">
         <v>4</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="13" t="s">
+      <c r="G9" s="85"/>
+      <c r="H9" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
-    </row>
-    <row r="10" spans="1:15" ht="53.75" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="84"/>
+      <c r="I9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" spans="1:15" ht="53.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A9:A10"/>
@@ -6286,42 +6404,24 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Cases/Test Cases.xlsx
+++ b/Test Cases/Test Cases.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8CC50F-B462-488E-8847-BC865E3A68E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31D4E49-8A21-4F4F-B5F6-D379E6758D16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="158">
   <si>
     <t>S/N</t>
   </si>
@@ -548,15 +548,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Login and select correlation tab
-2. Choose weather &amp; movement as data set 1 and data set 2 respectively
-3. Choose to combine based on activity date
-4. Choose temperature as X variable and OrderQuantity as Y variable to be shown in chart
-5. Select filter by date or activitydate and range between 01/01/2017 to 01/02/2017
-6. Generate Scatterplot
-</t>
-  </si>
-  <si>
     <t>1. Login and select correlation tab
 2. Choose weather &amp; movement as data set 1 and data set 2 respectively
 3. Choose to combine based on activity date
@@ -606,24 +597,80 @@
 </t>
   </si>
   <si>
+    <t>Save the combined table from two tables using a common variable without using a name</t>
+  </si>
+  <si>
+    <t>Save the combined table from two tables using a common variable with a specific name</t>
+  </si>
+  <si>
+    <t>1. Login and select View Datasets tab
+2. Choose movement &amp; singapore_weather as data set 1 and data set 2 respectively
+3. Choose to combine based on Activity Date
+4. Type combinedData as the name to  be combine and saved into the database
+5. Click button to combine datasets &amp; save</t>
+  </si>
+  <si>
+    <t>Error Message Prompted to input combined file name</t>
+  </si>
+  <si>
     <t>1. Login and select web crawling tab
 2. Select a city/country name
-3. Select a date range with different start and end date within the same month</t>
+3. Select a date range with different start and end date within different month and year
+4.Save as CSV</t>
   </si>
   <si>
     <t>1. Login and select web crawling tab
 2. Select a city/country name
-3. Select a date range with different start and end date within the same year but different month</t>
+3. Select a date range with different start and end date within the same month
+4.Save as CSV</t>
   </si>
   <si>
     <t>1. Login and select web crawling tab
 2. Select a city/country name
-3. Select a date range with different start and end date that is of different year</t>
+3. Select a date range with different start and end date within the same year but different month
+4.Save as CSV</t>
   </si>
   <si>
     <t>1. Login and select web crawling tab
 2. Select a city/country name
-3. Select a date range with different start and end date within different month and year</t>
+3. Select a date range with different start and end date that is of different year
+4.Save as CSV</t>
+  </si>
+  <si>
+    <t>1. Login and select web crawling tab
+2. Select a city/country name
+3. Select a date range with different start and end date within different month and year
+4.Save into database</t>
+  </si>
+  <si>
+    <t>1. Login and select web crawling tab
+2. Select a city/country name
+3. Select a date range with different start and end date within the same month
+4.Save into database</t>
+  </si>
+  <si>
+    <t>1. Login and select web crawling tab
+2. Select a city/country name
+3. Select a date range with different start and end date within the same year but different month
+4.Save into database</t>
+  </si>
+  <si>
+    <t>1. Login and select web crawling tab
+2. Select a city/country name
+3. Select a date range with different start and end date that is of different year
+4.Save into database</t>
+  </si>
+  <si>
+    <t>Weather data saved into the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login and select correlation tab
+2. Choose weather &amp; movement as data set 1 and data set 2 respectively
+3. Choose to combine based on activity date
+4. Choose temperature as X variable and OrderQuantity as Y variable to be shown in chart
+5. Select filter by date or activitydate and range between 01/10/2018 to 10/10/2018
+6. Generate Scatterplot
+</t>
   </si>
 </sst>
 </file>
@@ -900,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -952,80 +999,80 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1040,92 +1087,98 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1138,10 +1191,13 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1441,22 +1497,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -1469,12 +1525,12 @@
       <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1489,77 +1545,77 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="24">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="25"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="21"/>
-      <c r="F4" s="37"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" ht="21.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="24">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="31" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="40"/>
+      <c r="H5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="25"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="1" t="s">
@@ -1568,40 +1624,40 @@
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" ht="29.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="24">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="31" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="40"/>
+      <c r="H7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="25"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="1" t="s">
@@ -1610,40 +1666,40 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="24">
+      <c r="A9" s="29">
         <v>3</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="23" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="25"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="1" t="s">
@@ -1652,40 +1708,40 @@
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
-      <c r="H10" s="39"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="24">
+      <c r="A11" s="29">
         <v>3</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="31" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="23" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="25"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="1" t="s">
@@ -1694,40 +1750,40 @@
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="39"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="34.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="24">
+      <c r="A13" s="29">
         <v>4</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="31" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="40"/>
+      <c r="H13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="25"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="1" t="s">
@@ -1736,40 +1792,40 @@
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="24">
+      <c r="A15" s="29">
         <v>5</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="31" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="40"/>
+      <c r="H15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="25"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="1" t="s">
@@ -1778,40 +1834,40 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="24">
+      <c r="A17" s="29">
         <v>6</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="31" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="40"/>
+      <c r="H17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="25"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="1" t="s">
@@ -1820,23 +1876,61 @@
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
@@ -1853,55 +1947,17 @@
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1938,22 +1994,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -1966,12 +2022,12 @@
       <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1986,39 +2042,39 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="24">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="20" t="s">
+      <c r="H3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="25"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="1" t="s">
@@ -2027,44 +2083,44 @@
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="39"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="21"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="24">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="25"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="1" t="s">
@@ -2073,44 +2129,44 @@
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="39"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="24">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="20" t="s">
+      <c r="H7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="25"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="1" t="s">
@@ -2119,85 +2175,85 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="39"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="39"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="24">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="25"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="21"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="39"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="39"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="24">
+      <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="20" t="s">
+      <c r="H11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K11" t="s">
@@ -2205,7 +2261,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="25"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="1" t="s">
@@ -2214,44 +2270,44 @@
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="39"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="39"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="24">
+      <c r="A13" s="29">
         <v>6</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="20" t="s">
+      <c r="H13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="25"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="1" t="s">
@@ -2260,27 +2316,27 @@
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="39"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="24">
+      <c r="A15" s="29">
         <v>7</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="31" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="22" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="41"/>
@@ -2289,7 +2345,7 @@
       <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="25"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="1" t="s">
@@ -2303,31 +2359,31 @@
       <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="24">
+      <c r="A17" s="29">
         <v>8</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="25"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="1" t="s">
@@ -2335,28 +2391,28 @@
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="24">
+      <c r="A19" s="29">
         <v>9</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="31" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="22" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="41"/>
@@ -2365,7 +2421,7 @@
       <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:10" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="25"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="1" t="s">
@@ -2380,54 +2436,31 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G13:G14"/>
@@ -2444,31 +2477,54 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2491,22 +2547,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -2519,12 +2575,12 @@
       <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2539,241 +2595,239 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="24">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="25"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="47"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="31"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="24">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="25"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="47"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="31"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="24">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="25"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="47"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="31"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="24">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="31" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="20" t="s">
+      <c r="G9" s="25"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="25"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="47"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="31"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="24">
+      <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="31" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="20" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="25"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="47"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="31"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2790,26 +2844,28 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2831,22 +2887,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -2903,12 +2959,12 @@
       <c r="AF1" s="35"/>
     </row>
     <row r="2" spans="1:32" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2989,455 +3045,538 @@
       </c>
     </row>
     <row r="3" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="24">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="20" t="s">
+      <c r="H3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="20" t="s">
+      <c r="L3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="20" t="s">
+      <c r="N3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="20" t="s">
+      <c r="R3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="32"/>
+      <c r="T3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="25"/>
       <c r="V3" s="48"/>
-      <c r="W3" s="32"/>
+      <c r="W3" s="25"/>
       <c r="X3" s="48"/>
-      <c r="Y3" s="32"/>
+      <c r="Y3" s="25"/>
       <c r="Z3" s="48"/>
-      <c r="AA3" s="32"/>
+      <c r="AA3" s="25"/>
       <c r="AB3" s="48"/>
-      <c r="AC3" s="32"/>
+      <c r="AC3" s="25"/>
       <c r="AD3" s="48"/>
-      <c r="AE3" s="32"/>
+      <c r="AE3" s="25"/>
       <c r="AF3" s="48"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="25"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="47"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="25"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="49"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="39"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="21"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="25"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="30"/>
       <c r="P4" s="49"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="39"/>
+      <c r="R4" s="24"/>
       <c r="S4" s="21"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
     </row>
     <row r="5" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="24">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="20" t="s">
+      <c r="L5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="20" t="s">
+      <c r="N5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="R5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="20" t="s">
+      <c r="R5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5" s="32"/>
+      <c r="T5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="25"/>
       <c r="V5" s="48"/>
-      <c r="W5" s="32"/>
+      <c r="W5" s="25"/>
       <c r="X5" s="48"/>
-      <c r="Y5" s="32"/>
+      <c r="Y5" s="25"/>
       <c r="Z5" s="48"/>
-      <c r="AA5" s="32"/>
+      <c r="AA5" s="25"/>
       <c r="AB5" s="48"/>
-      <c r="AC5" s="32"/>
+      <c r="AC5" s="25"/>
       <c r="AD5" s="48"/>
-      <c r="AE5" s="32"/>
+      <c r="AE5" s="25"/>
       <c r="AF5" s="48"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="25"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="47"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="25"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="49"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="39"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="21"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="25"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="30"/>
       <c r="P6" s="49"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="39"/>
+      <c r="R6" s="24"/>
       <c r="S6" s="21"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
     </row>
     <row r="7" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="24">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="20" t="s">
+      <c r="H7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="20" t="s">
+      <c r="L7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="20" t="s">
+      <c r="N7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="R7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="20" t="s">
+      <c r="R7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="T7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" s="32"/>
+      <c r="T7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="25"/>
       <c r="V7" s="48"/>
-      <c r="W7" s="32"/>
+      <c r="W7" s="25"/>
       <c r="X7" s="48"/>
-      <c r="Y7" s="32"/>
+      <c r="Y7" s="25"/>
       <c r="Z7" s="48"/>
-      <c r="AA7" s="32"/>
+      <c r="AA7" s="25"/>
       <c r="AB7" s="48"/>
-      <c r="AC7" s="32"/>
+      <c r="AC7" s="25"/>
       <c r="AD7" s="48"/>
-      <c r="AE7" s="32"/>
+      <c r="AE7" s="25"/>
       <c r="AF7" s="48"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="25"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="47"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="25"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="49"/>
       <c r="K8" s="21"/>
-      <c r="L8" s="39"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="25"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="30"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="39"/>
+      <c r="R8" s="24"/>
       <c r="S8" s="21"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
     </row>
     <row r="9" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="24">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="31" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="32"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="51"/>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="20" t="s">
+      <c r="L9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" s="20" t="s">
+      <c r="N9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="Q9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="R9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" s="20" t="s">
+      <c r="R9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="T9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U9" s="32"/>
+      <c r="T9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="25"/>
       <c r="V9" s="48"/>
-      <c r="W9" s="32"/>
+      <c r="W9" s="25"/>
       <c r="X9" s="48"/>
-      <c r="Y9" s="32"/>
+      <c r="Y9" s="25"/>
       <c r="Z9" s="48"/>
-      <c r="AA9" s="32"/>
+      <c r="AA9" s="25"/>
       <c r="AB9" s="48"/>
-      <c r="AC9" s="32"/>
+      <c r="AC9" s="25"/>
       <c r="AD9" s="48"/>
-      <c r="AE9" s="32"/>
+      <c r="AE9" s="25"/>
       <c r="AF9" s="48"/>
     </row>
     <row r="10" spans="1:32" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="25"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="47"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="50"/>
       <c r="H10" s="52"/>
-      <c r="I10" s="25"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="49"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="39"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="25"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="49"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="39"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="21"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
     <mergeCell ref="AF5:AF6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3462,109 +3601,26 @@
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3572,10 +3628,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5958A5D-193E-40FD-A829-53ED413F4D4A}">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:X12"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13:Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3593,22 +3649,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -3661,12 +3717,12 @@
       <c r="AD1" s="35"/>
     </row>
     <row r="2" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="67"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3740,343 +3796,351 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="56">
+    <row r="3" spans="1:30" ht="56.05" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="20" t="s">
+      <c r="H3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="20" t="s">
+      <c r="J3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="20" t="s">
+      <c r="L3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="20" t="s">
+      <c r="N3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="P3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" s="20" t="s">
+      <c r="P3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="20" t="s">
+      <c r="R3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="20" t="s">
+      <c r="T3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="V3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W3" s="20" t="s">
+      <c r="V3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="X3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="46"/>
-    </row>
-    <row r="4" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="57"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="63"/>
+      <c r="X3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="43"/>
+    </row>
+    <row r="4" spans="1:30" ht="56.05" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="56"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="39"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="21"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="39"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="21"/>
-      <c r="N4" s="39"/>
+      <c r="N4" s="24"/>
       <c r="O4" s="21"/>
-      <c r="P4" s="39"/>
+      <c r="P4" s="24"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="39"/>
+      <c r="R4" s="24"/>
       <c r="S4" s="21"/>
-      <c r="T4" s="39"/>
+      <c r="T4" s="24"/>
       <c r="U4" s="21"/>
-      <c r="V4" s="39"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="21"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
     </row>
     <row r="5" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="56">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="20" t="s">
+      <c r="J5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="20" t="s">
+      <c r="L5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="20" t="s">
+      <c r="N5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="20" t="s">
+      <c r="P5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="R5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="20" t="s">
+      <c r="R5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="T5" s="30" t="s">
+      <c r="T5" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="V5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W5" s="20" t="s">
+      <c r="V5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="X5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="46"/>
+      <c r="X5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="43"/>
     </row>
     <row r="6" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="57"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="63"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="39"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="39"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="21"/>
-      <c r="N6" s="39"/>
+      <c r="N6" s="24"/>
       <c r="O6" s="21"/>
-      <c r="P6" s="39"/>
+      <c r="P6" s="24"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="39"/>
+      <c r="R6" s="24"/>
       <c r="S6" s="21"/>
       <c r="T6" s="49"/>
       <c r="U6" s="21"/>
-      <c r="V6" s="39"/>
+      <c r="V6" s="24"/>
       <c r="W6" s="21"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
     </row>
     <row r="7" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="56">
+      <c r="A7" s="55">
         <v>3</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="20" t="s">
+      <c r="H7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="20" t="s">
+      <c r="J7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="20" t="s">
+      <c r="L7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="N7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="20" t="s">
+      <c r="N7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="P7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q7" s="20" t="s">
+      <c r="P7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="R7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="20" t="s">
+      <c r="R7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="T7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" s="20" t="s">
+      <c r="T7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="V7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W7" s="20" t="s">
+      <c r="V7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="X7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="46"/>
+      <c r="X7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="43"/>
     </row>
     <row r="8" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="57"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="53"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="66"/>
       <c r="U8" s="21"/>
-      <c r="V8" s="39"/>
+      <c r="V8" s="24"/>
       <c r="W8" s="21"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-    </row>
-    <row r="9" spans="1:30" ht="61.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="X8" s="24"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+    </row>
+    <row r="9" spans="1:30" ht="61.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14">
         <v>4</v>
       </c>
@@ -4132,7 +4196,7 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
     </row>
-    <row r="10" spans="1:30" ht="61.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:30" ht="61.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="16">
         <v>5</v>
       </c>
@@ -4184,7 +4248,7 @@
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
     </row>
-    <row r="11" spans="1:30" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:30" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="16">
         <v>6</v>
       </c>
@@ -4236,7 +4300,7 @@
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
     </row>
-    <row r="12" spans="1:30" ht="61.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="16">
         <v>7</v>
       </c>
@@ -4244,7 +4308,7 @@
         <v>111</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>133</v>
@@ -4252,8 +4316,8 @@
       <c r="E12" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>113</v>
+      <c r="F12" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -4270,26 +4334,170 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="18" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="V12" s="19" t="s">
         <v>86</v>
       </c>
       <c r="W12" s="18" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="X12" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
+      <c r="Y12" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z12" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
     </row>
+    <row r="13" spans="1:30" ht="86.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="16">
+        <v>7</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="V13" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="W13" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="X13" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z13" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="AC1:AD1"/>
@@ -4314,90 +4522,6 @@
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4407,8 +4531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A32C82-4E28-47DA-B010-C23DCFFA9445}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:V30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3:X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4419,22 +4543,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -4483,12 +4607,12 @@
       <c r="AB1" s="35"/>
     </row>
     <row r="2" spans="1:28" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -4557,126 +4681,130 @@
       </c>
     </row>
     <row r="3" spans="1:28" s="3" customFormat="1" ht="76.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="69">
+      <c r="A3" s="80">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="20" t="s">
+      <c r="H3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="R3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="20" t="s">
+      <c r="R3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="T3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="20" t="s">
+      <c r="T3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="V3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
+      <c r="V3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="X3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
     </row>
     <row r="4" spans="1:28" s="3" customFormat="1" ht="63.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="68"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="68"/>
+      <c r="K4" s="71"/>
       <c r="L4" s="49"/>
-      <c r="M4" s="68"/>
+      <c r="M4" s="71"/>
       <c r="N4" s="49"/>
-      <c r="O4" s="68"/>
+      <c r="O4" s="71"/>
       <c r="P4" s="49"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="68"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
     </row>
     <row r="5" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="69">
+      <c r="A5" s="80">
         <v>2</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>100</v>
       </c>
       <c r="G5" s="6"/>
@@ -4692,35 +4820,39 @@
       <c r="Q5" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="R5" s="23" t="s">
         <v>86</v>
       </c>
       <c r="S5" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="T5" s="38" t="s">
+      <c r="T5" s="23" t="s">
         <v>86</v>
       </c>
       <c r="U5" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="V5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
+      <c r="V5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="X5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
     </row>
     <row r="6" spans="1:28" ht="79.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -4732,35 +4864,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="76"/>
-      <c r="R6" s="53"/>
+      <c r="R6" s="66"/>
       <c r="S6" s="76"/>
-      <c r="T6" s="53"/>
+      <c r="T6" s="66"/>
       <c r="U6" s="76"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
     </row>
     <row r="7" spans="1:28" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="69">
+      <c r="A7" s="80">
         <v>3</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>100</v>
       </c>
       <c r="G7" s="6"/>
@@ -4776,35 +4908,39 @@
       <c r="Q7" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="38" t="s">
+      <c r="R7" s="23" t="s">
         <v>86</v>
       </c>
       <c r="S7" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="T7" s="38" t="s">
+      <c r="T7" s="23" t="s">
         <v>86</v>
       </c>
       <c r="U7" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="V7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
+      <c r="V7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W7" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
     </row>
     <row r="8" spans="1:28" ht="102.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -4816,35 +4952,35 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="76"/>
-      <c r="R8" s="53"/>
+      <c r="R8" s="66"/>
       <c r="S8" s="76"/>
-      <c r="T8" s="53"/>
+      <c r="T8" s="66"/>
       <c r="U8" s="76"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
     </row>
     <row r="9" spans="1:28" ht="71.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="69">
+      <c r="A9" s="80">
         <v>4</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="E9" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="6"/>
@@ -4860,35 +4996,39 @@
       <c r="Q9" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R9" s="23" t="s">
         <v>86</v>
       </c>
       <c r="S9" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="T9" s="38" t="s">
+      <c r="T9" s="23" t="s">
         <v>86</v>
       </c>
       <c r="U9" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="V9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
+      <c r="V9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W9" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
     </row>
     <row r="10" spans="1:28" ht="52.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -4900,35 +5040,35 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="76"/>
-      <c r="R10" s="53"/>
+      <c r="R10" s="66"/>
       <c r="S10" s="76"/>
-      <c r="T10" s="53"/>
+      <c r="T10" s="66"/>
       <c r="U10" s="76"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="68"/>
-      <c r="AB10" s="68"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
     </row>
     <row r="11" spans="1:28" ht="42.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="69">
+      <c r="A11" s="80">
         <v>5</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="20" t="s">
+      <c r="E11" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>100</v>
       </c>
       <c r="G11" s="6"/>
@@ -4944,35 +5084,39 @@
       <c r="Q11" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="38" t="s">
+      <c r="R11" s="23" t="s">
         <v>86</v>
       </c>
       <c r="S11" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="T11" s="38" t="s">
+      <c r="T11" s="23" t="s">
         <v>86</v>
       </c>
       <c r="U11" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="V11" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
+      <c r="V11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W11" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="X11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
     </row>
     <row r="12" spans="1:28" ht="91.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -4984,35 +5128,35 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="76"/>
-      <c r="R12" s="53"/>
+      <c r="R12" s="66"/>
       <c r="S12" s="76"/>
-      <c r="T12" s="53"/>
+      <c r="T12" s="66"/>
       <c r="U12" s="76"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
     </row>
     <row r="13" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="69">
+      <c r="A13" s="80">
         <v>6</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="22" t="s">
         <v>106</v>
       </c>
       <c r="G13" s="6"/>
@@ -5028,35 +5172,39 @@
       <c r="Q13" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R13" s="38" t="s">
+      <c r="R13" s="23" t="s">
         <v>86</v>
       </c>
       <c r="S13" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T13" s="38" t="s">
+      <c r="T13" s="23" t="s">
         <v>86</v>
       </c>
       <c r="U13" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="V13" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
+      <c r="V13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W13" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="X13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
     </row>
     <row r="14" spans="1:28" ht="88.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -5068,35 +5216,35 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="76"/>
-      <c r="R14" s="53"/>
+      <c r="R14" s="66"/>
       <c r="S14" s="76"/>
-      <c r="T14" s="53"/>
+      <c r="T14" s="66"/>
       <c r="U14" s="76"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
     </row>
     <row r="15" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="69">
+      <c r="A15" s="80">
         <v>7</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="22" t="s">
         <v>106</v>
       </c>
       <c r="G15" s="6"/>
@@ -5112,35 +5260,39 @@
       <c r="Q15" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R15" s="38" t="s">
+      <c r="R15" s="23" t="s">
         <v>86</v>
       </c>
       <c r="S15" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T15" s="38" t="s">
+      <c r="T15" s="23" t="s">
         <v>86</v>
       </c>
       <c r="U15" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="V15" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
+      <c r="V15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W15" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="X15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
     </row>
     <row r="16" spans="1:28" ht="58.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -5152,35 +5304,35 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="76"/>
-      <c r="R16" s="53"/>
+      <c r="R16" s="66"/>
       <c r="S16" s="76"/>
-      <c r="T16" s="53"/>
+      <c r="T16" s="66"/>
       <c r="U16" s="76"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
     </row>
     <row r="17" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="69">
+      <c r="A17" s="80">
         <v>8</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="22" t="s">
         <v>106</v>
       </c>
       <c r="G17" s="6"/>
@@ -5196,35 +5348,39 @@
       <c r="Q17" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R17" s="38" t="s">
+      <c r="R17" s="23" t="s">
         <v>86</v>
       </c>
       <c r="S17" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T17" s="38" t="s">
+      <c r="T17" s="23" t="s">
         <v>86</v>
       </c>
       <c r="U17" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="V17" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
+      <c r="V17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W17" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="X17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
     </row>
     <row r="18" spans="1:28" ht="43.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -5236,35 +5392,35 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="76"/>
-      <c r="R18" s="53"/>
+      <c r="R18" s="66"/>
       <c r="S18" s="76"/>
-      <c r="T18" s="53"/>
+      <c r="T18" s="66"/>
       <c r="U18" s="76"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="68"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
     </row>
     <row r="19" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="69">
+      <c r="A19" s="80">
         <v>9</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="22" t="s">
         <v>106</v>
       </c>
       <c r="G19" s="6"/>
@@ -5280,35 +5436,39 @@
       <c r="Q19" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R19" s="38" t="s">
+      <c r="R19" s="23" t="s">
         <v>86</v>
       </c>
       <c r="S19" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T19" s="38" t="s">
+      <c r="T19" s="23" t="s">
         <v>86</v>
       </c>
       <c r="U19" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="V19" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
+      <c r="V19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W19" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="X19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
     </row>
     <row r="20" spans="1:28" ht="43.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -5320,35 +5480,35 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="76"/>
-      <c r="R20" s="53"/>
+      <c r="R20" s="66"/>
       <c r="S20" s="76"/>
-      <c r="T20" s="53"/>
+      <c r="T20" s="66"/>
       <c r="U20" s="76"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
     </row>
     <row r="21" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="69">
+      <c r="A21" s="80">
         <v>10</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="22" t="s">
         <v>106</v>
       </c>
       <c r="G21" s="6"/>
@@ -5364,35 +5524,39 @@
       <c r="Q21" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R21" s="38" t="s">
+      <c r="R21" s="23" t="s">
         <v>86</v>
       </c>
       <c r="S21" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T21" s="38" t="s">
+      <c r="T21" s="23" t="s">
         <v>86</v>
       </c>
       <c r="U21" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="V21" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
+      <c r="V21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W21" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="X21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
     </row>
     <row r="22" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -5404,35 +5568,35 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="76"/>
-      <c r="R22" s="53"/>
+      <c r="R22" s="66"/>
       <c r="S22" s="76"/>
-      <c r="T22" s="53"/>
+      <c r="T22" s="66"/>
       <c r="U22" s="76"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="68"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="76"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
     </row>
     <row r="23" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="69">
+      <c r="A23" s="80">
         <v>11</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="20" t="s">
+      <c r="E23" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>106</v>
       </c>
       <c r="G23" s="6"/>
@@ -5448,35 +5612,39 @@
       <c r="Q23" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R23" s="38" t="s">
+      <c r="R23" s="23" t="s">
         <v>86</v>
       </c>
       <c r="S23" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T23" s="38" t="s">
+      <c r="T23" s="23" t="s">
         <v>86</v>
       </c>
       <c r="U23" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="V23" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
+      <c r="V23" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W23" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="X23" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
     </row>
     <row r="24" spans="1:28" ht="99.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5488,35 +5656,35 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="76"/>
-      <c r="R24" s="53"/>
+      <c r="R24" s="66"/>
       <c r="S24" s="76"/>
-      <c r="T24" s="53"/>
+      <c r="T24" s="66"/>
       <c r="U24" s="76"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="68"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="68"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
     </row>
     <row r="25" spans="1:28" ht="36.549999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="69">
+      <c r="A25" s="80">
         <v>12</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="22" t="s">
         <v>106</v>
       </c>
       <c r="G25" s="6"/>
@@ -5532,35 +5700,39 @@
       <c r="Q25" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R25" s="38" t="s">
+      <c r="R25" s="23" t="s">
         <v>86</v>
       </c>
       <c r="S25" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T25" s="38" t="s">
+      <c r="T25" s="23" t="s">
         <v>86</v>
       </c>
       <c r="U25" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="V25" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
+      <c r="V25" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W25" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="X25" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
     </row>
     <row r="26" spans="1:28" ht="108.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -5572,35 +5744,35 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="76"/>
-      <c r="R26" s="53"/>
+      <c r="R26" s="66"/>
       <c r="S26" s="76"/>
-      <c r="T26" s="53"/>
+      <c r="T26" s="66"/>
       <c r="U26" s="76"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="68"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
     </row>
     <row r="27" spans="1:28" ht="58.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="69">
+      <c r="A27" s="80">
         <v>13</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="20" t="s">
+      <c r="E27" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="22" t="s">
         <v>106</v>
       </c>
       <c r="G27" s="6"/>
@@ -5616,33 +5788,37 @@
       <c r="Q27" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R27" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S27" s="80" t="s">
+      <c r="R27" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S27" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="T27" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U27" s="80" t="s">
+      <c r="T27" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U27" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="V27" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
+      <c r="V27" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W27" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="X27" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
     </row>
     <row r="28" spans="1:28" ht="104.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="74"/>
       <c r="B28" s="74"/>
       <c r="C28" s="74"/>
-      <c r="D28" s="72"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="74"/>
       <c r="F28" s="74"/>
       <c r="G28" s="6"/>
@@ -5656,35 +5832,35 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="77"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="81"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="74"/>
-      <c r="X28" s="74"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="66"/>
       <c r="Y28" s="74"/>
       <c r="Z28" s="74"/>
       <c r="AA28" s="74"/>
       <c r="AB28" s="74"/>
     </row>
     <row r="29" spans="1:28" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="56">
+      <c r="A29" s="55">
         <v>14</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="F29" s="73" t="s">
+      <c r="E29" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="68" t="s">
         <v>106</v>
       </c>
       <c r="G29" s="6"/>
@@ -5697,38 +5873,42 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="73" t="s">
+      <c r="Q29" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="R29" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="S29" s="73" t="s">
+      <c r="R29" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="S29" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="T29" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="U29" s="73" t="s">
+      <c r="T29" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="U29" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="V29" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
-      <c r="Z29" s="73"/>
-      <c r="AA29" s="73"/>
-      <c r="AB29" s="73"/>
+      <c r="V29" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="W29" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="X29" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y29" s="68"/>
+      <c r="Z29" s="68"/>
+      <c r="AA29" s="68"/>
+      <c r="AB29" s="68"/>
     </row>
     <row r="30" spans="1:28" ht="88.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -5739,185 +5919,112 @@
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="57"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="56"/>
+      <c r="AB30" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="279">
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F23:F24"/>
@@ -5942,97 +6049,170 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6041,10 +6221,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57356F81-C035-4AAA-8EFA-FCD653420C4E}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K10"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6055,19 +6235,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="35" t="s">
@@ -6092,11 +6272,11 @@
       <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
@@ -6129,265 +6309,515 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="83">
+      <c r="A3" s="85">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="20" t="s">
+      <c r="G3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="20" t="s">
+      <c r="I3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="38"/>
-    </row>
-    <row r="4" spans="1:15" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="37"/>
+      <c r="K3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="23"/>
+    </row>
+    <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="82"/>
-      <c r="H4" s="37"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="82"/>
-      <c r="J4" s="37"/>
+      <c r="J4" s="32"/>
       <c r="K4" s="82"/>
-      <c r="L4" s="68"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="82"/>
-      <c r="N4" s="68"/>
+      <c r="N4" s="71"/>
       <c r="O4" s="82"/>
     </row>
     <row r="5" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="83">
+      <c r="A5" s="85">
         <v>2</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="20" t="s">
+      <c r="I5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="K5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="38"/>
+      <c r="K5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="22"/>
+      <c r="O5" s="23"/>
     </row>
     <row r="6" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="82"/>
-      <c r="H6" s="68"/>
+      <c r="H6" s="71"/>
       <c r="I6" s="82"/>
-      <c r="J6" s="68"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="82"/>
-      <c r="L6" s="68"/>
+      <c r="L6" s="71"/>
       <c r="M6" s="82"/>
-      <c r="N6" s="68"/>
+      <c r="N6" s="71"/>
       <c r="O6" s="82"/>
     </row>
     <row r="7" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="83">
+      <c r="A7" s="85">
         <v>3</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="20" t="s">
+      <c r="G7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="38"/>
+      <c r="K7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="22"/>
+      <c r="O7" s="23"/>
     </row>
     <row r="8" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
       <c r="G8" s="82"/>
-      <c r="H8" s="68"/>
+      <c r="H8" s="71"/>
       <c r="I8" s="82"/>
-      <c r="J8" s="68"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="82"/>
-      <c r="L8" s="68"/>
+      <c r="L8" s="71"/>
       <c r="M8" s="82"/>
-      <c r="N8" s="68"/>
+      <c r="N8" s="71"/>
       <c r="O8" s="82"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="83">
+      <c r="A9" s="85">
         <v>4</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>117</v>
       </c>
       <c r="F9" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="20" t="s">
+      <c r="G9" s="87"/>
+      <c r="H9" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="20" t="s">
+      <c r="I9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="K9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="38"/>
+      <c r="K9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="22"/>
+      <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:15" ht="53.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="76"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="68"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="71"/>
       <c r="I10" s="82"/>
-      <c r="J10" s="68"/>
+      <c r="J10" s="71"/>
       <c r="K10" s="82"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="88"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="84"/>
+    </row>
+    <row r="11" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="85">
+        <v>5</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="22"/>
+      <c r="O11" s="23"/>
+    </row>
+    <row r="12" spans="1:15" ht="54.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="82"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="85">
+        <v>6</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="22"/>
+      <c r="O13" s="23"/>
+    </row>
+    <row r="14" spans="1:15" ht="48.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="82"/>
+    </row>
+    <row r="15" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="85">
+        <v>7</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="22"/>
+      <c r="O15" s="23"/>
+    </row>
+    <row r="16" spans="1:15" ht="63.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="82"/>
+    </row>
+    <row r="17" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="85">
+        <v>8</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="90"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" s="22"/>
+      <c r="O17" s="23"/>
+    </row>
+    <row r="18" spans="1:15" ht="58.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
+  <mergeCells count="130">
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A9:A10"/>
@@ -6404,24 +6834,42 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Cases/Test Cases.xlsx
+++ b/Test Cases/Test Cases.xlsx
@@ -3,30 +3,38 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31D4E49-8A21-4F4F-B5F6-D379E6758D16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AF3809-8DD3-4302-BB62-4FF8E198CA9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Registration" sheetId="3" r:id="rId1"/>
-    <sheet name="Login" sheetId="1" r:id="rId2"/>
-    <sheet name="Upload" sheetId="2" r:id="rId3"/>
-    <sheet name="Export" sheetId="4" r:id="rId4"/>
+    <sheet name="Registration" sheetId="3" state="hidden" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="Upload" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Export" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="View Dataset" sheetId="6" r:id="rId5"/>
     <sheet name="Correlation" sheetId="8" r:id="rId6"/>
-    <sheet name="Web Crawling" sheetId="9" r:id="rId7"/>
+    <sheet name="Weather Crawling" sheetId="9" r:id="rId7"/>
+    <sheet name="Twitter Crawling" sheetId="11" r:id="rId8"/>
+    <sheet name="Share Price Crawling" sheetId="12" r:id="rId9"/>
+    <sheet name="Sentiment analysis &amp; TM" sheetId="14" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="183">
   <si>
     <t>S/N</t>
   </si>
@@ -452,9 +460,6 @@
     <t>Something is wrong with displayTable method</t>
   </si>
   <si>
-    <t>Web Crawling</t>
-  </si>
-  <si>
     <t>Crawl weather data through HTTP request</t>
   </si>
   <si>
@@ -671,6 +676,110 @@
 5. Select filter by date or activitydate and range between 01/10/2018 to 10/10/2018
 6. Generate Scatterplot
 </t>
+  </si>
+  <si>
+    <t>Weather Crawling</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Twitter data saved into a csv file</t>
+  </si>
+  <si>
+    <t>Twitter data saved into database</t>
+  </si>
+  <si>
+    <t>Share Price Crawling</t>
+  </si>
+  <si>
+    <t>Crawl twitter data through HTTP request</t>
+  </si>
+  <si>
+    <t>Crawl share price data through HTTP request</t>
+  </si>
+  <si>
+    <t>1. Login and select share price crawling tab
+2. select deutche post ag
+3.Save as CSV</t>
+  </si>
+  <si>
+    <t>1. Login and select share price crawling tab
+2. select deutche post ag
+3.Save to database</t>
+  </si>
+  <si>
+    <t>1. Login and select share price crawling tab
+2. select FedEx corporation
+3.Save as CSV</t>
+  </si>
+  <si>
+    <t>1. Login and select share price crawling tab
+2. select FedEx corporation
+3.Save to database</t>
+  </si>
+  <si>
+    <t>1. Login and select share price crawling tab
+2. select united parcel
+3.Save as CSV</t>
+  </si>
+  <si>
+    <t>1. Login and select share price crawling tab
+2. select united parcel
+3.Save to database</t>
+  </si>
+  <si>
+    <t>Share price data saved into a csv file</t>
+  </si>
+  <si>
+    <t>Share price data saved into database</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Run analysis based on the tweets retrieved.</t>
+  </si>
+  <si>
+    <t>1. Login and select analysis tab
+2. Select a tweets dataset
+3. Run the analysis</t>
+  </si>
+  <si>
+    <t>There should be a graph showing the number of postive, neutral, and negative tweets</t>
+  </si>
+  <si>
+    <t>There should be a table on topic modelling</t>
+  </si>
+  <si>
+    <t>There should be a word cloud on the most frequent word on both postive and negative tweets</t>
+  </si>
+  <si>
+    <t>Table for each tweet's score is shown.</t>
+  </si>
+  <si>
+    <t>1. Login and select twitter crawling tab
+2. Use "DHL" as a tag and to retrieve 1000 tweets
+3. Select a date
+4.Save as CSV</t>
+  </si>
+  <si>
+    <t>1. Login and select twitter crawling tab
+2. Use "DHL" as a tag and to retrieve 1000 tweets
+3. Select a date
+4.Save to database</t>
+  </si>
+  <si>
+    <t>1. Login and select twitter crawling tab
+2. Use "FedEx" as a tag and to retrieve 1000 tweets
+3. Select a date
+4.Save as CSV</t>
+  </si>
+  <si>
+    <t>1. Login and select twitter crawling tab
+2. Use "FedEx" as a tag and to retrieve 1000 tweets
+3. Select a date
+4.Save database</t>
   </si>
 </sst>
 </file>
@@ -947,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -999,10 +1108,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1012,46 +1160,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1059,20 +1168,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1087,11 +1196,12 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1111,39 +1221,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1158,32 +1267,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1193,6 +1293,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1482,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCA99E9-5927-430E-9257-00D8845FEFB1}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E4" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -1497,22 +1600,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -1525,12 +1628,12 @@
       <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1545,77 +1648,77 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="29">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="26" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="30"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="21"/>
-      <c r="F4" s="32"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="28"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="21.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="29">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="27"/>
+      <c r="H5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="30"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="1" t="s">
@@ -1624,40 +1727,40 @@
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="28"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:10" ht="29.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="29">
+      <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="26" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="27"/>
+      <c r="H7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="30"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="1" t="s">
@@ -1666,40 +1769,40 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="28"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:10" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="29">
+      <c r="A9" s="24">
         <v>3</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="26" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="38" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="30"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="1" t="s">
@@ -1708,40 +1811,40 @@
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
-      <c r="H10" s="24"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="29">
+      <c r="A11" s="24">
         <v>3</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="26" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="38" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="30"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="1" t="s">
@@ -1750,40 +1853,40 @@
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="24"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="34.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="29">
+      <c r="A13" s="24">
         <v>4</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="26" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="27"/>
+      <c r="H13" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="30"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="1" t="s">
@@ -1792,40 +1895,40 @@
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="28"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="29">
+      <c r="A15" s="24">
         <v>5</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="26" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="27"/>
+      <c r="H15" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="30"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="1" t="s">
@@ -1834,40 +1937,40 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="28"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="29">
+      <c r="A17" s="24">
         <v>6</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="27"/>
+      <c r="H17" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="32"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="30"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="1" t="s">
@@ -1876,12 +1979,72 @@
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="28"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A9:A10"/>
@@ -1898,66 +2061,283 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E58DDB3-843E-4853-B232-227E39611710}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="31.47265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="83">
+        <v>1</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="132.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="82"/>
+    </row>
+    <row r="5" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="83">
+        <v>2</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="82"/>
+    </row>
+    <row r="7" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="83">
+        <v>3</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="82"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="83">
+        <v>4</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="53.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="82"/>
+    </row>
+    <row r="11" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:9" ht="63.9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="58.8" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1994,22 +2374,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -2022,12 +2402,12 @@
       <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2042,39 +2422,39 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="29">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="38" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="30"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="1" t="s">
@@ -2083,44 +2463,44 @@
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="24"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="21"/>
-      <c r="J4" s="24"/>
+      <c r="J4" s="39"/>
     </row>
     <row r="5" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="29">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="22" t="s">
+      <c r="H5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="38" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="30"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="1" t="s">
@@ -2129,44 +2509,44 @@
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="24"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="29">
+      <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="26" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="22" t="s">
+      <c r="H7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="38" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="30"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="1" t="s">
@@ -2175,85 +2555,85 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="24"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="24"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="29">
+      <c r="A9" s="24">
         <v>4</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="22" t="s">
+      <c r="H9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="38" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="30"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="21"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="24"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="24"/>
+      <c r="J10" s="39"/>
     </row>
     <row r="11" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="29">
+      <c r="A11" s="24">
         <v>5</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="22" t="s">
+      <c r="H11" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="38" t="s">
         <v>86</v>
       </c>
       <c r="K11" t="s">
@@ -2261,7 +2641,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="30"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="1" t="s">
@@ -2270,44 +2650,44 @@
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="24"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="39"/>
     </row>
     <row r="13" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="29">
+      <c r="A13" s="24">
         <v>6</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="26" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="22" t="s">
+      <c r="H13" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="38" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="30"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="1" t="s">
@@ -2316,27 +2696,27 @@
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="24"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="24"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="29">
+      <c r="A15" s="24">
         <v>7</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="20" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="41"/>
@@ -2345,7 +2725,7 @@
       <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="30"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="1" t="s">
@@ -2359,31 +2739,31 @@
       <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="29">
+      <c r="A17" s="24">
         <v>8</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="26" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="1:10" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="30"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="1" t="s">
@@ -2391,28 +2771,28 @@
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="29">
+      <c r="A19" s="24">
         <v>9</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="26" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="20" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="41"/>
@@ -2421,7 +2801,7 @@
       <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:10" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="30"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="1" t="s">
@@ -2436,15 +2816,70 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
@@ -2461,70 +2896,15 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2547,22 +2927,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -2575,12 +2955,12 @@
       <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2595,239 +2975,241 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="29">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="30" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="30"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="44"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="34"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="29">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="30" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="30"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="44"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="34"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="29">
+      <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="30" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="30"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="44"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="34"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="29">
+      <c r="A9" s="24">
         <v>4</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="26" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="22" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="30" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="30"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="44"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="34"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="29">
+      <c r="A11" s="24">
         <v>5</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="26" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="22" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="30" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="30"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="44"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="34"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -2844,28 +3226,26 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2887,22 +3267,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -2959,12 +3339,12 @@
       <c r="AF1" s="35"/>
     </row>
     <row r="2" spans="1:32" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3045,467 +3425,526 @@
       </c>
     </row>
     <row r="3" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="29">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="22" t="s">
+      <c r="L3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="22" t="s">
+      <c r="N3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="22" t="s">
+      <c r="R3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="25"/>
+      <c r="T3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="32"/>
       <c r="V3" s="48"/>
-      <c r="W3" s="25"/>
+      <c r="W3" s="32"/>
       <c r="X3" s="48"/>
-      <c r="Y3" s="25"/>
+      <c r="Y3" s="32"/>
       <c r="Z3" s="48"/>
-      <c r="AA3" s="25"/>
+      <c r="AA3" s="32"/>
       <c r="AB3" s="48"/>
-      <c r="AC3" s="25"/>
+      <c r="AC3" s="32"/>
       <c r="AD3" s="48"/>
-      <c r="AE3" s="25"/>
+      <c r="AE3" s="32"/>
       <c r="AF3" s="48"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="30"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="44"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="30"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="49"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="24"/>
+      <c r="L4" s="39"/>
       <c r="M4" s="21"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="30"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="25"/>
       <c r="P4" s="49"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="24"/>
+      <c r="R4" s="39"/>
       <c r="S4" s="21"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
     </row>
     <row r="5" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="29">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="22" t="s">
+      <c r="H5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="22" t="s">
+      <c r="L5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="22" t="s">
+      <c r="N5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="Q5" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="R5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="22" t="s">
+      <c r="R5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5" s="25"/>
+      <c r="T5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="32"/>
       <c r="V5" s="48"/>
-      <c r="W5" s="25"/>
+      <c r="W5" s="32"/>
       <c r="X5" s="48"/>
-      <c r="Y5" s="25"/>
+      <c r="Y5" s="32"/>
       <c r="Z5" s="48"/>
-      <c r="AA5" s="25"/>
+      <c r="AA5" s="32"/>
       <c r="AB5" s="48"/>
-      <c r="AC5" s="25"/>
+      <c r="AC5" s="32"/>
       <c r="AD5" s="48"/>
-      <c r="AE5" s="25"/>
+      <c r="AE5" s="32"/>
       <c r="AF5" s="48"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="30"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="44"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="30"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="49"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="24"/>
+      <c r="L6" s="39"/>
       <c r="M6" s="21"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="30"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="25"/>
       <c r="P6" s="49"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="24"/>
+      <c r="R6" s="39"/>
       <c r="S6" s="21"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
     </row>
     <row r="7" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="29">
+      <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="22" t="s">
+      <c r="H7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="22" t="s">
+      <c r="L7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="22" t="s">
+      <c r="N7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="P7" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="22" t="s">
+      <c r="Q7" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="R7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="22" t="s">
+      <c r="R7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="T7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" s="25"/>
+      <c r="T7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="32"/>
       <c r="V7" s="48"/>
-      <c r="W7" s="25"/>
+      <c r="W7" s="32"/>
       <c r="X7" s="48"/>
-      <c r="Y7" s="25"/>
+      <c r="Y7" s="32"/>
       <c r="Z7" s="48"/>
-      <c r="AA7" s="25"/>
+      <c r="AA7" s="32"/>
       <c r="AB7" s="48"/>
-      <c r="AC7" s="25"/>
+      <c r="AC7" s="32"/>
       <c r="AD7" s="48"/>
-      <c r="AE7" s="25"/>
+      <c r="AE7" s="32"/>
       <c r="AF7" s="48"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="30"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="44"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="30"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="49"/>
       <c r="K8" s="21"/>
-      <c r="L8" s="24"/>
+      <c r="L8" s="39"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="30"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="25"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="24"/>
+      <c r="R8" s="39"/>
       <c r="S8" s="21"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
     </row>
     <row r="9" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="29">
+      <c r="A9" s="24">
         <v>4</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="26" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="51"/>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="22" t="s">
+      <c r="L9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" s="22" t="s">
+      <c r="N9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="P9" s="33" t="s">
+      <c r="P9" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="Q9" s="22" t="s">
+      <c r="Q9" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="R9" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" s="22" t="s">
+      <c r="R9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S9" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="T9" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="U9" s="25"/>
+      <c r="T9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="32"/>
       <c r="V9" s="48"/>
-      <c r="W9" s="25"/>
+      <c r="W9" s="32"/>
       <c r="X9" s="48"/>
-      <c r="Y9" s="25"/>
+      <c r="Y9" s="32"/>
       <c r="Z9" s="48"/>
-      <c r="AA9" s="25"/>
+      <c r="AA9" s="32"/>
       <c r="AB9" s="48"/>
-      <c r="AC9" s="25"/>
+      <c r="AC9" s="32"/>
       <c r="AD9" s="48"/>
-      <c r="AE9" s="25"/>
+      <c r="AE9" s="32"/>
       <c r="AF9" s="48"/>
     </row>
     <row r="10" spans="1:32" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="30"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="44"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="50"/>
       <c r="H10" s="52"/>
-      <c r="I10" s="30"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="49"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="24"/>
+      <c r="L10" s="39"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="30"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="25"/>
       <c r="P10" s="49"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="24"/>
+      <c r="R10" s="39"/>
       <c r="S10" s="21"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="O1:P1"/>
@@ -3530,97 +3969,38 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3630,8 +4010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5958A5D-193E-40FD-A829-53ED413F4D4A}">
   <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13:Z13"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5:AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3649,22 +4029,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -3717,12 +4097,12 @@
       <c r="AD1" s="35"/>
     </row>
     <row r="2" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="62"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3797,350 +4177,358 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="56.05" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="55">
+      <c r="A3" s="56">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="V3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="X3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="46"/>
+    </row>
+    <row r="4" spans="1:30" ht="56.05" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="57"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+    </row>
+    <row r="5" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="56">
+        <v>2</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="59" t="s">
+      <c r="D5" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="22" t="s">
+      <c r="H5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="22" t="s">
+      <c r="J5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="22" t="s">
+      <c r="L5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="22" t="s">
+      <c r="N5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="P3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" s="22" t="s">
+      <c r="P5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="22" t="s">
+      <c r="R5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="U5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="22" t="s">
+      <c r="V5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="V3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="W3" s="22" t="s">
+      <c r="X5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="X3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="43"/>
-    </row>
-    <row r="4" spans="1:30" ht="56.05" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="56"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-    </row>
-    <row r="5" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="55">
-        <v>2</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="Z5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="T5" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="U5" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="V5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="W5" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="X5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y5" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="43"/>
+      <c r="AB5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="46"/>
     </row>
     <row r="6" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="56"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="24"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="24"/>
+      <c r="L6" s="39"/>
       <c r="M6" s="21"/>
-      <c r="N6" s="24"/>
+      <c r="N6" s="39"/>
       <c r="O6" s="21"/>
-      <c r="P6" s="24"/>
+      <c r="P6" s="39"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="24"/>
+      <c r="R6" s="39"/>
       <c r="S6" s="21"/>
       <c r="T6" s="49"/>
       <c r="U6" s="21"/>
-      <c r="V6" s="24"/>
+      <c r="V6" s="39"/>
       <c r="W6" s="21"/>
-      <c r="X6" s="24"/>
+      <c r="X6" s="39"/>
       <c r="Y6" s="21"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
     </row>
     <row r="7" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="55">
+      <c r="A7" s="56">
         <v>3</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="22" t="s">
+      <c r="H7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="22" t="s">
+      <c r="J7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="22" t="s">
+      <c r="L7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="22" t="s">
+      <c r="N7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="P7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q7" s="22" t="s">
+      <c r="P7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="22" t="s">
+      <c r="R7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="T7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" s="22" t="s">
+      <c r="T7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="V7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="W7" s="22" t="s">
+      <c r="V7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="X7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y7" s="22" t="s">
+      <c r="X7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="43"/>
+      <c r="Z7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA7" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="46"/>
     </row>
     <row r="8" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="66"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="53"/>
       <c r="U8" s="21"/>
-      <c r="V8" s="24"/>
+      <c r="V8" s="39"/>
       <c r="W8" s="21"/>
-      <c r="X8" s="24"/>
+      <c r="X8" s="39"/>
       <c r="Y8" s="21"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-    </row>
-    <row r="9" spans="1:30" ht="61.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+    </row>
+    <row r="9" spans="1:30" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14">
         <v>4</v>
       </c>
@@ -4151,10 +4539,10 @@
         <v>112</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>113</v>
@@ -4196,7 +4584,7 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
     </row>
-    <row r="10" spans="1:30" ht="61.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:30" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="16">
         <v>5</v>
       </c>
@@ -4207,10 +4595,10 @@
         <v>112</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>113</v>
@@ -4248,7 +4636,7 @@
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
     </row>
-    <row r="11" spans="1:30" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:30" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="16">
         <v>6</v>
       </c>
@@ -4259,13 +4647,13 @@
         <v>112</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -4308,16 +4696,16 @@
         <v>111</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -4334,25 +4722,29 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V12" s="19" t="s">
         <v>86</v>
       </c>
       <c r="W12" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X12" s="19" t="s">
         <v>86</v>
       </c>
       <c r="Y12" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z12" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
+      <c r="AA12" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB12" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
     </row>
@@ -4364,13 +4756,13 @@
         <v>111</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>113</v>
@@ -4407,39 +4799,75 @@
       <c r="Z13" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
+      <c r="AA13" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB13" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
@@ -4464,64 +4892,32 @@
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4531,8 +4927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A32C82-4E28-47DA-B010-C23DCFFA9445}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:X30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3:Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4543,22 +4939,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -4607,12 +5003,12 @@
       <c r="AB1" s="35"/>
     </row>
     <row r="2" spans="1:28" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -4681,130 +5077,134 @@
       </c>
     </row>
     <row r="3" spans="1:28" s="3" customFormat="1" ht="76.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="80">
+      <c r="A3" s="69">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="R3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="22" t="s">
+      <c r="R3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="T3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="22" t="s">
+      <c r="T3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="V3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="W3" s="22" t="s">
+      <c r="V3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="X3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
+      <c r="X3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
     </row>
     <row r="4" spans="1:28" s="3" customFormat="1" ht="63.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="68"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="71"/>
+      <c r="K4" s="68"/>
       <c r="L4" s="49"/>
-      <c r="M4" s="71"/>
+      <c r="M4" s="68"/>
       <c r="N4" s="49"/>
-      <c r="O4" s="71"/>
+      <c r="O4" s="68"/>
       <c r="P4" s="49"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
     </row>
     <row r="5" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="80">
+      <c r="A5" s="69">
         <v>2</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="D5" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>100</v>
       </c>
       <c r="G5" s="6"/>
@@ -4820,39 +5220,43 @@
       <c r="Q5" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="R5" s="38" t="s">
         <v>86</v>
       </c>
       <c r="S5" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="T5" s="23" t="s">
+      <c r="T5" s="38" t="s">
         <v>86</v>
       </c>
       <c r="U5" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="V5" s="23" t="s">
+      <c r="V5" s="38" t="s">
         <v>86</v>
       </c>
       <c r="W5" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="X5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
+      <c r="X5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
     </row>
     <row r="6" spans="1:28" ht="79.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -4864,35 +5268,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="76"/>
-      <c r="R6" s="66"/>
+      <c r="R6" s="53"/>
       <c r="S6" s="76"/>
-      <c r="T6" s="66"/>
+      <c r="T6" s="53"/>
       <c r="U6" s="76"/>
-      <c r="V6" s="66"/>
+      <c r="V6" s="53"/>
       <c r="W6" s="76"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
     </row>
     <row r="7" spans="1:28" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="80">
+      <c r="A7" s="69">
         <v>3</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="22" t="s">
+      <c r="D7" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>100</v>
       </c>
       <c r="G7" s="6"/>
@@ -4908,39 +5312,43 @@
       <c r="Q7" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="23" t="s">
+      <c r="R7" s="38" t="s">
         <v>86</v>
       </c>
       <c r="S7" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="T7" s="23" t="s">
+      <c r="T7" s="38" t="s">
         <v>86</v>
       </c>
       <c r="U7" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="V7" s="23" t="s">
+      <c r="V7" s="38" t="s">
         <v>86</v>
       </c>
       <c r="W7" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="X7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
+      <c r="X7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
     </row>
     <row r="8" spans="1:28" ht="102.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -4952,35 +5360,35 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="76"/>
-      <c r="R8" s="66"/>
+      <c r="R8" s="53"/>
       <c r="S8" s="76"/>
-      <c r="T8" s="66"/>
+      <c r="T8" s="53"/>
       <c r="U8" s="76"/>
-      <c r="V8" s="66"/>
+      <c r="V8" s="53"/>
       <c r="W8" s="76"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
     </row>
     <row r="9" spans="1:28" ht="71.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="80">
+      <c r="A9" s="69">
         <v>4</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="D9" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="6"/>
@@ -4996,39 +5404,43 @@
       <c r="Q9" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="R9" s="38" t="s">
         <v>86</v>
       </c>
       <c r="S9" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="T9" s="23" t="s">
+      <c r="T9" s="38" t="s">
         <v>86</v>
       </c>
       <c r="U9" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="V9" s="23" t="s">
+      <c r="V9" s="38" t="s">
         <v>86</v>
       </c>
       <c r="W9" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="X9" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
+      <c r="X9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y9" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
     </row>
     <row r="10" spans="1:28" ht="52.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5040,35 +5452,35 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="76"/>
-      <c r="R10" s="66"/>
+      <c r="R10" s="53"/>
       <c r="S10" s="76"/>
-      <c r="T10" s="66"/>
+      <c r="T10" s="53"/>
       <c r="U10" s="76"/>
-      <c r="V10" s="66"/>
+      <c r="V10" s="53"/>
       <c r="W10" s="76"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
     </row>
     <row r="11" spans="1:28" ht="42.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="80">
+      <c r="A11" s="69">
         <v>5</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="22" t="s">
+      <c r="D11" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>100</v>
       </c>
       <c r="G11" s="6"/>
@@ -5084,39 +5496,43 @@
       <c r="Q11" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="R11" s="38" t="s">
         <v>86</v>
       </c>
       <c r="S11" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="T11" s="23" t="s">
+      <c r="T11" s="38" t="s">
         <v>86</v>
       </c>
       <c r="U11" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="V11" s="23" t="s">
+      <c r="V11" s="38" t="s">
         <v>86</v>
       </c>
       <c r="W11" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="X11" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
+      <c r="X11" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y11" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z11" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
     </row>
     <row r="12" spans="1:28" ht="91.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -5128,35 +5544,35 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="76"/>
-      <c r="R12" s="66"/>
+      <c r="R12" s="53"/>
       <c r="S12" s="76"/>
-      <c r="T12" s="66"/>
+      <c r="T12" s="53"/>
       <c r="U12" s="76"/>
-      <c r="V12" s="66"/>
+      <c r="V12" s="53"/>
       <c r="W12" s="76"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
     </row>
     <row r="13" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="80">
+      <c r="A13" s="69">
         <v>6</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="D13" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="20" t="s">
         <v>106</v>
       </c>
       <c r="G13" s="6"/>
@@ -5172,39 +5588,43 @@
       <c r="Q13" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R13" s="23" t="s">
+      <c r="R13" s="38" t="s">
         <v>86</v>
       </c>
       <c r="S13" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T13" s="23" t="s">
+      <c r="T13" s="38" t="s">
         <v>86</v>
       </c>
       <c r="U13" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="V13" s="23" t="s">
+      <c r="V13" s="38" t="s">
         <v>86</v>
       </c>
       <c r="W13" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="X13" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
+      <c r="X13" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z13" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
     </row>
     <row r="14" spans="1:28" ht="88.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -5216,35 +5636,35 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="76"/>
-      <c r="R14" s="66"/>
+      <c r="R14" s="53"/>
       <c r="S14" s="76"/>
-      <c r="T14" s="66"/>
+      <c r="T14" s="53"/>
       <c r="U14" s="76"/>
-      <c r="V14" s="66"/>
+      <c r="V14" s="53"/>
       <c r="W14" s="76"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="71"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
     </row>
     <row r="15" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="80">
+      <c r="A15" s="69">
         <v>7</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="22" t="s">
+      <c r="D15" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="20" t="s">
         <v>106</v>
       </c>
       <c r="G15" s="6"/>
@@ -5260,39 +5680,43 @@
       <c r="Q15" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="R15" s="38" t="s">
         <v>86</v>
       </c>
       <c r="S15" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T15" s="23" t="s">
+      <c r="T15" s="38" t="s">
         <v>86</v>
       </c>
       <c r="U15" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="V15" s="23" t="s">
+      <c r="V15" s="38" t="s">
         <v>86</v>
       </c>
       <c r="W15" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="X15" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
+      <c r="X15" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y15" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z15" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
     </row>
     <row r="16" spans="1:28" ht="58.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -5304,35 +5728,35 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="76"/>
-      <c r="R16" s="66"/>
+      <c r="R16" s="53"/>
       <c r="S16" s="76"/>
-      <c r="T16" s="66"/>
+      <c r="T16" s="53"/>
       <c r="U16" s="76"/>
-      <c r="V16" s="66"/>
+      <c r="V16" s="53"/>
       <c r="W16" s="76"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
     </row>
     <row r="17" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="80">
+      <c r="A17" s="69">
         <v>8</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="22" t="s">
+      <c r="D17" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="20" t="s">
         <v>106</v>
       </c>
       <c r="G17" s="6"/>
@@ -5348,39 +5772,43 @@
       <c r="Q17" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R17" s="23" t="s">
+      <c r="R17" s="38" t="s">
         <v>86</v>
       </c>
       <c r="S17" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T17" s="23" t="s">
+      <c r="T17" s="38" t="s">
         <v>86</v>
       </c>
       <c r="U17" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="V17" s="23" t="s">
+      <c r="V17" s="38" t="s">
         <v>86</v>
       </c>
       <c r="W17" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="X17" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
+      <c r="X17" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y17" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z17" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
     </row>
     <row r="18" spans="1:28" ht="43.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -5392,35 +5820,35 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="76"/>
-      <c r="R18" s="66"/>
+      <c r="R18" s="53"/>
       <c r="S18" s="76"/>
-      <c r="T18" s="66"/>
+      <c r="T18" s="53"/>
       <c r="U18" s="76"/>
-      <c r="V18" s="66"/>
+      <c r="V18" s="53"/>
       <c r="W18" s="76"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
     </row>
     <row r="19" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="80">
+      <c r="A19" s="69">
         <v>9</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="22" t="s">
+      <c r="D19" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="20" t="s">
         <v>106</v>
       </c>
       <c r="G19" s="6"/>
@@ -5436,39 +5864,43 @@
       <c r="Q19" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R19" s="23" t="s">
+      <c r="R19" s="38" t="s">
         <v>86</v>
       </c>
       <c r="S19" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T19" s="23" t="s">
+      <c r="T19" s="38" t="s">
         <v>86</v>
       </c>
       <c r="U19" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="V19" s="23" t="s">
+      <c r="V19" s="38" t="s">
         <v>86</v>
       </c>
       <c r="W19" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="X19" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
+      <c r="X19" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y19" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z19" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
     </row>
     <row r="20" spans="1:28" ht="43.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -5480,35 +5912,35 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="76"/>
-      <c r="R20" s="66"/>
+      <c r="R20" s="53"/>
       <c r="S20" s="76"/>
-      <c r="T20" s="66"/>
+      <c r="T20" s="53"/>
       <c r="U20" s="76"/>
-      <c r="V20" s="66"/>
+      <c r="V20" s="53"/>
       <c r="W20" s="76"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
     </row>
     <row r="21" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="80">
+      <c r="A21" s="69">
         <v>10</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="22" t="s">
+      <c r="D21" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="20" t="s">
         <v>106</v>
       </c>
       <c r="G21" s="6"/>
@@ -5524,39 +5956,43 @@
       <c r="Q21" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R21" s="23" t="s">
+      <c r="R21" s="38" t="s">
         <v>86</v>
       </c>
       <c r="S21" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T21" s="23" t="s">
+      <c r="T21" s="38" t="s">
         <v>86</v>
       </c>
       <c r="U21" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="V21" s="23" t="s">
+      <c r="V21" s="38" t="s">
         <v>86</v>
       </c>
       <c r="W21" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="X21" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
+      <c r="X21" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y21" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z21" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
     </row>
     <row r="22" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -5568,35 +6004,35 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="76"/>
-      <c r="R22" s="66"/>
+      <c r="R22" s="53"/>
       <c r="S22" s="76"/>
-      <c r="T22" s="66"/>
+      <c r="T22" s="53"/>
       <c r="U22" s="76"/>
-      <c r="V22" s="66"/>
+      <c r="V22" s="53"/>
       <c r="W22" s="76"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="76"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="68"/>
     </row>
     <row r="23" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="80">
+      <c r="A23" s="69">
         <v>11</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="22" t="s">
+      <c r="D23" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>106</v>
       </c>
       <c r="G23" s="6"/>
@@ -5612,39 +6048,43 @@
       <c r="Q23" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R23" s="23" t="s">
+      <c r="R23" s="38" t="s">
         <v>86</v>
       </c>
       <c r="S23" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T23" s="23" t="s">
+      <c r="T23" s="38" t="s">
         <v>86</v>
       </c>
       <c r="U23" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="V23" s="23" t="s">
+      <c r="V23" s="38" t="s">
         <v>86</v>
       </c>
       <c r="W23" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="X23" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
+      <c r="X23" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y23" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z23" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
     </row>
     <row r="24" spans="1:28" ht="99.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5656,35 +6096,35 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="76"/>
-      <c r="R24" s="66"/>
+      <c r="R24" s="53"/>
       <c r="S24" s="76"/>
-      <c r="T24" s="66"/>
+      <c r="T24" s="53"/>
       <c r="U24" s="76"/>
-      <c r="V24" s="66"/>
+      <c r="V24" s="53"/>
       <c r="W24" s="76"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="71"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="76"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="68"/>
     </row>
     <row r="25" spans="1:28" ht="36.549999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="80">
+      <c r="A25" s="69">
         <v>12</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="22" t="s">
+      <c r="D25" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="20" t="s">
         <v>106</v>
       </c>
       <c r="G25" s="6"/>
@@ -5700,39 +6140,43 @@
       <c r="Q25" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R25" s="23" t="s">
+      <c r="R25" s="38" t="s">
         <v>86</v>
       </c>
       <c r="S25" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="T25" s="23" t="s">
+      <c r="T25" s="38" t="s">
         <v>86</v>
       </c>
       <c r="U25" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="V25" s="23" t="s">
+      <c r="V25" s="38" t="s">
         <v>86</v>
       </c>
       <c r="W25" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="X25" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
+      <c r="X25" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y25" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z25" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
     </row>
     <row r="26" spans="1:28" ht="108.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -5744,35 +6188,35 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="76"/>
-      <c r="R26" s="66"/>
+      <c r="R26" s="53"/>
       <c r="S26" s="76"/>
-      <c r="T26" s="66"/>
+      <c r="T26" s="53"/>
       <c r="U26" s="76"/>
-      <c r="V26" s="66"/>
+      <c r="V26" s="53"/>
       <c r="W26" s="76"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="71"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="76"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
     </row>
     <row r="27" spans="1:28" ht="58.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="80">
+      <c r="A27" s="69">
         <v>13</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="F27" s="22" t="s">
+      <c r="D27" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>106</v>
       </c>
       <c r="G27" s="6"/>
@@ -5788,37 +6232,41 @@
       <c r="Q27" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="R27" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="S27" s="72" t="s">
+      <c r="R27" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S27" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="T27" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="U27" s="72" t="s">
+      <c r="T27" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U27" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="V27" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="W27" s="72" t="s">
+      <c r="V27" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="W27" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="X27" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
+      <c r="X27" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y27" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z27" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
     </row>
     <row r="28" spans="1:28" ht="104.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="74"/>
       <c r="B28" s="74"/>
       <c r="C28" s="74"/>
-      <c r="D28" s="79"/>
+      <c r="D28" s="72"/>
       <c r="E28" s="74"/>
       <c r="F28" s="74"/>
       <c r="G28" s="6"/>
@@ -5832,35 +6280,35 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="77"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="74"/>
-      <c r="Z28" s="74"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="81"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="53"/>
       <c r="AA28" s="74"/>
       <c r="AB28" s="74"/>
     </row>
     <row r="29" spans="1:28" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="55">
+      <c r="A29" s="56">
         <v>14</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" s="68" t="s">
+      <c r="D29" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="73" t="s">
         <v>106</v>
       </c>
       <c r="G29" s="6"/>
@@ -5873,42 +6321,46 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="68" t="s">
+      <c r="Q29" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="R29" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="S29" s="68" t="s">
+      <c r="R29" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="S29" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="T29" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="U29" s="68" t="s">
+      <c r="T29" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="U29" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="V29" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="W29" s="68" t="s">
+      <c r="V29" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="W29" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="X29" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y29" s="68"/>
-      <c r="Z29" s="68"/>
-      <c r="AA29" s="68"/>
-      <c r="AB29" s="68"/>
+      <c r="X29" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y29" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z29" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA29" s="73"/>
+      <c r="AB29" s="73"/>
     </row>
     <row r="30" spans="1:28" ht="88.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -5919,43 +6371,254 @@
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="70"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="70"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="56"/>
-      <c r="AB30" s="56"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="279">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:A2"/>
@@ -5980,239 +6643,28 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6223,8 +6675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57356F81-C035-4AAA-8EFA-FCD653420C4E}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13:N14"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6235,19 +6687,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="35" t="s">
@@ -6272,11 +6724,11 @@
       <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
@@ -6309,437 +6761,575 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="85">
+      <c r="A3" s="83">
         <v>1</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="D3" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="F3" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="82"/>
+    </row>
+    <row r="5" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="83">
+        <v>2</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
-    </row>
-    <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="82"/>
-    </row>
-    <row r="5" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="85">
-        <v>2</v>
-      </c>
-      <c r="B5" s="86" t="s">
+      <c r="E5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="82"/>
+    </row>
+    <row r="7" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="83">
+        <v>3</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="D7" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="23"/>
-    </row>
-    <row r="6" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="82"/>
-    </row>
-    <row r="7" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="85">
-        <v>3</v>
-      </c>
-      <c r="B7" s="86" t="s">
+      <c r="F7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="82"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="83">
+        <v>4</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="D9" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="22"/>
-      <c r="O7" s="23"/>
-    </row>
-    <row r="8" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="82"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="85">
-        <v>4</v>
-      </c>
-      <c r="B9" s="86" t="s">
+      <c r="F9" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="84"/>
+      <c r="H9" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="53.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="82"/>
+    </row>
+    <row r="11" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="83">
+        <v>5</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="23"/>
-    </row>
-    <row r="10" spans="1:15" ht="53.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="84"/>
-    </row>
-    <row r="11" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="85">
-        <v>5</v>
-      </c>
-      <c r="B11" s="86" t="s">
+      <c r="E11" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="O11" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="54.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="82"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="83">
+        <v>6</v>
+      </c>
+      <c r="B13" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="D13" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="23"/>
-    </row>
-    <row r="12" spans="1:15" ht="54.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="82"/>
-    </row>
-    <row r="13" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="85">
-        <v>6</v>
-      </c>
-      <c r="B13" s="86" t="s">
+      <c r="E13" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="48.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="82"/>
+    </row>
+    <row r="15" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="83">
+        <v>7</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="23"/>
-    </row>
-    <row r="14" spans="1:15" ht="48.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="82"/>
-    </row>
-    <row r="15" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="85">
-        <v>7</v>
-      </c>
-      <c r="B15" s="86" t="s">
+      <c r="E15" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="63.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="82"/>
+    </row>
+    <row r="17" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="83">
+        <v>8</v>
+      </c>
+      <c r="B17" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="22" t="s">
+      <c r="D17" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="23"/>
-    </row>
-    <row r="16" spans="1:15" ht="63.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="82"/>
-    </row>
-    <row r="17" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="85">
-        <v>8</v>
-      </c>
-      <c r="B17" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="22" t="s">
+      <c r="E17" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" s="90"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="25"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="51"/>
-      <c r="J17" s="25"/>
+      <c r="J17" s="32"/>
       <c r="K17" s="51"/>
-      <c r="L17" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="23"/>
+      <c r="L17" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="18" spans="1:15" ht="58.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="71"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="68"/>
       <c r="M18" s="82"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="84"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="130">
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="N17:N18"/>
@@ -6764,112 +7354,583 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20DB7B2-8C28-4EEE-B9A8-E6E838D148A3}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I3:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="31.47265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="83">
+        <v>1</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="82"/>
+    </row>
+    <row r="5" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="83">
+        <v>2</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="82"/>
+    </row>
+    <row r="7" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="83">
+        <v>3</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="82"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="83">
+        <v>4</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="53.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="82"/>
+    </row>
+    <row r="11" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:9" ht="63.9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="58.8" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB19268-D477-4CCC-969A-6CE0B5795691}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="31.47265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="83">
+        <v>1</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="82"/>
+    </row>
+    <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="83">
+        <v>2</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="82"/>
+    </row>
+    <row r="7" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="83">
+        <v>3</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="82"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="83">
+        <v>4</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="53.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="82"/>
+    </row>
+    <row r="11" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="83">
+        <v>5</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="82"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="83">
+        <v>6</v>
+      </c>
+      <c r="B13" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="48.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="82"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:7" ht="63.9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="58.8" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Cases/Test Cases.xlsx
+++ b/Test Cases/Test Cases.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AF3809-8DD3-4302-BB62-4FF8E198CA9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8712B3-D202-4B4E-9FAE-BF42E850F24D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="3" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="183">
   <si>
     <t>S/N</t>
   </si>
@@ -1056,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1108,49 +1108,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1160,7 +1121,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1168,20 +1168,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1196,12 +1196,11 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1221,38 +1220,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1267,16 +1264,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1284,6 +1281,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1293,9 +1293,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1600,22 +1597,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -1628,12 +1625,12 @@
       <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1648,77 +1645,77 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="24">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="25"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="21"/>
-      <c r="F4" s="37"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" ht="21.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="24">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="31" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="40"/>
+      <c r="H5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="25"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="1" t="s">
@@ -1727,40 +1724,40 @@
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" ht="29.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="24">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="31" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="40"/>
+      <c r="H7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="25"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="1" t="s">
@@ -1769,40 +1766,40 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="24">
+      <c r="A9" s="29">
         <v>3</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="23" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="25"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="1" t="s">
@@ -1811,40 +1808,40 @@
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
-      <c r="H10" s="39"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="24">
+      <c r="A11" s="29">
         <v>3</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="31" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="23" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="25"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="1" t="s">
@@ -1853,40 +1850,40 @@
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="39"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="34.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="24">
+      <c r="A13" s="29">
         <v>4</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="31" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="40"/>
+      <c r="H13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="25"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="1" t="s">
@@ -1895,40 +1892,40 @@
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="24">
+      <c r="A15" s="29">
         <v>5</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="31" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="40"/>
+      <c r="H15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="25"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="1" t="s">
@@ -1937,40 +1934,40 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="24">
+      <c r="A17" s="29">
         <v>6</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="31" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="40"/>
+      <c r="H17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="25"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="1" t="s">
@@ -1979,23 +1976,61 @@
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
@@ -2012,55 +2047,17 @@
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2068,10 +2065,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E58DDB3-843E-4853-B232-227E39611710}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I10"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2081,20 +2078,20 @@
     <col min="4" max="4" width="31.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="35" t="s">
@@ -2105,13 +2102,17 @@
         <v>41</v>
       </c>
       <c r="I1" s="35"/>
-    </row>
-    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="J1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="35"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2124,208 +2125,224 @@
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="83">
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="82">
         <v>1</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="20" t="s">
+      <c r="G3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="132.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="82"/>
-    </row>
-    <row r="5" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="83">
+      <c r="I3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="132.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="81"/>
+    </row>
+    <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="82">
         <v>2</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="I5" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="82"/>
-    </row>
-    <row r="7" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="83">
+      <c r="I5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="81"/>
+    </row>
+    <row r="7" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="82">
         <v>3</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="20" t="s">
+      <c r="G7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="I7" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="82"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="83">
+      <c r="I7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="81"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="82">
         <v>4</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="20" t="s">
+      <c r="G9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="I9" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="53.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="82"/>
-    </row>
-    <row r="11" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="12" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="16" spans="1:9" ht="63.9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="I9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="53.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="81"/>
+    </row>
+    <row r="11" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:11" ht="54.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:11" ht="48.9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:11" ht="63.9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="17" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="18" ht="58.8" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F3:F4"/>
+  <mergeCells count="52">
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A3:A4"/>
@@ -2338,6 +2355,37 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2374,22 +2422,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -2402,12 +2450,12 @@
       <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2422,39 +2470,39 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="24">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="20" t="s">
+      <c r="H3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="25"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="1" t="s">
@@ -2463,44 +2511,44 @@
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="39"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="21"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="24">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="25"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="1" t="s">
@@ -2509,44 +2557,44 @@
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="39"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="24">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="20" t="s">
+      <c r="H7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="25"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="1" t="s">
@@ -2555,85 +2603,85 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="39"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="39"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="24">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="25"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="21"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="39"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="39"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="24">
+      <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="20" t="s">
+      <c r="H11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K11" t="s">
@@ -2641,7 +2689,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="25"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="1" t="s">
@@ -2650,44 +2698,44 @@
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="39"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="39"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="24">
+      <c r="A13" s="29">
         <v>6</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="20" t="s">
+      <c r="H13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="25"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="1" t="s">
@@ -2696,27 +2744,27 @@
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="39"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="24">
+      <c r="A15" s="29">
         <v>7</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="31" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="22" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="41"/>
@@ -2725,7 +2773,7 @@
       <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:11" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="25"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="1" t="s">
@@ -2739,31 +2787,31 @@
       <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="24">
+      <c r="A17" s="29">
         <v>8</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="25"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="1" t="s">
@@ -2771,28 +2819,28 @@
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="24">
+      <c r="A19" s="29">
         <v>9</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="31" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="22" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="41"/>
@@ -2801,7 +2849,7 @@
       <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:10" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="25"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="1" t="s">
@@ -2816,54 +2864,31 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G13:G14"/>
@@ -2880,31 +2905,54 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2927,22 +2975,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -2955,12 +3003,12 @@
       <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2975,241 +3023,239 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="24">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="25"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="47"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="31"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="24">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="25"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="47"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="31"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="24">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="25"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="47"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="31"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="24">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="31" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="20" t="s">
+      <c r="G9" s="25"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="25"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="47"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="31"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="24">
+      <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="31" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="20" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="25"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="47"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="31"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3226,26 +3272,28 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3267,22 +3315,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -3339,12 +3387,12 @@
       <c r="AF1" s="35"/>
     </row>
     <row r="2" spans="1:32" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3425,455 +3473,538 @@
       </c>
     </row>
     <row r="3" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="24">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="20" t="s">
+      <c r="H3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="20" t="s">
+      <c r="L3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="20" t="s">
+      <c r="N3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="20" t="s">
+      <c r="R3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="32"/>
+      <c r="T3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="25"/>
       <c r="V3" s="48"/>
-      <c r="W3" s="32"/>
+      <c r="W3" s="25"/>
       <c r="X3" s="48"/>
-      <c r="Y3" s="32"/>
+      <c r="Y3" s="25"/>
       <c r="Z3" s="48"/>
-      <c r="AA3" s="32"/>
+      <c r="AA3" s="25"/>
       <c r="AB3" s="48"/>
-      <c r="AC3" s="32"/>
+      <c r="AC3" s="25"/>
       <c r="AD3" s="48"/>
-      <c r="AE3" s="32"/>
+      <c r="AE3" s="25"/>
       <c r="AF3" s="48"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="25"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="47"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="25"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="49"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="39"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="21"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="25"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="30"/>
       <c r="P4" s="49"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="39"/>
+      <c r="R4" s="24"/>
       <c r="S4" s="21"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
     </row>
     <row r="5" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="24">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="20" t="s">
+      <c r="L5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="20" t="s">
+      <c r="N5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="R5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="20" t="s">
+      <c r="R5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5" s="32"/>
+      <c r="T5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="25"/>
       <c r="V5" s="48"/>
-      <c r="W5" s="32"/>
+      <c r="W5" s="25"/>
       <c r="X5" s="48"/>
-      <c r="Y5" s="32"/>
+      <c r="Y5" s="25"/>
       <c r="Z5" s="48"/>
-      <c r="AA5" s="32"/>
+      <c r="AA5" s="25"/>
       <c r="AB5" s="48"/>
-      <c r="AC5" s="32"/>
+      <c r="AC5" s="25"/>
       <c r="AD5" s="48"/>
-      <c r="AE5" s="32"/>
+      <c r="AE5" s="25"/>
       <c r="AF5" s="48"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="25"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="47"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="25"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="49"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="39"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="21"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="25"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="30"/>
       <c r="P6" s="49"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="39"/>
+      <c r="R6" s="24"/>
       <c r="S6" s="21"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
     </row>
     <row r="7" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="24">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="20" t="s">
+      <c r="H7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="20" t="s">
+      <c r="L7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="20" t="s">
+      <c r="N7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="R7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="20" t="s">
+      <c r="R7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="T7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" s="32"/>
+      <c r="T7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="25"/>
       <c r="V7" s="48"/>
-      <c r="W7" s="32"/>
+      <c r="W7" s="25"/>
       <c r="X7" s="48"/>
-      <c r="Y7" s="32"/>
+      <c r="Y7" s="25"/>
       <c r="Z7" s="48"/>
-      <c r="AA7" s="32"/>
+      <c r="AA7" s="25"/>
       <c r="AB7" s="48"/>
-      <c r="AC7" s="32"/>
+      <c r="AC7" s="25"/>
       <c r="AD7" s="48"/>
-      <c r="AE7" s="32"/>
+      <c r="AE7" s="25"/>
       <c r="AF7" s="48"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="25"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="47"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="25"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="49"/>
       <c r="K8" s="21"/>
-      <c r="L8" s="39"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="25"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="30"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="39"/>
+      <c r="R8" s="24"/>
       <c r="S8" s="21"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
     </row>
     <row r="9" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="24">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="31" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="32"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="51"/>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="20" t="s">
+      <c r="L9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" s="20" t="s">
+      <c r="N9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="Q9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="R9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" s="20" t="s">
+      <c r="R9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="T9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U9" s="32"/>
+      <c r="T9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="25"/>
       <c r="V9" s="48"/>
-      <c r="W9" s="32"/>
+      <c r="W9" s="25"/>
       <c r="X9" s="48"/>
-      <c r="Y9" s="32"/>
+      <c r="Y9" s="25"/>
       <c r="Z9" s="48"/>
-      <c r="AA9" s="32"/>
+      <c r="AA9" s="25"/>
       <c r="AB9" s="48"/>
-      <c r="AC9" s="32"/>
+      <c r="AC9" s="25"/>
       <c r="AD9" s="48"/>
-      <c r="AE9" s="32"/>
+      <c r="AE9" s="25"/>
       <c r="AF9" s="48"/>
     </row>
     <row r="10" spans="1:32" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="25"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="47"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="50"/>
       <c r="H10" s="52"/>
-      <c r="I10" s="25"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="49"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="39"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="25"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="49"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="39"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="21"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
     <mergeCell ref="AF5:AF6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3898,109 +4029,26 @@
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4010,8 +4058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5958A5D-193E-40FD-A829-53ED413F4D4A}">
   <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5:AB13"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5:AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4029,22 +4077,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -4097,12 +4145,12 @@
       <c r="AD1" s="35"/>
     </row>
     <row r="2" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="67"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -4177,356 +4225,364 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="56.05" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="56">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="20" t="s">
+      <c r="H3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="20" t="s">
+      <c r="J3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="20" t="s">
+      <c r="L3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="20" t="s">
+      <c r="N3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="P3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" s="20" t="s">
+      <c r="P3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="20" t="s">
+      <c r="R3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="20" t="s">
+      <c r="T3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="V3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W3" s="20" t="s">
+      <c r="V3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="X3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="46"/>
+      <c r="X3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="43"/>
     </row>
     <row r="4" spans="1:30" ht="56.05" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="57"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="63"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="39"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="21"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="39"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="21"/>
-      <c r="N4" s="39"/>
+      <c r="N4" s="24"/>
       <c r="O4" s="21"/>
-      <c r="P4" s="39"/>
+      <c r="P4" s="24"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="39"/>
+      <c r="R4" s="24"/>
       <c r="S4" s="21"/>
-      <c r="T4" s="39"/>
+      <c r="T4" s="24"/>
       <c r="U4" s="21"/>
-      <c r="V4" s="39"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="21"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
     </row>
     <row r="5" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="56">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="20" t="s">
+      <c r="J5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="20" t="s">
+      <c r="L5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="20" t="s">
+      <c r="N5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="20" t="s">
+      <c r="P5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="R5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="20" t="s">
+      <c r="R5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="T5" s="30" t="s">
+      <c r="T5" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="V5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W5" s="20" t="s">
+      <c r="V5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="X5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y5" s="20" t="s">
+      <c r="X5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="Z5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA5" s="20" t="s">
+      <c r="Z5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="AB5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="46"/>
+      <c r="AB5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC5" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD5" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="6" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="57"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="63"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="39"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="39"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="21"/>
-      <c r="N6" s="39"/>
+      <c r="N6" s="24"/>
       <c r="O6" s="21"/>
-      <c r="P6" s="39"/>
+      <c r="P6" s="24"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="39"/>
+      <c r="R6" s="24"/>
       <c r="S6" s="21"/>
       <c r="T6" s="49"/>
       <c r="U6" s="21"/>
-      <c r="V6" s="39"/>
+      <c r="V6" s="24"/>
       <c r="W6" s="21"/>
-      <c r="X6" s="39"/>
+      <c r="X6" s="24"/>
       <c r="Y6" s="21"/>
-      <c r="Z6" s="39"/>
+      <c r="Z6" s="24"/>
       <c r="AA6" s="21"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="24"/>
     </row>
     <row r="7" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="56">
+      <c r="A7" s="55">
         <v>3</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="20" t="s">
+      <c r="H7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="20" t="s">
+      <c r="J7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="20" t="s">
+      <c r="L7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="N7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="20" t="s">
+      <c r="N7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="P7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q7" s="20" t="s">
+      <c r="P7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="R7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="20" t="s">
+      <c r="R7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="T7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" s="20" t="s">
+      <c r="T7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="V7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W7" s="20" t="s">
+      <c r="V7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="X7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y7" s="20" t="s">
+      <c r="X7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA7" s="20" t="s">
+      <c r="Z7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="AB7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="46"/>
+      <c r="AB7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC7" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD7" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:30" ht="56.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="57"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="53"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="66"/>
       <c r="U8" s="21"/>
-      <c r="V8" s="39"/>
+      <c r="V8" s="24"/>
       <c r="W8" s="21"/>
-      <c r="X8" s="39"/>
+      <c r="X8" s="24"/>
       <c r="Y8" s="21"/>
-      <c r="Z8" s="39"/>
+      <c r="Z8" s="24"/>
       <c r="AA8" s="21"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="24"/>
     </row>
     <row r="9" spans="1:30" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14">
@@ -4745,8 +4801,12 @@
       <c r="AB12" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
+      <c r="AC12" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD12" s="19" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" spans="1:30" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="16">
@@ -4805,11 +4865,99 @@
       <c r="AB13" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
+      <c r="AC13" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD13" s="19" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="AC1:AD1"/>
@@ -4834,90 +4982,6 @@
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4927,8 +4991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A32C82-4E28-47DA-B010-C23DCFFA9445}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Z30"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3:AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4939,22 +5003,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -5003,12 +5067,12 @@
       <c r="AB1" s="35"/>
     </row>
     <row r="2" spans="1:28" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -5077,134 +5141,138 @@
       </c>
     </row>
     <row r="3" spans="1:28" s="3" customFormat="1" ht="76.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="69">
+      <c r="A3" s="79">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="20" t="s">
+      <c r="H3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="R3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="20" t="s">
+      <c r="R3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="T3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="20" t="s">
+      <c r="T3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="V3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W3" s="20" t="s">
+      <c r="V3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="X3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y3" s="20" t="s">
+      <c r="X3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="Z3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
+      <c r="Z3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="4" spans="1:28" s="3" customFormat="1" ht="63.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="68"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="70"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="68"/>
+      <c r="K4" s="70"/>
       <c r="L4" s="49"/>
-      <c r="M4" s="68"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="49"/>
-      <c r="O4" s="68"/>
+      <c r="O4" s="70"/>
       <c r="P4" s="49"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="68"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="66"/>
     </row>
     <row r="5" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="69">
+      <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>100</v>
       </c>
       <c r="G5" s="6"/>
@@ -5217,46 +5285,50 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="75" t="s">
+      <c r="Q5" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="R5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="75" t="s">
+      <c r="R5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="T5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5" s="75" t="s">
+      <c r="T5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="V5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W5" s="75" t="s">
+      <c r="V5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="X5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y5" s="75" t="s">
+      <c r="X5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="Z5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
+      <c r="Z5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA5" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="6" spans="1:28" ht="79.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5267,36 +5339,36 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="66"/>
     </row>
     <row r="7" spans="1:28" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="69">
+      <c r="A7" s="79">
         <v>3</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>100</v>
       </c>
       <c r="G7" s="6"/>
@@ -5309,46 +5381,50 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="75" t="s">
+      <c r="Q7" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="75" t="s">
+      <c r="R7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="T7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" s="75" t="s">
+      <c r="T7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="V7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W7" s="75" t="s">
+      <c r="V7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W7" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="X7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y7" s="75" t="s">
+      <c r="X7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="Z7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
+      <c r="Z7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA7" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:28" ht="102.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5359,36 +5435,36 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="76"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="66"/>
     </row>
     <row r="9" spans="1:28" ht="71.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="69">
+      <c r="A9" s="79">
         <v>4</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="6"/>
@@ -5401,46 +5477,50 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="75" t="s">
+      <c r="Q9" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="R9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" s="75" t="s">
+      <c r="R9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S9" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="T9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U9" s="75" t="s">
+      <c r="T9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="V9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W9" s="75" t="s">
+      <c r="V9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W9" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="X9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y9" s="75" t="s">
+      <c r="X9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y9" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="Z9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
+      <c r="Z9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA9" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:28" ht="52.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5451,36 +5531,36 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="68"/>
-      <c r="AB10" s="68"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="66"/>
     </row>
     <row r="11" spans="1:28" ht="42.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="69">
+      <c r="A11" s="79">
         <v>5</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="22" t="s">
         <v>100</v>
       </c>
       <c r="G11" s="6"/>
@@ -5493,46 +5573,50 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="75" t="s">
+      <c r="Q11" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S11" s="75" t="s">
+      <c r="R11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S11" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="T11" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U11" s="75" t="s">
+      <c r="T11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U11" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="V11" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W11" s="75" t="s">
+      <c r="V11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W11" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="X11" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y11" s="75" t="s">
+      <c r="X11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y11" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="Z11" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
+      <c r="Z11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA11" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB11" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="12" spans="1:28" ht="91.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -5543,36 +5627,36 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="66"/>
     </row>
     <row r="13" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="69">
+      <c r="A13" s="79">
         <v>6</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="22" t="s">
         <v>106</v>
       </c>
       <c r="G13" s="6"/>
@@ -5585,46 +5669,50 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="75" t="s">
+      <c r="Q13" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="R13" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S13" s="75" t="s">
+      <c r="R13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="T13" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U13" s="75" t="s">
+      <c r="T13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U13" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="V13" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W13" s="75" t="s">
+      <c r="V13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W13" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="X13" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y13" s="75" t="s">
+      <c r="X13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="Z13" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
+      <c r="Z13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA13" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB13" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" spans="1:28" ht="88.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -5635,36 +5723,36 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="66"/>
     </row>
     <row r="15" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="69">
+      <c r="A15" s="79">
         <v>7</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="22" t="s">
         <v>106</v>
       </c>
       <c r="G15" s="6"/>
@@ -5677,46 +5765,50 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="75" t="s">
+      <c r="Q15" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="R15" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S15" s="75" t="s">
+      <c r="R15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S15" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="T15" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U15" s="75" t="s">
+      <c r="T15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U15" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="V15" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W15" s="75" t="s">
+      <c r="V15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W15" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="X15" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y15" s="75" t="s">
+      <c r="X15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y15" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="Z15" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
+      <c r="Z15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA15" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB15" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="16" spans="1:28" ht="58.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -5727,36 +5819,36 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="66"/>
     </row>
     <row r="17" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="69">
+      <c r="A17" s="79">
         <v>8</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="22" t="s">
         <v>106</v>
       </c>
       <c r="G17" s="6"/>
@@ -5769,46 +5861,50 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="75" t="s">
+      <c r="Q17" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="R17" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S17" s="75" t="s">
+      <c r="R17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S17" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="T17" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U17" s="75" t="s">
+      <c r="T17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U17" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="V17" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W17" s="75" t="s">
+      <c r="V17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W17" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="X17" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y17" s="75" t="s">
+      <c r="X17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y17" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="Z17" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
+      <c r="Z17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA17" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB17" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="18" spans="1:28" ht="43.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -5819,36 +5915,36 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="76"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="76"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="68"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="66"/>
     </row>
     <row r="19" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="69">
+      <c r="A19" s="79">
         <v>9</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="22" t="s">
         <v>106</v>
       </c>
       <c r="G19" s="6"/>
@@ -5861,46 +5957,50 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="75" t="s">
+      <c r="Q19" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="R19" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S19" s="75" t="s">
+      <c r="R19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S19" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="T19" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U19" s="75" t="s">
+      <c r="T19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U19" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="V19" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W19" s="75" t="s">
+      <c r="V19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W19" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="X19" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y19" s="75" t="s">
+      <c r="X19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y19" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="Z19" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
+      <c r="Z19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA19" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB19" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="20" spans="1:28" ht="43.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -5911,36 +6011,36 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="66"/>
     </row>
     <row r="21" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="69">
+      <c r="A21" s="79">
         <v>10</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="22" t="s">
         <v>106</v>
       </c>
       <c r="G21" s="6"/>
@@ -5953,46 +6053,50 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="75" t="s">
+      <c r="Q21" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="R21" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S21" s="75" t="s">
+      <c r="R21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S21" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="T21" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U21" s="75" t="s">
+      <c r="T21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U21" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="V21" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W21" s="75" t="s">
+      <c r="V21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W21" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="X21" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y21" s="75" t="s">
+      <c r="X21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y21" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="Z21" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
+      <c r="Z21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA21" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB21" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="22" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -6003,36 +6107,36 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="76"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="68"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="66"/>
     </row>
     <row r="23" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="69">
+      <c r="A23" s="79">
         <v>11</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="22" t="s">
         <v>106</v>
       </c>
       <c r="G23" s="6"/>
@@ -6045,46 +6149,50 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="75" t="s">
+      <c r="Q23" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="R23" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S23" s="75" t="s">
+      <c r="R23" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S23" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="T23" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U23" s="75" t="s">
+      <c r="T23" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U23" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="V23" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W23" s="75" t="s">
+      <c r="V23" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W23" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="X23" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y23" s="75" t="s">
+      <c r="X23" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y23" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="Z23" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
+      <c r="Z23" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA23" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB23" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="24" spans="1:28" ht="99.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -6095,36 +6203,36 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="76"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="76"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="76"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="68"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="66"/>
     </row>
     <row r="25" spans="1:28" ht="36.549999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="69">
+      <c r="A25" s="79">
         <v>12</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="22" t="s">
         <v>106</v>
       </c>
       <c r="G25" s="6"/>
@@ -6137,46 +6245,50 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="75" t="s">
+      <c r="Q25" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="R25" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S25" s="75" t="s">
+      <c r="R25" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S25" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="T25" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U25" s="75" t="s">
+      <c r="T25" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U25" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="V25" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W25" s="75" t="s">
+      <c r="V25" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W25" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="X25" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y25" s="75" t="s">
+      <c r="X25" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y25" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="Z25" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
+      <c r="Z25" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA25" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB25" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="26" spans="1:28" ht="108.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -6187,36 +6299,36 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="76"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="68"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="66"/>
     </row>
     <row r="27" spans="1:28" ht="58.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="69">
+      <c r="A27" s="79">
         <v>13</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="22" t="s">
         <v>106</v>
       </c>
       <c r="G27" s="6"/>
@@ -6229,46 +6341,50 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-      <c r="Q27" s="75" t="s">
+      <c r="Q27" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="R27" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="S27" s="80" t="s">
+      <c r="R27" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S27" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="T27" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U27" s="80" t="s">
+      <c r="T27" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U27" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="V27" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="W27" s="80" t="s">
+      <c r="V27" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W27" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="X27" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y27" s="80" t="s">
+      <c r="X27" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y27" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="Z27" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
+      <c r="Z27" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA27" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB27" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="28" spans="1:28" ht="104.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="74"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -6279,36 +6395,36 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="81"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="74"/>
-      <c r="AB28" s="74"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="66"/>
     </row>
     <row r="29" spans="1:28" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="56">
+      <c r="A29" s="55">
         <v>14</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="F29" s="73" t="s">
+      <c r="F29" s="67" t="s">
         <v>106</v>
       </c>
       <c r="G29" s="6"/>
@@ -6321,46 +6437,50 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="73" t="s">
+      <c r="Q29" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="R29" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="S29" s="73" t="s">
+      <c r="R29" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="S29" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="T29" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="U29" s="73" t="s">
+      <c r="T29" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="U29" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="V29" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="W29" s="73" t="s">
+      <c r="V29" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="W29" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="X29" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y29" s="73" t="s">
+      <c r="X29" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y29" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="Z29" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA29" s="73"/>
-      <c r="AB29" s="73"/>
+      <c r="Z29" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA29" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB29" s="68" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="30" spans="1:28" ht="88.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -6371,185 +6491,112 @@
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="57"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="56"/>
+      <c r="AB30" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="279">
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F23:F24"/>
@@ -6574,97 +6621,170 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6673,10 +6793,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57356F81-C035-4AAA-8EFA-FCD653420C4E}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:O18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6686,20 +6806,20 @@
     <col min="4" max="4" width="31.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="35" t="s">
@@ -6722,13 +6842,17 @@
         <v>41</v>
       </c>
       <c r="O1" s="35"/>
-    </row>
-    <row r="2" spans="1:15" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="P1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="35"/>
+    </row>
+    <row r="2" spans="1:17" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
@@ -6759,507 +6883,628 @@
       <c r="O2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="83">
+      <c r="P2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="82">
         <v>1</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="20" t="s">
+      <c r="G3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="20" t="s">
+      <c r="I3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="20" t="s">
+      <c r="K3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="M3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="20" t="s">
+      <c r="M3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="82"/>
-    </row>
-    <row r="5" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="83">
+      <c r="O3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="81"/>
+    </row>
+    <row r="5" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="82">
         <v>2</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="20" t="s">
+      <c r="I5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L5" s="20" t="s">
+      <c r="K5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="M5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" s="20" t="s">
+      <c r="M5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="O5" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="82"/>
-    </row>
-    <row r="7" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="83">
+      <c r="O5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="81"/>
+    </row>
+    <row r="7" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="82">
         <v>3</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="20" t="s">
+      <c r="G7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="K7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="20" t="s">
+      <c r="K7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="M7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="20" t="s">
+      <c r="M7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="O7" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="82"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="83">
+      <c r="O7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="81"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="82">
         <v>4</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="74" t="s">
         <v>116</v>
       </c>
       <c r="G9" s="84"/>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="20" t="s">
+      <c r="I9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="20" t="s">
+      <c r="K9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="M9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="N9" s="20" t="s">
+      <c r="M9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="O9" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="53.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="76"/>
+      <c r="O9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="53.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="75"/>
       <c r="G10" s="85"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="82"/>
-    </row>
-    <row r="11" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="83">
+      <c r="H10" s="70"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="81"/>
+    </row>
+    <row r="11" spans="1:17" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="82">
         <v>5</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="32"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="51"/>
-      <c r="H11" s="32"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="51"/>
-      <c r="J11" s="32"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="51"/>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="M11" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="N11" s="20" t="s">
+      <c r="M11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="O11" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="54.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="34"/>
+      <c r="O11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="54.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="86"/>
-      <c r="H12" s="34"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="86"/>
-      <c r="J12" s="34"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="86"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="82"/>
-    </row>
-    <row r="13" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="83">
+      <c r="L12" s="70"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="81"/>
+    </row>
+    <row r="13" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="82">
         <v>6</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="32"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="51"/>
-      <c r="H13" s="32"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="51"/>
-      <c r="J13" s="32"/>
+      <c r="J13" s="25"/>
       <c r="K13" s="51"/>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="M13" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="N13" s="20" t="s">
+      <c r="M13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="O13" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="48.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="34"/>
+      <c r="O13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="48.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="86"/>
-      <c r="H14" s="34"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="86"/>
-      <c r="J14" s="34"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="86"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="82"/>
-    </row>
-    <row r="15" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="83">
+      <c r="L14" s="70"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="81"/>
+    </row>
+    <row r="15" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="82">
         <v>7</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="32"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="51"/>
-      <c r="H15" s="32"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="51"/>
-      <c r="J15" s="32"/>
+      <c r="J15" s="25"/>
       <c r="K15" s="51"/>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="M15" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="N15" s="20" t="s">
+      <c r="M15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="O15" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="63.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="34"/>
+      <c r="O15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="63.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="86"/>
-      <c r="H16" s="34"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="86"/>
-      <c r="J16" s="34"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="86"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="82"/>
-    </row>
-    <row r="17" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="83">
+      <c r="L16" s="70"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="81"/>
+    </row>
+    <row r="17" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="82">
         <v>8</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="88"/>
+      <c r="F17" s="87"/>
       <c r="G17" s="84"/>
-      <c r="H17" s="32"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="51"/>
-      <c r="J17" s="32"/>
+      <c r="J17" s="25"/>
       <c r="K17" s="51"/>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="M17" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="N17" s="20" t="s">
+      <c r="M17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="O17" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="58.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="89"/>
+      <c r="O17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="58.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="85"/>
-      <c r="H18" s="34"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="86"/>
-      <c r="J18" s="34"/>
+      <c r="J18" s="28"/>
       <c r="K18" s="86"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="82"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="130">
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
+  <mergeCells count="147">
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A9:A10"/>
@@ -7284,76 +7529,42 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7361,10 +7572,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20DB7B2-8C28-4EEE-B9A8-E6E838D148A3}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I3:I10"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7374,20 +7585,20 @@
     <col min="4" max="4" width="31.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="35" t="s">
@@ -7398,13 +7609,17 @@
         <v>41</v>
       </c>
       <c r="I1" s="35"/>
-    </row>
-    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="J1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="35"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
@@ -7417,208 +7632,224 @@
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="83">
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="82">
         <v>1</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="20" t="s">
+      <c r="G3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="82"/>
-    </row>
-    <row r="5" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="83">
+      <c r="I3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="81"/>
+    </row>
+    <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="82">
         <v>2</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="82"/>
-    </row>
-    <row r="7" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="83">
+      <c r="I5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="81"/>
+    </row>
+    <row r="7" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="82">
         <v>3</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="20" t="s">
+      <c r="G7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="I7" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="82"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="83">
+      <c r="I7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="81"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="82">
         <v>4</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="20" t="s">
+      <c r="G9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="I9" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="53.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="82"/>
-    </row>
-    <row r="11" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="12" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="16" spans="1:9" ht="63.9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="I9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="53.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="81"/>
+    </row>
+    <row r="11" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:11" ht="54.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:11" ht="48.9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:11" ht="63.9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="17" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="18" ht="58.8" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F3:F4"/>
+  <mergeCells count="52">
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A3:A4"/>
@@ -7631,6 +7862,37 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7638,10 +7900,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB19268-D477-4CCC-969A-6CE0B5795691}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7651,238 +7913,343 @@
     <col min="4" max="4" width="31.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="H1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="83">
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="82">
         <v>1</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="82"/>
-    </row>
-    <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="83">
+      <c r="G3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="81"/>
+    </row>
+    <row r="5" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="82">
         <v>2</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="83">
+      <c r="G5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="81"/>
+    </row>
+    <row r="7" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="82">
         <v>3</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="83">
+      <c r="G7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="81"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="82">
         <v>4</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="53.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="82"/>
-    </row>
-    <row r="11" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="83">
+      <c r="G9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="53.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="81"/>
+    </row>
+    <row r="11" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="82">
         <v>5</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="82"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="83">
+      <c r="G11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="81"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="82">
         <v>6</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="G13" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="48.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="82"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="16" spans="1:7" ht="63.9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="G13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="81"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:9" ht="63.9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="17" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="18" ht="58.8" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="61">
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="F11:F12"/>
@@ -7897,40 +8264,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
